--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_4_31.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_4_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1853250.564610657</v>
+        <v>1852538.262787612</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>167214.7199159989</v>
+        <v>167214.719915999</v>
       </c>
     </row>
     <row r="8">
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>3.199249640013477</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1224,52 +1224,52 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
         <v>2.817899082923868</v>
       </c>
-      <c r="H9" t="n">
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
         <v>3.199249640013477</v>
       </c>
-      <c r="I9" t="n">
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
         <v>3.199249640013477</v>
-      </c>
-      <c r="J9" t="n">
-        <v>3.199249640013477</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>48.99828617350725</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>159.6238954891595</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>180.416044945585</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>168.8731344554828</v>
       </c>
       <c r="I11" t="n">
-        <v>62.86150506240824</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,28 +1415,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>16.73328122929905</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>49.3687304053804</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>44.31761724675148</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>72.00227733958198</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>142.7315194560842</v>
       </c>
       <c r="W11" t="n">
-        <v>159.7481996726991</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>188.4979333192472</v>
       </c>
     </row>
     <row r="12">
@@ -1449,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>44.95669645415434</v>
+        <v>9.369887371298148</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1467,10 +1467,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>107.3634103439873</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>52.47517038390259</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1491,31 +1491,31 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.869455874161023</v>
+        <v>6.869455874161016</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>134.7198007890776</v>
       </c>
       <c r="S12" t="n">
         <v>188.4979333192472</v>
       </c>
       <c r="T12" t="n">
-        <v>36.82265945242248</v>
+        <v>36.82265945242251</v>
       </c>
       <c r="U12" t="n">
-        <v>59.07980534382081</v>
+        <v>59.07980534382084</v>
       </c>
       <c r="V12" t="n">
-        <v>62.50065676233444</v>
+        <v>62.50065676233447</v>
       </c>
       <c r="W12" t="n">
-        <v>88.55631942394379</v>
+        <v>88.55631942394382</v>
       </c>
       <c r="X12" t="n">
-        <v>39.1646502864028</v>
+        <v>39.16465028640283</v>
       </c>
       <c r="Y12" t="n">
-        <v>45.23602198095782</v>
+        <v>105.9416110026262</v>
       </c>
     </row>
     <row r="13">
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>25.28169700256631</v>
+        <v>25.28169700256634</v>
       </c>
       <c r="S13" t="n">
-        <v>57.28978021311276</v>
+        <v>57.28978021311279</v>
       </c>
       <c r="T13" t="n">
-        <v>45.61329429725521</v>
+        <v>45.61329429725524</v>
       </c>
       <c r="U13" t="n">
         <v>110.5082928154978</v>
       </c>
       <c r="V13" t="n">
-        <v>66.9607510313821</v>
+        <v>66.96075103138213</v>
       </c>
       <c r="W13" t="n">
-        <v>112.1624429362675</v>
+        <v>112.1624429362676</v>
       </c>
       <c r="X13" t="n">
-        <v>43.77119125517473</v>
+        <v>43.77119125517476</v>
       </c>
       <c r="Y13" t="n">
-        <v>38.99300866110062</v>
+        <v>38.99300866110065</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1616,64 +1616,64 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>120.5149843693842</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>29.37348730974352</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>16.73328122929899</v>
+      </c>
+      <c r="S14" t="n">
+        <v>49.36873040538035</v>
+      </c>
+      <c r="T14" t="n">
+        <v>44.31761724675142</v>
+      </c>
+      <c r="U14" t="n">
+        <v>72.00227733958192</v>
+      </c>
+      <c r="V14" t="n">
+        <v>142.7315194560842</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
         <v>188.4979333192472</v>
-      </c>
-      <c r="H14" t="n">
-        <v>168.8731344554828</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>72.00227733958198</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>181.6344501416384</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1683,10 +1683,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>68.73072865100625</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>9.369887371298148</v>
+        <v>9.369887371298091</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1707,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>52.47517038390259</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1728,31 +1728,31 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.869455874161023</v>
+        <v>6.869455874161016</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>13.44252716693654</v>
+        <v>13.44252716693648</v>
       </c>
       <c r="T15" t="n">
-        <v>36.82265945242251</v>
+        <v>151.8880508831404</v>
       </c>
       <c r="U15" t="n">
-        <v>59.07980534382084</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="V15" t="n">
-        <v>62.50065676233447</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="W15" t="n">
-        <v>188.4979333192472</v>
+        <v>88.55631942394376</v>
       </c>
       <c r="X15" t="n">
-        <v>188.4979333192472</v>
+        <v>39.16465028640278</v>
       </c>
       <c r="Y15" t="n">
-        <v>45.23602198095784</v>
+        <v>45.23602198095779</v>
       </c>
     </row>
     <row r="16">
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>25.28169700256634</v>
+        <v>25.28169700256628</v>
       </c>
       <c r="S16" t="n">
-        <v>57.28978021311279</v>
+        <v>57.28978021311273</v>
       </c>
       <c r="T16" t="n">
-        <v>45.61329429725524</v>
+        <v>45.61329429725518</v>
       </c>
       <c r="U16" t="n">
         <v>110.5082928154978</v>
       </c>
       <c r="V16" t="n">
-        <v>66.96075103138213</v>
+        <v>66.96075103138207</v>
       </c>
       <c r="W16" t="n">
-        <v>112.1624429362676</v>
+        <v>112.1624429362675</v>
       </c>
       <c r="X16" t="n">
-        <v>43.77119125517476</v>
+        <v>43.7711912551747</v>
       </c>
       <c r="Y16" t="n">
-        <v>38.99300866110065</v>
+        <v>38.99300866110059</v>
       </c>
     </row>
     <row r="17">
@@ -1847,19 +1847,19 @@
         <v>52.7578264541944</v>
       </c>
       <c r="D17" t="n">
-        <v>40.32448871524306</v>
+        <v>40.32448871524286</v>
       </c>
       <c r="E17" t="n">
         <v>74.03124113465174</v>
       </c>
       <c r="F17" t="n">
-        <v>105.7515787130291</v>
+        <v>105.7515787130297</v>
       </c>
       <c r="G17" t="n">
         <v>121.3905020356641</v>
       </c>
       <c r="H17" t="n">
-        <v>49.57372768156616</v>
+        <v>49.57372768156614</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1935,7 +1935,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>31.30917887851532</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1965,28 +1965,28 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.869455874161023</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>134.7198007890776</v>
       </c>
       <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
         <v>188.4979333192472</v>
       </c>
-      <c r="T18" t="n">
-        <v>0</v>
-      </c>
       <c r="U18" t="n">
-        <v>159.159523793432</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>188.4979333192472</v>
       </c>
       <c r="W18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" t="n">
         <v>188.4979333192472</v>
-      </c>
-      <c r="X18" t="n">
-        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>76.63956945084891</v>
+        <v>76.63956945084894</v>
       </c>
       <c r="C20" t="n">
         <v>52.7578264541944</v>
@@ -2172,7 +2172,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>148.7446044746268</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2181,7 +2181,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>52.47517038390259</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2202,10 +2202,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.869455874161023</v>
+        <v>6.869455874161016</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>134.7198007890776</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2217,13 +2217,13 @@
         <v>188.4979333192472</v>
       </c>
       <c r="V21" t="n">
-        <v>188.4979333192472</v>
+        <v>64.19305184897479</v>
       </c>
       <c r="W21" t="n">
         <v>188.4979333192472</v>
       </c>
       <c r="X21" t="n">
-        <v>106.6843534095293</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2333,7 +2333,7 @@
         <v>121.3905020356641</v>
       </c>
       <c r="H23" t="n">
-        <v>49.57372768156614</v>
+        <v>49.57372768156615</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2394,10 +2394,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>25.41950479923567</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2418,7 +2418,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>52.47517038390259</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2439,31 +2439,31 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>6.869455874161016</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>134.7198007890776</v>
       </c>
       <c r="S24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" t="n">
         <v>188.4979333192472</v>
       </c>
-      <c r="T24" t="n">
-        <v>0</v>
-      </c>
-      <c r="U24" t="n">
+      <c r="W24" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y24" t="n">
         <v>188.4979333192472</v>
-      </c>
-      <c r="V24" t="n">
-        <v>0</v>
-      </c>
-      <c r="W24" t="n">
-        <v>113.5538092836903</v>
-      </c>
-      <c r="X24" t="n">
-        <v>188.4979333192472</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2552,10 +2552,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>160.6024898538324</v>
+        <v>160.6024898538323</v>
       </c>
       <c r="C26" t="n">
-        <v>136.7207468571779</v>
+        <v>136.7207468571778</v>
       </c>
       <c r="D26" t="n">
         <v>124.2874091182263</v>
@@ -2573,7 +2573,7 @@
         <v>133.5366480845496</v>
       </c>
       <c r="I26" t="n">
-        <v>27.52501869147508</v>
+        <v>27.52501869147505</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>14.03224403444722</v>
+        <v>14.03224403444719</v>
       </c>
       <c r="T26" t="n">
-        <v>8.981130875818293</v>
+        <v>8.981130875818264</v>
       </c>
       <c r="U26" t="n">
-        <v>36.66579096864879</v>
+        <v>36.66579096864876</v>
       </c>
       <c r="V26" t="n">
-        <v>107.3950330851511</v>
+        <v>107.395033085151</v>
       </c>
       <c r="W26" t="n">
         <v>124.4117133017659</v>
       </c>
       <c r="X26" t="n">
-        <v>146.2979637707052</v>
+        <v>146.2979637707051</v>
       </c>
       <c r="Y26" t="n">
         <v>168.8008168944489</v>
@@ -2640,7 +2640,7 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -2676,31 +2676,31 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>6.869455874161016</v>
       </c>
       <c r="R27" t="n">
-        <v>134.7198007890777</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>191.5907913200043</v>
       </c>
       <c r="T27" t="n">
-        <v>1.486173081489319</v>
+        <v>1.48617308148929</v>
       </c>
       <c r="U27" t="n">
-        <v>23.74331897288765</v>
+        <v>23.74331897288762</v>
       </c>
       <c r="V27" t="n">
-        <v>27.16417039140129</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W27" t="n">
-        <v>163.4783967016411</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X27" t="n">
-        <v>217.3129144394706</v>
+        <v>8.689102474811424</v>
       </c>
       <c r="Y27" t="n">
-        <v>9.899535610024657</v>
+        <v>9.899535610024628</v>
       </c>
     </row>
     <row r="28">
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>21.9532938421796</v>
+        <v>21.95329384217957</v>
       </c>
       <c r="T28" t="n">
-        <v>10.27680792632205</v>
+        <v>10.27680792632202</v>
       </c>
       <c r="U28" t="n">
-        <v>75.17180644456465</v>
+        <v>75.17180644456462</v>
       </c>
       <c r="V28" t="n">
-        <v>31.62426466044894</v>
+        <v>31.62426466044892</v>
       </c>
       <c r="W28" t="n">
-        <v>76.82595656533437</v>
+        <v>76.82595656533434</v>
       </c>
       <c r="X28" t="n">
-        <v>8.434704884241569</v>
+        <v>8.43470488424154</v>
       </c>
       <c r="Y28" t="n">
-        <v>3.656522290167459</v>
+        <v>3.65652229016743</v>
       </c>
     </row>
     <row r="29">
@@ -2789,10 +2789,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>160.6024898538323</v>
+        <v>160.6024898538324</v>
       </c>
       <c r="C29" t="n">
-        <v>136.7207468571778</v>
+        <v>136.7207468571779</v>
       </c>
       <c r="D29" t="n">
         <v>124.2874091182263</v>
@@ -2804,13 +2804,13 @@
         <v>189.7144991160125</v>
       </c>
       <c r="G29" t="n">
-        <v>205.3534224386475</v>
+        <v>205.3534224386476</v>
       </c>
       <c r="H29" t="n">
         <v>133.5366480845496</v>
       </c>
       <c r="I29" t="n">
-        <v>27.52501869147505</v>
+        <v>27.5250186914751</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>14.03224403444719</v>
+        <v>14.03224403444724</v>
       </c>
       <c r="T29" t="n">
-        <v>8.981130875818264</v>
+        <v>8.981130875818321</v>
       </c>
       <c r="U29" t="n">
-        <v>36.66579096864876</v>
+        <v>36.66579096864882</v>
       </c>
       <c r="V29" t="n">
-        <v>107.395033085151</v>
+        <v>107.3950330851511</v>
       </c>
       <c r="W29" t="n">
-        <v>124.4117133017659</v>
+        <v>124.411713301766</v>
       </c>
       <c r="X29" t="n">
-        <v>146.2979637707051</v>
+        <v>146.2979637707052</v>
       </c>
       <c r="Y29" t="n">
-        <v>168.8008168944489</v>
+        <v>168.800816894449</v>
       </c>
     </row>
     <row r="30">
@@ -2868,19 +2868,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F30" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2889,7 +2889,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>66.39170583757527</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2913,31 +2913,31 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>6.869455874161016</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>191.5907913200043</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>1.48617308148929</v>
+        <v>1.486173081489347</v>
       </c>
       <c r="U30" t="n">
-        <v>23.74331897288762</v>
+        <v>23.74331897288768</v>
       </c>
       <c r="V30" t="n">
-        <v>27.16417039140126</v>
+        <v>27.16417039140131</v>
       </c>
       <c r="W30" t="n">
-        <v>53.2198330530106</v>
+        <v>168.8906826663143</v>
       </c>
       <c r="X30" t="n">
-        <v>3.828163915469617</v>
+        <v>3.828163915469673</v>
       </c>
       <c r="Y30" t="n">
-        <v>223.3842861340256</v>
+        <v>9.899535610024685</v>
       </c>
     </row>
     <row r="31">
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>21.95329384217957</v>
+        <v>21.95329384217963</v>
       </c>
       <c r="T31" t="n">
-        <v>10.27680792632202</v>
+        <v>10.27680792632208</v>
       </c>
       <c r="U31" t="n">
-        <v>75.17180644456462</v>
+        <v>75.17180644456468</v>
       </c>
       <c r="V31" t="n">
-        <v>31.62426466044892</v>
+        <v>31.62426466044897</v>
       </c>
       <c r="W31" t="n">
-        <v>76.82595656533434</v>
+        <v>76.82595656533439</v>
       </c>
       <c r="X31" t="n">
-        <v>8.43470488424154</v>
+        <v>8.434704884241597</v>
       </c>
       <c r="Y31" t="n">
-        <v>3.65652229016743</v>
+        <v>3.656522290167487</v>
       </c>
     </row>
     <row r="32">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>159.7747799869681</v>
+        <v>159.774779986968</v>
       </c>
       <c r="C32" t="n">
-        <v>135.8930369903136</v>
+        <v>135.8930369903135</v>
       </c>
       <c r="D32" t="n">
-        <v>123.4596992513621</v>
+        <v>123.459699251362</v>
       </c>
       <c r="E32" t="n">
         <v>157.1664516707709</v>
       </c>
       <c r="F32" t="n">
-        <v>188.8867892491483</v>
+        <v>188.8867892491482</v>
       </c>
       <c r="G32" t="n">
-        <v>204.5257125717833</v>
+        <v>204.5257125717832</v>
       </c>
       <c r="H32" t="n">
         <v>132.7089382176853</v>
       </c>
       <c r="I32" t="n">
-        <v>26.69730882461081</v>
+        <v>26.69730882461076</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>13.20453416758295</v>
+        <v>13.20453416758289</v>
       </c>
       <c r="T32" t="n">
-        <v>8.153421008954012</v>
+        <v>8.153421008953956</v>
       </c>
       <c r="U32" t="n">
-        <v>35.83808110178452</v>
+        <v>35.83808110178447</v>
       </c>
       <c r="V32" t="n">
-        <v>106.5673232182868</v>
+        <v>106.5673232182867</v>
       </c>
       <c r="W32" t="n">
-        <v>123.5840034349017</v>
+        <v>123.5840034349016</v>
       </c>
       <c r="X32" t="n">
-        <v>145.4702539038409</v>
+        <v>145.4702539038408</v>
       </c>
       <c r="Y32" t="n">
-        <v>167.9731070275847</v>
+        <v>167.9731070275846</v>
       </c>
     </row>
     <row r="33">
@@ -3108,10 +3108,10 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -3150,31 +3150,31 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>6.869455874161016</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>191.5907913200043</v>
       </c>
       <c r="T33" t="n">
-        <v>0.658463214625051</v>
+        <v>8.830241241423998</v>
       </c>
       <c r="U33" t="n">
-        <v>22.91560910602338</v>
+        <v>22.91560910602333</v>
       </c>
       <c r="V33" t="n">
-        <v>26.33646052453702</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W33" t="n">
-        <v>126.6461421970308</v>
+        <v>52.39212318614631</v>
       </c>
       <c r="X33" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y33" t="n">
-        <v>9.071825743160389</v>
+        <v>9.071825743160332</v>
       </c>
     </row>
     <row r="34">
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>21.12558397531533</v>
+        <v>21.12558397531528</v>
       </c>
       <c r="T34" t="n">
-        <v>9.449098059457782</v>
+        <v>9.449098059457725</v>
       </c>
       <c r="U34" t="n">
-        <v>74.34409657770038</v>
+        <v>74.34409657770033</v>
       </c>
       <c r="V34" t="n">
-        <v>30.79655479358468</v>
+        <v>30.79655479358462</v>
       </c>
       <c r="W34" t="n">
-        <v>75.9982466984701</v>
+        <v>75.99824669847004</v>
       </c>
       <c r="X34" t="n">
-        <v>7.606995017377301</v>
+        <v>7.606995017377244</v>
       </c>
       <c r="Y34" t="n">
-        <v>2.828812423303191</v>
+        <v>2.828812423303134</v>
       </c>
     </row>
     <row r="35">
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>176.7504943976657</v>
+        <v>80.16410009349674</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -3354,7 +3354,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>52.47517038390259</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3393,22 +3393,22 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>191.5907913200043</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>237.2280694968886</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W36" t="n">
-        <v>144.2698634848247</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3579,16 +3579,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>112.2690317972119</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3597,13 +3597,13 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>125.7355245857741</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>107.3634103439873</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>52.47517038390259</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3636,19 +3636,19 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>237.2280694968886</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>117.3673099111834</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="40">
@@ -3831,7 +3831,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>148.7446044746268</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3870,22 +3870,22 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>203.2445927036633</v>
+        <v>214.9709236054903</v>
       </c>
       <c r="U42" t="n">
-        <v>237.2280694968886</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>25.69481436153558</v>
+        <v>176.5568712971985</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="43">
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>133.0774711623574</v>
+        <v>133.0774711623573</v>
       </c>
       <c r="C44" t="n">
         <v>109.1957281657028</v>
@@ -4059,7 +4059,7 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>93.9910664047362</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -4077,7 +4077,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>41.48433235369087</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4098,19 +4098,19 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>6.869455874161016</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>191.5907913200043</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>214.9709236054903</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>237.2280694968886</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -4799,40 +4799,40 @@
         <v>0.2559399712010781</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2559399712010781</v>
+        <v>0.384556269860207</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2559399712010781</v>
+        <v>0.384556269860207</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2559399712010781</v>
+        <v>0.384556269860207</v>
       </c>
       <c r="L8" t="n">
-        <v>0.2559399712010781</v>
+        <v>0.384556269860207</v>
       </c>
       <c r="M8" t="n">
-        <v>3.42319711481442</v>
+        <v>3.551813413473549</v>
       </c>
       <c r="N8" t="n">
-        <v>6.590454258427762</v>
+        <v>6.719070557086891</v>
       </c>
       <c r="O8" t="n">
-        <v>6.590454258427762</v>
+        <v>6.719070557086891</v>
       </c>
       <c r="P8" t="n">
-        <v>6.590454258427762</v>
+        <v>6.719070557086891</v>
       </c>
       <c r="Q8" t="n">
-        <v>6.590454258427762</v>
+        <v>6.719070557086891</v>
       </c>
       <c r="R8" t="n">
-        <v>6.590454258427762</v>
+        <v>6.719070557086891</v>
       </c>
       <c r="S8" t="n">
-        <v>6.590454258427762</v>
+        <v>6.719070557086891</v>
       </c>
       <c r="T8" t="n">
-        <v>6.590454258427762</v>
+        <v>6.719070557086891</v>
       </c>
       <c r="U8" t="n">
         <v>6.719070557086891</v>
@@ -4857,40 +4857,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>12.79699856005391</v>
+        <v>6.333867974168094</v>
       </c>
       <c r="C9" t="n">
-        <v>12.79699856005391</v>
+        <v>3.102302681225188</v>
       </c>
       <c r="D9" t="n">
-        <v>12.79699856005391</v>
+        <v>3.102302681225188</v>
       </c>
       <c r="E9" t="n">
-        <v>12.79699856005391</v>
+        <v>3.102302681225188</v>
       </c>
       <c r="F9" t="n">
-        <v>12.79699856005391</v>
+        <v>3.102302681225188</v>
       </c>
       <c r="G9" t="n">
-        <v>9.950635850029798</v>
+        <v>3.102302681225188</v>
       </c>
       <c r="H9" t="n">
-        <v>6.719070557086891</v>
+        <v>3.102302681225188</v>
       </c>
       <c r="I9" t="n">
-        <v>3.487505264143985</v>
+        <v>3.102302681225188</v>
       </c>
       <c r="J9" t="n">
         <v>0.2559399712010781</v>
       </c>
       <c r="K9" t="n">
-        <v>3.42319711481442</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="L9" t="n">
-        <v>3.42319711481442</v>
+        <v>3.295227129213883</v>
       </c>
       <c r="M9" t="n">
-        <v>3.42319711481442</v>
+        <v>6.462484272827225</v>
       </c>
       <c r="N9" t="n">
         <v>6.462484272827225</v>
@@ -4902,31 +4902,31 @@
         <v>12.79699856005391</v>
       </c>
       <c r="Q9" t="n">
-        <v>12.79699856005391</v>
+        <v>9.565433267111001</v>
       </c>
       <c r="R9" t="n">
-        <v>12.79699856005391</v>
+        <v>9.565433267111001</v>
       </c>
       <c r="S9" t="n">
-        <v>12.79699856005391</v>
+        <v>9.565433267111001</v>
       </c>
       <c r="T9" t="n">
-        <v>12.79699856005391</v>
+        <v>9.565433267111001</v>
       </c>
       <c r="U9" t="n">
-        <v>12.79699856005391</v>
+        <v>9.565433267111001</v>
       </c>
       <c r="V9" t="n">
-        <v>12.79699856005391</v>
+        <v>6.333867974168094</v>
       </c>
       <c r="W9" t="n">
-        <v>12.79699856005391</v>
+        <v>6.333867974168094</v>
       </c>
       <c r="X9" t="n">
-        <v>12.79699856005391</v>
+        <v>6.333867974168094</v>
       </c>
       <c r="Y9" t="n">
-        <v>12.79699856005391</v>
+        <v>6.333867974168094</v>
       </c>
     </row>
     <row r="10">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>592.6299154257778</v>
+        <v>185.6587583579467</v>
       </c>
       <c r="C11" t="n">
-        <v>592.6299154257778</v>
+        <v>185.6587583579467</v>
       </c>
       <c r="D11" t="n">
-        <v>431.3936573559197</v>
+        <v>185.6587583579467</v>
       </c>
       <c r="E11" t="n">
-        <v>431.3936573559197</v>
+        <v>185.6587583579467</v>
       </c>
       <c r="F11" t="n">
-        <v>431.3936573559197</v>
+        <v>185.6587583579467</v>
       </c>
       <c r="G11" t="n">
-        <v>249.1552281179549</v>
+        <v>185.6587583579467</v>
       </c>
       <c r="H11" t="n">
-        <v>78.57630442554812</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="I11" t="n">
         <v>15.07983466553978</v>
       </c>
       <c r="J11" t="n">
-        <v>115.4328134021288</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="K11" t="n">
-        <v>285.139674688828</v>
+        <v>184.7866959522389</v>
       </c>
       <c r="L11" t="n">
-        <v>331.8605171695881</v>
+        <v>371.3996499382937</v>
       </c>
       <c r="M11" t="n">
-        <v>412.7224162565354</v>
+        <v>452.261549025241</v>
       </c>
       <c r="N11" t="n">
-        <v>488.0503093922279</v>
+        <v>527.5894421609335</v>
       </c>
       <c r="O11" t="n">
-        <v>522.2709440848956</v>
+        <v>714.2023961469882</v>
       </c>
       <c r="P11" t="n">
-        <v>666.4395714324995</v>
+        <v>714.2023961469882</v>
       </c>
       <c r="Q11" t="n">
         <v>753.991733276989</v>
       </c>
       <c r="R11" t="n">
-        <v>753.991733276989</v>
+        <v>737.0894290049697</v>
       </c>
       <c r="S11" t="n">
-        <v>753.991733276989</v>
+        <v>687.2220245550903</v>
       </c>
       <c r="T11" t="n">
-        <v>753.991733276989</v>
+        <v>642.4567546088767</v>
       </c>
       <c r="U11" t="n">
-        <v>753.991733276989</v>
+        <v>569.727181538592</v>
       </c>
       <c r="V11" t="n">
-        <v>753.991733276989</v>
+        <v>425.5539295627493</v>
       </c>
       <c r="W11" t="n">
-        <v>592.6299154257778</v>
+        <v>425.5539295627493</v>
       </c>
       <c r="X11" t="n">
-        <v>592.6299154257778</v>
+        <v>425.5539295627493</v>
       </c>
       <c r="Y11" t="n">
-        <v>592.6299154257778</v>
+        <v>235.1519767150248</v>
       </c>
     </row>
     <row r="12">
@@ -5094,28 +5094,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>221.9437510110391</v>
+        <v>24.54436736382074</v>
       </c>
       <c r="C12" t="n">
-        <v>176.5329465118933</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="D12" t="n">
-        <v>176.5329465118933</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="E12" t="n">
-        <v>176.5329465118933</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="F12" t="n">
-        <v>176.5329465118933</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="G12" t="n">
-        <v>176.5329465118933</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="H12" t="n">
-        <v>176.5329465118933</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="I12" t="n">
-        <v>68.0850572755424</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="J12" t="n">
         <v>15.07983466553978</v>
@@ -5127,13 +5127,13 @@
         <v>170.3760798097943</v>
       </c>
       <c r="M12" t="n">
-        <v>352.0527264137999</v>
+        <v>352.0527264137997</v>
       </c>
       <c r="N12" t="n">
-        <v>538.6656803998546</v>
+        <v>538.6656803998545</v>
       </c>
       <c r="O12" t="n">
-        <v>670.3666200188891</v>
+        <v>670.366620018889</v>
       </c>
       <c r="P12" t="n">
         <v>753.991733276989</v>
@@ -5142,28 +5142,28 @@
         <v>747.0528889596546</v>
       </c>
       <c r="R12" t="n">
-        <v>747.0528889596546</v>
+        <v>610.9722821020005</v>
       </c>
       <c r="S12" t="n">
-        <v>556.6509361119302</v>
+        <v>420.570329254276</v>
       </c>
       <c r="T12" t="n">
-        <v>519.4563306044327</v>
+        <v>383.3757237467785</v>
       </c>
       <c r="U12" t="n">
-        <v>459.7797595500682</v>
+        <v>323.699152692414</v>
       </c>
       <c r="V12" t="n">
-        <v>396.6477830224576</v>
+        <v>260.5671761648034</v>
       </c>
       <c r="W12" t="n">
-        <v>307.1969553215043</v>
+        <v>171.11634846385</v>
       </c>
       <c r="X12" t="n">
-        <v>267.6367025069561</v>
+        <v>131.5560956493017</v>
       </c>
       <c r="Y12" t="n">
-        <v>221.9437510110391</v>
+        <v>24.54436736382074</v>
       </c>
     </row>
     <row r="13">
@@ -5179,67 +5179,67 @@
         <v>15.07983466553978</v>
       </c>
       <c r="D13" t="n">
-        <v>15.07983466553978</v>
+        <v>47.71579242887327</v>
       </c>
       <c r="E13" t="n">
-        <v>15.07983466553978</v>
+        <v>74.89519564823276</v>
       </c>
       <c r="F13" t="n">
-        <v>15.07983466553978</v>
+        <v>74.89519564823276</v>
       </c>
       <c r="G13" t="n">
-        <v>15.07983466553978</v>
+        <v>74.89519564823276</v>
       </c>
       <c r="H13" t="n">
-        <v>15.07983466553978</v>
+        <v>74.89519564823276</v>
       </c>
       <c r="I13" t="n">
-        <v>15.07983466553978</v>
+        <v>74.89519564823276</v>
       </c>
       <c r="J13" t="n">
-        <v>15.07983466553978</v>
+        <v>132.22476565269</v>
       </c>
       <c r="K13" t="n">
-        <v>15.07983466553978</v>
+        <v>242.231866826429</v>
       </c>
       <c r="L13" t="n">
-        <v>15.07983466553978</v>
+        <v>242.231866826429</v>
       </c>
       <c r="M13" t="n">
-        <v>52.54721506520593</v>
+        <v>242.231866826429</v>
       </c>
       <c r="N13" t="n">
-        <v>212.5590407811545</v>
+        <v>402.2436925423776</v>
       </c>
       <c r="O13" t="n">
-        <v>351.8217271348926</v>
+        <v>402.2436925423776</v>
       </c>
       <c r="P13" t="n">
-        <v>470.2946957351834</v>
+        <v>520.7166611426684</v>
       </c>
       <c r="Q13" t="n">
-        <v>520.7166611426682</v>
+        <v>520.7166611426684</v>
       </c>
       <c r="R13" t="n">
-        <v>495.1795934633083</v>
+        <v>495.1795934633085</v>
       </c>
       <c r="S13" t="n">
-        <v>437.3111286015782</v>
+        <v>437.3111286015784</v>
       </c>
       <c r="T13" t="n">
-        <v>391.2370939578861</v>
+        <v>391.2370939578862</v>
       </c>
       <c r="U13" t="n">
         <v>279.6125557604136</v>
       </c>
       <c r="V13" t="n">
-        <v>211.9754335064922</v>
+        <v>211.9754335064923</v>
       </c>
       <c r="W13" t="n">
-        <v>98.68003660117145</v>
+        <v>98.68003660117151</v>
       </c>
       <c r="X13" t="n">
-        <v>54.46671210099495</v>
+        <v>54.46671210099498</v>
       </c>
       <c r="Y13" t="n">
         <v>15.07983466553978</v>
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>497.7930186494935</v>
+        <v>44.75002386730091</v>
       </c>
       <c r="C14" t="n">
-        <v>497.7930186494935</v>
+        <v>44.75002386730091</v>
       </c>
       <c r="D14" t="n">
-        <v>497.7930186494935</v>
+        <v>44.75002386730091</v>
       </c>
       <c r="E14" t="n">
-        <v>497.7930186494935</v>
+        <v>44.75002386730091</v>
       </c>
       <c r="F14" t="n">
-        <v>376.0607112056712</v>
+        <v>44.75002386730091</v>
       </c>
       <c r="G14" t="n">
-        <v>185.6587583579467</v>
+        <v>44.75002386730091</v>
       </c>
       <c r="H14" t="n">
-        <v>15.07983466553978</v>
+        <v>44.75002386730091</v>
       </c>
       <c r="I14" t="n">
         <v>15.07983466553978</v>
       </c>
       <c r="J14" t="n">
-        <v>115.4328134021288</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="K14" t="n">
-        <v>285.1396746888279</v>
+        <v>184.786695952239</v>
       </c>
       <c r="L14" t="n">
-        <v>331.860517169588</v>
+        <v>364.7440836668296</v>
       </c>
       <c r="M14" t="n">
-        <v>412.7224162565353</v>
+        <v>445.605982753777</v>
       </c>
       <c r="N14" t="n">
-        <v>488.0503093922277</v>
+        <v>632.2189367398317</v>
       </c>
       <c r="O14" t="n">
-        <v>522.2709440848955</v>
+        <v>666.4395714324995</v>
       </c>
       <c r="P14" t="n">
-        <v>683.6966729688547</v>
+        <v>666.4395714324995</v>
       </c>
       <c r="Q14" t="n">
         <v>753.991733276989</v>
       </c>
       <c r="R14" t="n">
-        <v>753.991733276989</v>
+        <v>737.0894290049698</v>
       </c>
       <c r="S14" t="n">
-        <v>753.991733276989</v>
+        <v>687.2220245550906</v>
       </c>
       <c r="T14" t="n">
-        <v>753.991733276989</v>
+        <v>642.456754608877</v>
       </c>
       <c r="U14" t="n">
-        <v>681.262160206704</v>
+        <v>569.7271815385923</v>
       </c>
       <c r="V14" t="n">
-        <v>681.262160206704</v>
+        <v>425.5539295627498</v>
       </c>
       <c r="W14" t="n">
-        <v>681.262160206704</v>
+        <v>425.5539295627498</v>
       </c>
       <c r="X14" t="n">
-        <v>497.7930186494935</v>
+        <v>425.5539295627498</v>
       </c>
       <c r="Y14" t="n">
-        <v>497.7930186494935</v>
+        <v>235.1519767150253</v>
       </c>
     </row>
     <row r="15">
@@ -5331,46 +5331,46 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>77.54958997382336</v>
+        <v>24.54436736382068</v>
       </c>
       <c r="C15" t="n">
-        <v>68.0850572755424</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="D15" t="n">
-        <v>68.0850572755424</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="E15" t="n">
-        <v>68.0850572755424</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="F15" t="n">
-        <v>68.0850572755424</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="G15" t="n">
-        <v>68.0850572755424</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="H15" t="n">
-        <v>68.0850572755424</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="I15" t="n">
-        <v>68.0850572755424</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="J15" t="n">
         <v>15.07983466553978</v>
       </c>
       <c r="K15" t="n">
-        <v>53.04316068142029</v>
+        <v>53.04316068142018</v>
       </c>
       <c r="L15" t="n">
-        <v>170.3760798097944</v>
+        <v>170.3760798097943</v>
       </c>
       <c r="M15" t="n">
-        <v>352.0527264137999</v>
+        <v>352.0527264137997</v>
       </c>
       <c r="N15" t="n">
-        <v>538.6656803998546</v>
+        <v>538.6656803998545</v>
       </c>
       <c r="O15" t="n">
-        <v>670.3666200188891</v>
+        <v>670.366620018889</v>
       </c>
       <c r="P15" t="n">
         <v>753.991733276989</v>
@@ -5382,25 +5382,25 @@
         <v>747.0528889596546</v>
       </c>
       <c r="S15" t="n">
-        <v>733.4745786900218</v>
+        <v>733.4745786900219</v>
       </c>
       <c r="T15" t="n">
-        <v>696.2799731825243</v>
+        <v>580.0523050706881</v>
       </c>
       <c r="U15" t="n">
-        <v>636.6034021281598</v>
+        <v>389.6503522229637</v>
       </c>
       <c r="V15" t="n">
-        <v>573.4714256005492</v>
+        <v>199.2483993752392</v>
       </c>
       <c r="W15" t="n">
-        <v>383.0694727528247</v>
+        <v>109.7975716742859</v>
       </c>
       <c r="X15" t="n">
-        <v>192.6675199051002</v>
+        <v>70.23731885973764</v>
       </c>
       <c r="Y15" t="n">
-        <v>146.9745684091832</v>
+        <v>24.54436736382068</v>
       </c>
     </row>
     <row r="16">
@@ -5410,73 +5410,73 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>15.07983466553978</v>
+        <v>15.60586471875852</v>
       </c>
       <c r="C16" t="n">
-        <v>15.07983466553978</v>
+        <v>15.60586471875852</v>
       </c>
       <c r="D16" t="n">
-        <v>15.07983466553978</v>
+        <v>48.24182248209207</v>
       </c>
       <c r="E16" t="n">
-        <v>15.07983466553978</v>
+        <v>48.24182248209207</v>
       </c>
       <c r="F16" t="n">
-        <v>15.07983466553978</v>
+        <v>87.07099059736703</v>
       </c>
       <c r="G16" t="n">
-        <v>15.07983466553978</v>
+        <v>87.07099059736703</v>
       </c>
       <c r="H16" t="n">
-        <v>15.07983466553978</v>
+        <v>99.27161843078426</v>
       </c>
       <c r="I16" t="n">
-        <v>15.07983466553978</v>
+        <v>112.433961555036</v>
       </c>
       <c r="J16" t="n">
-        <v>15.07983466553978</v>
+        <v>112.433961555036</v>
       </c>
       <c r="K16" t="n">
-        <v>125.0869358392788</v>
+        <v>112.433961555036</v>
       </c>
       <c r="L16" t="n">
-        <v>269.6234192651188</v>
+        <v>179.6299246148123</v>
       </c>
       <c r="M16" t="n">
-        <v>421.0255040317514</v>
+        <v>331.0320093814449</v>
       </c>
       <c r="N16" t="n">
-        <v>520.7166611426684</v>
+        <v>331.0320093814449</v>
       </c>
       <c r="O16" t="n">
-        <v>520.7166611426684</v>
+        <v>470.2946957351831</v>
       </c>
       <c r="P16" t="n">
-        <v>520.7166611426684</v>
+        <v>470.2946957351831</v>
       </c>
       <c r="Q16" t="n">
-        <v>520.7166611426684</v>
+        <v>520.7166611426679</v>
       </c>
       <c r="R16" t="n">
-        <v>495.1795934633085</v>
+        <v>495.1795934633081</v>
       </c>
       <c r="S16" t="n">
-        <v>437.3111286015784</v>
+        <v>437.311128601578</v>
       </c>
       <c r="T16" t="n">
-        <v>391.2370939578862</v>
+        <v>391.2370939578859</v>
       </c>
       <c r="U16" t="n">
-        <v>279.6125557604136</v>
+        <v>279.6125557604134</v>
       </c>
       <c r="V16" t="n">
-        <v>211.9754335064923</v>
+        <v>211.9754335064921</v>
       </c>
       <c r="W16" t="n">
-        <v>98.68003660117151</v>
+        <v>98.68003660117139</v>
       </c>
       <c r="X16" t="n">
-        <v>54.46671210099498</v>
+        <v>54.46671210099492</v>
       </c>
       <c r="Y16" t="n">
         <v>15.07983466553978</v>
@@ -5489,58 +5489,58 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>463.3923242961947</v>
+        <v>463.3923242961948</v>
       </c>
       <c r="C17" t="n">
-        <v>410.1015905040791</v>
+        <v>410.1015905040795</v>
       </c>
       <c r="D17" t="n">
-        <v>369.3697837210053</v>
+        <v>369.3697837210059</v>
       </c>
       <c r="E17" t="n">
-        <v>294.5907522718621</v>
+        <v>294.5907522718627</v>
       </c>
       <c r="F17" t="n">
         <v>187.7709757940549</v>
       </c>
       <c r="G17" t="n">
-        <v>65.15430707116217</v>
+        <v>65.15430707116215</v>
       </c>
       <c r="H17" t="n">
         <v>15.07983466553978</v>
       </c>
       <c r="I17" t="n">
-        <v>70.95335735993307</v>
+        <v>70.95335735993308</v>
       </c>
       <c r="J17" t="n">
-        <v>255.9122226037418</v>
+        <v>257.5663113459879</v>
       </c>
       <c r="K17" t="n">
-        <v>255.9122226037418</v>
+        <v>257.5663113459879</v>
       </c>
       <c r="L17" t="n">
-        <v>442.5251765897966</v>
+        <v>304.287153826748</v>
       </c>
       <c r="M17" t="n">
-        <v>523.3870756767438</v>
+        <v>385.1490529136953</v>
       </c>
       <c r="N17" t="n">
-        <v>598.7149688124363</v>
+        <v>460.4769460493877</v>
       </c>
       <c r="O17" t="n">
-        <v>632.935603505104</v>
+        <v>494.6975807420555</v>
       </c>
       <c r="P17" t="n">
-        <v>632.935603505104</v>
+        <v>637.9362055321467</v>
       </c>
       <c r="Q17" t="n">
-        <v>632.935603505104</v>
+        <v>637.9362055321467</v>
       </c>
       <c r="R17" t="n">
-        <v>632.935603505104</v>
+        <v>637.9362055321467</v>
       </c>
       <c r="S17" t="n">
-        <v>632.935603505104</v>
+        <v>707.1675751369976</v>
       </c>
       <c r="T17" t="n">
         <v>707.1675751369976</v>
@@ -5549,7 +5549,7 @@
         <v>753.991733276989</v>
       </c>
       <c r="V17" t="n">
-        <v>730.3229325879307</v>
+        <v>730.3229325879306</v>
       </c>
       <c r="W17" t="n">
         <v>689.4655660235039</v>
@@ -5568,19 +5568,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>15.07983466553978</v>
+        <v>46.70526787616132</v>
       </c>
       <c r="C18" t="n">
-        <v>15.07983466553978</v>
+        <v>46.70526787616132</v>
       </c>
       <c r="D18" t="n">
-        <v>15.07983466553978</v>
+        <v>46.70526787616132</v>
       </c>
       <c r="E18" t="n">
-        <v>15.07983466553978</v>
+        <v>46.70526787616132</v>
       </c>
       <c r="F18" t="n">
-        <v>15.07983466553978</v>
+        <v>46.70526787616132</v>
       </c>
       <c r="G18" t="n">
         <v>15.07983466553978</v>
@@ -5595,49 +5595,49 @@
         <v>15.07983466553978</v>
       </c>
       <c r="K18" t="n">
-        <v>53.04316068142029</v>
+        <v>53.04316068142018</v>
       </c>
       <c r="L18" t="n">
-        <v>170.3760798097944</v>
+        <v>170.3760798097943</v>
       </c>
       <c r="M18" t="n">
-        <v>352.0527264137999</v>
+        <v>352.0527264137997</v>
       </c>
       <c r="N18" t="n">
-        <v>538.6656803998546</v>
+        <v>538.6656803998545</v>
       </c>
       <c r="O18" t="n">
-        <v>670.3666200188891</v>
+        <v>670.366620018889</v>
       </c>
       <c r="P18" t="n">
         <v>753.991733276989</v>
       </c>
       <c r="Q18" t="n">
-        <v>747.0528889596546</v>
+        <v>753.991733276989</v>
       </c>
       <c r="R18" t="n">
-        <v>747.0528889596546</v>
+        <v>617.9111264193348</v>
       </c>
       <c r="S18" t="n">
-        <v>556.6509361119302</v>
+        <v>617.9111264193348</v>
       </c>
       <c r="T18" t="n">
-        <v>556.6509361119302</v>
+        <v>427.5091735716103</v>
       </c>
       <c r="U18" t="n">
-        <v>395.8837403609888</v>
+        <v>427.5091735716103</v>
       </c>
       <c r="V18" t="n">
-        <v>205.4817875132643</v>
+        <v>237.1072207238858</v>
       </c>
       <c r="W18" t="n">
-        <v>15.07983466553978</v>
+        <v>237.1072207238858</v>
       </c>
       <c r="X18" t="n">
-        <v>15.07983466553978</v>
+        <v>46.70526787616132</v>
       </c>
       <c r="Y18" t="n">
-        <v>15.07983466553978</v>
+        <v>46.70526787616132</v>
       </c>
     </row>
     <row r="19">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>463.3923242961948</v>
+        <v>463.3923242961947</v>
       </c>
       <c r="C20" t="n">
-        <v>410.1015905040792</v>
+        <v>410.1015905040791</v>
       </c>
       <c r="D20" t="n">
-        <v>369.3697837210056</v>
+        <v>369.3697837210055</v>
       </c>
       <c r="E20" t="n">
-        <v>294.5907522718624</v>
+        <v>294.5907522718623</v>
       </c>
       <c r="F20" t="n">
-        <v>187.7709757940552</v>
+        <v>187.7709757940551</v>
       </c>
       <c r="G20" t="n">
         <v>65.15430707116215</v>
@@ -5750,43 +5750,43 @@
         <v>15.07983466553978</v>
       </c>
       <c r="J20" t="n">
-        <v>15.07983466553978</v>
+        <v>201.6927886515946</v>
       </c>
       <c r="K20" t="n">
-        <v>15.07983466553978</v>
+        <v>201.6927886515946</v>
       </c>
       <c r="L20" t="n">
-        <v>61.80067714629992</v>
+        <v>248.4136311323547</v>
       </c>
       <c r="M20" t="n">
-        <v>142.6625762332472</v>
+        <v>435.0265851184095</v>
       </c>
       <c r="N20" t="n">
-        <v>217.9904693689396</v>
+        <v>621.6395391044642</v>
       </c>
       <c r="O20" t="n">
-        <v>404.6034233549944</v>
+        <v>655.860173797132</v>
       </c>
       <c r="P20" t="n">
-        <v>404.6034233549944</v>
+        <v>655.860173797132</v>
       </c>
       <c r="Q20" t="n">
-        <v>531.3951392159327</v>
+        <v>655.860173797132</v>
       </c>
       <c r="R20" t="n">
-        <v>632.935603505104</v>
+        <v>753.991733276989</v>
       </c>
       <c r="S20" t="n">
-        <v>632.935603505104</v>
+        <v>753.991733276989</v>
       </c>
       <c r="T20" t="n">
-        <v>707.1675751369976</v>
+        <v>753.991733276989</v>
       </c>
       <c r="U20" t="n">
         <v>753.991733276989</v>
       </c>
       <c r="V20" t="n">
-        <v>730.3229325879306</v>
+        <v>730.3229325879307</v>
       </c>
       <c r="W20" t="n">
         <v>689.4655660235039</v>
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>68.0850572755424</v>
+        <v>165.3269098924356</v>
       </c>
       <c r="C21" t="n">
-        <v>68.0850572755424</v>
+        <v>165.3269098924356</v>
       </c>
       <c r="D21" t="n">
-        <v>68.0850572755424</v>
+        <v>165.3269098924356</v>
       </c>
       <c r="E21" t="n">
-        <v>68.0850572755424</v>
+        <v>165.3269098924356</v>
       </c>
       <c r="F21" t="n">
-        <v>68.0850572755424</v>
+        <v>165.3269098924356</v>
       </c>
       <c r="G21" t="n">
-        <v>68.0850572755424</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="H21" t="n">
-        <v>68.0850572755424</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="I21" t="n">
-        <v>68.0850572755424</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="J21" t="n">
         <v>15.07983466553978</v>
       </c>
       <c r="K21" t="n">
-        <v>53.04316068142017</v>
+        <v>53.0431606814202</v>
       </c>
       <c r="L21" t="n">
-        <v>170.3760798097943</v>
+        <v>170.3760798097944</v>
       </c>
       <c r="M21" t="n">
-        <v>352.0527264137997</v>
+        <v>352.0527264137998</v>
       </c>
       <c r="N21" t="n">
-        <v>538.6656803998545</v>
+        <v>538.6656803998546</v>
       </c>
       <c r="O21" t="n">
-        <v>670.366620018889</v>
+        <v>670.3666200188891</v>
       </c>
       <c r="P21" t="n">
-        <v>753.9917332769888</v>
+        <v>753.991733276989</v>
       </c>
       <c r="Q21" t="n">
-        <v>747.0528889596545</v>
+        <v>747.0528889596546</v>
       </c>
       <c r="R21" t="n">
-        <v>747.0528889596545</v>
+        <v>610.9722821020005</v>
       </c>
       <c r="S21" t="n">
-        <v>747.0528889596545</v>
+        <v>610.9722821020005</v>
       </c>
       <c r="T21" t="n">
-        <v>747.0528889596545</v>
+        <v>610.9722821020005</v>
       </c>
       <c r="U21" t="n">
-        <v>556.65093611193</v>
+        <v>420.570329254276</v>
       </c>
       <c r="V21" t="n">
-        <v>366.2489832642055</v>
+        <v>355.72886274016</v>
       </c>
       <c r="W21" t="n">
-        <v>175.8470304164811</v>
+        <v>165.3269098924356</v>
       </c>
       <c r="X21" t="n">
-        <v>68.0850572755424</v>
+        <v>165.3269098924356</v>
       </c>
       <c r="Y21" t="n">
-        <v>68.0850572755424</v>
+        <v>165.3269098924356</v>
       </c>
     </row>
     <row r="22">
@@ -5978,52 +5978,52 @@
         <v>187.7709757940551</v>
       </c>
       <c r="G23" t="n">
-        <v>65.15430707116215</v>
+        <v>65.15430707116217</v>
       </c>
       <c r="H23" t="n">
         <v>15.07983466553978</v>
       </c>
       <c r="I23" t="n">
-        <v>15.07983466553978</v>
+        <v>70.95335735993308</v>
       </c>
       <c r="J23" t="n">
-        <v>201.6927886515945</v>
+        <v>70.95335735993308</v>
       </c>
       <c r="K23" t="n">
-        <v>201.6927886515945</v>
+        <v>87.94525579440455</v>
       </c>
       <c r="L23" t="n">
-        <v>248.4136311323547</v>
+        <v>134.6660982751647</v>
       </c>
       <c r="M23" t="n">
-        <v>329.275530219302</v>
+        <v>321.2790522612195</v>
       </c>
       <c r="N23" t="n">
-        <v>404.6034233549944</v>
+        <v>396.6069453969119</v>
       </c>
       <c r="O23" t="n">
-        <v>438.8240580476622</v>
+        <v>583.2198993829667</v>
       </c>
       <c r="P23" t="n">
-        <v>438.8240580476622</v>
+        <v>583.2198993829667</v>
       </c>
       <c r="Q23" t="n">
-        <v>531.3951392159325</v>
+        <v>583.2198993829667</v>
       </c>
       <c r="R23" t="n">
-        <v>632.9356035051039</v>
+        <v>684.7603636721381</v>
       </c>
       <c r="S23" t="n">
-        <v>632.9356035051039</v>
+        <v>753.991733276989</v>
       </c>
       <c r="T23" t="n">
-        <v>707.1675751369975</v>
+        <v>753.991733276989</v>
       </c>
       <c r="U23" t="n">
-        <v>753.9917332769888</v>
+        <v>753.991733276989</v>
       </c>
       <c r="V23" t="n">
-        <v>730.3229325879306</v>
+        <v>730.3229325879307</v>
       </c>
       <c r="W23" t="n">
         <v>689.4655660235039</v>
@@ -6042,34 +6042,34 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>68.0850572755424</v>
+        <v>204.4921089325761</v>
       </c>
       <c r="C24" t="n">
-        <v>68.0850572755424</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="D24" t="n">
-        <v>68.0850572755424</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="E24" t="n">
-        <v>68.0850572755424</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="F24" t="n">
-        <v>68.0850572755424</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="G24" t="n">
-        <v>68.0850572755424</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="H24" t="n">
-        <v>68.0850572755424</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="I24" t="n">
-        <v>68.0850572755424</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="J24" t="n">
         <v>15.07983466553978</v>
       </c>
       <c r="K24" t="n">
-        <v>53.04316068142017</v>
+        <v>53.04316068142018</v>
       </c>
       <c r="L24" t="n">
         <v>170.3760798097943</v>
@@ -6084,34 +6084,34 @@
         <v>670.366620018889</v>
       </c>
       <c r="P24" t="n">
-        <v>753.9917332769888</v>
+        <v>753.991733276989</v>
       </c>
       <c r="Q24" t="n">
-        <v>753.9917332769888</v>
+        <v>747.0528889596546</v>
       </c>
       <c r="R24" t="n">
-        <v>753.9917332769888</v>
+        <v>610.9722821020005</v>
       </c>
       <c r="S24" t="n">
-        <v>563.5897804292644</v>
+        <v>610.9722821020005</v>
       </c>
       <c r="T24" t="n">
-        <v>563.5897804292644</v>
+        <v>610.9722821020005</v>
       </c>
       <c r="U24" t="n">
-        <v>373.1878275815399</v>
+        <v>610.9722821020005</v>
       </c>
       <c r="V24" t="n">
-        <v>373.1878275815399</v>
+        <v>420.570329254276</v>
       </c>
       <c r="W24" t="n">
-        <v>258.4870101232668</v>
+        <v>420.570329254276</v>
       </c>
       <c r="X24" t="n">
-        <v>68.0850572755424</v>
+        <v>420.570329254276</v>
       </c>
       <c r="Y24" t="n">
-        <v>68.0850572755424</v>
+        <v>230.1683764065515</v>
       </c>
     </row>
     <row r="25">
@@ -6203,28 +6203,28 @@
         <v>1020.898422489611</v>
       </c>
       <c r="C26" t="n">
-        <v>882.7966579874106</v>
+        <v>882.7966579874109</v>
       </c>
       <c r="D26" t="n">
-        <v>757.2538204942527</v>
+        <v>757.253820494253</v>
       </c>
       <c r="E26" t="n">
-        <v>597.6637583350252</v>
+        <v>597.6637583350255</v>
       </c>
       <c r="F26" t="n">
-        <v>406.0329511471338</v>
+        <v>406.0329511471341</v>
       </c>
       <c r="G26" t="n">
-        <v>198.605251714157</v>
+        <v>198.6052517141569</v>
       </c>
       <c r="H26" t="n">
-        <v>63.71974859845024</v>
+        <v>63.71974859845021</v>
       </c>
       <c r="I26" t="n">
-        <v>35.91669941514207</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="J26" t="n">
-        <v>171.2527996589549</v>
+        <v>171.252799658955</v>
       </c>
       <c r="K26" t="n">
         <v>375.942782452878</v>
@@ -6239,25 +6239,25 @@
         <v>1212.903126212561</v>
       </c>
       <c r="O26" t="n">
-        <v>1458.473663923989</v>
+        <v>1458.47366392399</v>
       </c>
       <c r="P26" t="n">
-        <v>1654.882514315172</v>
+        <v>1654.882514315173</v>
       </c>
       <c r="Q26" t="n">
-        <v>1777.417797666885</v>
+        <v>1777.417797666886</v>
       </c>
       <c r="R26" t="n">
-        <v>1795.834970757103</v>
+        <v>1795.834970757104</v>
       </c>
       <c r="S26" t="n">
-        <v>1781.660986883924</v>
+        <v>1781.660986883925</v>
       </c>
       <c r="T26" t="n">
         <v>1772.589137514411</v>
       </c>
       <c r="U26" t="n">
-        <v>1735.552985020826</v>
+        <v>1735.552985020827</v>
       </c>
       <c r="V26" t="n">
         <v>1627.073153621684</v>
@@ -6266,7 +6266,7 @@
         <v>1501.404756347173</v>
       </c>
       <c r="X26" t="n">
-        <v>1353.629035366662</v>
+        <v>1353.629035366663</v>
       </c>
       <c r="Y26" t="n">
         <v>1183.123159715704</v>
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>209.4799032937276</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="C27" t="n">
-        <v>209.4799032937276</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="D27" t="n">
-        <v>209.4799032937276</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="E27" t="n">
-        <v>35.91669941514207</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="F27" t="n">
-        <v>35.91669941514207</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="G27" t="n">
-        <v>35.91669941514207</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="H27" t="n">
-        <v>35.91669941514207</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="I27" t="n">
-        <v>35.91669941514207</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="J27" t="n">
-        <v>35.91669941514207</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="K27" t="n">
-        <v>73.88002543102246</v>
+        <v>73.88002543102247</v>
       </c>
       <c r="L27" t="n">
         <v>191.2129445593966</v>
       </c>
       <c r="M27" t="n">
-        <v>372.889591163402</v>
+        <v>372.8895911634021</v>
       </c>
       <c r="N27" t="n">
-        <v>577.7945675741612</v>
+        <v>577.7945675741613</v>
       </c>
       <c r="O27" t="n">
-        <v>709.4955071931956</v>
+        <v>709.4955071931957</v>
       </c>
       <c r="P27" t="n">
-        <v>793.1206204512955</v>
+        <v>793.1206204512957</v>
       </c>
       <c r="Q27" t="n">
-        <v>793.1206204512955</v>
+        <v>786.1817761339614</v>
       </c>
       <c r="R27" t="n">
-        <v>657.0400135936413</v>
+        <v>786.1817761339614</v>
       </c>
       <c r="S27" t="n">
-        <v>657.0400135936413</v>
+        <v>592.6557242955732</v>
       </c>
       <c r="T27" t="n">
-        <v>655.538828662844</v>
+        <v>591.1545393647759</v>
       </c>
       <c r="U27" t="n">
-        <v>631.5556781851798</v>
+        <v>567.1713888871117</v>
       </c>
       <c r="V27" t="n">
-        <v>604.1171222342693</v>
+        <v>324.0916707907458</v>
       </c>
       <c r="W27" t="n">
-        <v>438.987428596248</v>
+        <v>54.69310152103708</v>
       </c>
       <c r="X27" t="n">
-        <v>219.4794342129444</v>
+        <v>45.91623033435887</v>
       </c>
       <c r="Y27" t="n">
-        <v>209.4799032937276</v>
+        <v>35.91669941514208</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>35.91669941514207</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="C28" t="n">
-        <v>35.91669941514207</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="D28" t="n">
-        <v>35.91669941514207</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="E28" t="n">
-        <v>35.91669941514207</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="F28" t="n">
-        <v>35.91669941514207</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="G28" t="n">
-        <v>35.91669941514207</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="H28" t="n">
-        <v>35.91669941514207</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="I28" t="n">
-        <v>35.91669941514207</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="J28" t="n">
-        <v>35.91669941514207</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="K28" t="n">
-        <v>35.91669941514207</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="L28" t="n">
-        <v>35.91669941514207</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="M28" t="n">
-        <v>71.16756695283695</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="N28" t="n">
-        <v>266.1625141760094</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="O28" t="n">
-        <v>266.1625141760094</v>
+        <v>180.7574272613006</v>
       </c>
       <c r="P28" t="n">
-        <v>266.1625141760094</v>
+        <v>180.7574272613006</v>
       </c>
       <c r="Q28" t="n">
-        <v>266.1625141760094</v>
+        <v>266.1625141760092</v>
       </c>
       <c r="R28" t="n">
-        <v>266.1625141760094</v>
+        <v>266.1625141760092</v>
       </c>
       <c r="S28" t="n">
-        <v>243.9874698909795</v>
+        <v>243.9874698909794</v>
       </c>
       <c r="T28" t="n">
-        <v>233.6068558239875</v>
+        <v>233.6068558239874</v>
       </c>
       <c r="U28" t="n">
-        <v>157.6757382032151</v>
+        <v>157.675738203215</v>
       </c>
       <c r="V28" t="n">
-        <v>125.732036525994</v>
+        <v>125.7320365259939</v>
       </c>
       <c r="W28" t="n">
-        <v>48.13006019737341</v>
+        <v>48.13006019737336</v>
       </c>
       <c r="X28" t="n">
-        <v>39.61015627389708</v>
+        <v>39.61015627389705</v>
       </c>
       <c r="Y28" t="n">
-        <v>35.91669941514207</v>
+        <v>35.91669941514208</v>
       </c>
     </row>
     <row r="29">
@@ -6440,46 +6440,46 @@
         <v>1020.898422489611</v>
       </c>
       <c r="C29" t="n">
-        <v>882.7966579874111</v>
+        <v>882.796657987411</v>
       </c>
       <c r="D29" t="n">
-        <v>757.2538204942532</v>
+        <v>757.2538204942531</v>
       </c>
       <c r="E29" t="n">
-        <v>597.6637583350257</v>
+        <v>597.6637583350256</v>
       </c>
       <c r="F29" t="n">
-        <v>406.0329511471343</v>
+        <v>406.0329511471342</v>
       </c>
       <c r="G29" t="n">
-        <v>198.605251714157</v>
+        <v>198.6052517141568</v>
       </c>
       <c r="H29" t="n">
-        <v>63.71974859845021</v>
+        <v>63.71974859845027</v>
       </c>
       <c r="I29" t="n">
-        <v>35.91669941514207</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="J29" t="n">
-        <v>171.252799658955</v>
+        <v>171.2527996589548</v>
       </c>
       <c r="K29" t="n">
-        <v>375.942782452878</v>
+        <v>375.9427824528779</v>
       </c>
       <c r="L29" t="n">
-        <v>634.013527952399</v>
+        <v>634.0135279523989</v>
       </c>
       <c r="M29" t="n">
-        <v>926.2253300581071</v>
+        <v>926.2253300581078</v>
       </c>
       <c r="N29" t="n">
-        <v>1212.90312621256</v>
+        <v>1212.903126212561</v>
       </c>
       <c r="O29" t="n">
-        <v>1458.473663923989</v>
+        <v>1458.47366392399</v>
       </c>
       <c r="P29" t="n">
-        <v>1654.882514315172</v>
+        <v>1654.882514315173</v>
       </c>
       <c r="Q29" t="n">
         <v>1777.417797666886</v>
@@ -6488,7 +6488,7 @@
         <v>1795.834970757104</v>
       </c>
       <c r="S29" t="n">
-        <v>1781.660986883924</v>
+        <v>1781.660986883925</v>
       </c>
       <c r="T29" t="n">
         <v>1772.589137514411</v>
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>263.4067448267619</v>
+        <v>370.2600195326959</v>
       </c>
       <c r="C30" t="n">
-        <v>263.4067448267619</v>
+        <v>370.2600195326959</v>
       </c>
       <c r="D30" t="n">
-        <v>263.4067448267619</v>
+        <v>209.4799032937276</v>
       </c>
       <c r="E30" t="n">
-        <v>263.4067448267619</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="F30" t="n">
-        <v>102.979028544006</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="G30" t="n">
-        <v>102.979028544006</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="H30" t="n">
-        <v>102.979028544006</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="I30" t="n">
-        <v>35.91669941514207</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="J30" t="n">
-        <v>35.91669941514207</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="K30" t="n">
-        <v>73.88002543102246</v>
+        <v>73.88002543102247</v>
       </c>
       <c r="L30" t="n">
         <v>191.2129445593966</v>
       </c>
       <c r="M30" t="n">
-        <v>372.889591163402</v>
+        <v>372.8895911634021</v>
       </c>
       <c r="N30" t="n">
-        <v>577.7945675741612</v>
+        <v>577.7945675741613</v>
       </c>
       <c r="O30" t="n">
-        <v>709.4955071931956</v>
+        <v>709.4955071931957</v>
       </c>
       <c r="P30" t="n">
-        <v>793.1206204512955</v>
+        <v>793.1206204512957</v>
       </c>
       <c r="Q30" t="n">
-        <v>793.1206204512955</v>
+        <v>786.1817761339614</v>
       </c>
       <c r="R30" t="n">
-        <v>793.1206204512955</v>
+        <v>786.1817761339614</v>
       </c>
       <c r="S30" t="n">
-        <v>599.5945686129073</v>
+        <v>786.1817761339614</v>
       </c>
       <c r="T30" t="n">
-        <v>598.09338368211</v>
+        <v>784.6805912031641</v>
       </c>
       <c r="U30" t="n">
-        <v>574.1102332044458</v>
+        <v>760.6974407254997</v>
       </c>
       <c r="V30" t="n">
-        <v>546.6716772535354</v>
+        <v>733.2588847745893</v>
       </c>
       <c r="W30" t="n">
-        <v>492.9142701292823</v>
+        <v>562.6622356166961</v>
       </c>
       <c r="X30" t="n">
-        <v>489.0474378914342</v>
+        <v>558.7954033788479</v>
       </c>
       <c r="Y30" t="n">
-        <v>263.4067448267619</v>
+        <v>548.795872459631</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>35.91669941514207</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="C31" t="n">
-        <v>35.91669941514207</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="D31" t="n">
-        <v>103.5357786856995</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="E31" t="n">
-        <v>103.5357786856995</v>
+        <v>107.0072226338003</v>
       </c>
       <c r="F31" t="n">
-        <v>103.5357786856995</v>
+        <v>107.0072226338003</v>
       </c>
       <c r="G31" t="n">
-        <v>103.5357786856995</v>
+        <v>107.0072226338003</v>
       </c>
       <c r="H31" t="n">
-        <v>103.5357786856995</v>
+        <v>107.0072226338003</v>
       </c>
       <c r="I31" t="n">
-        <v>103.5357786856995</v>
+        <v>107.0072226338003</v>
       </c>
       <c r="J31" t="n">
-        <v>195.8484701973806</v>
+        <v>107.0072226338003</v>
       </c>
       <c r="K31" t="n">
-        <v>195.8484701973806</v>
+        <v>107.0072226338003</v>
       </c>
       <c r="L31" t="n">
-        <v>195.8484701973806</v>
+        <v>107.0072226338003</v>
       </c>
       <c r="M31" t="n">
-        <v>195.8484701973806</v>
+        <v>107.0072226338003</v>
       </c>
       <c r="N31" t="n">
-        <v>195.8484701973806</v>
+        <v>112.706424068495</v>
       </c>
       <c r="O31" t="n">
-        <v>195.8484701973806</v>
+        <v>112.706424068495</v>
       </c>
       <c r="P31" t="n">
-        <v>256.2082727013259</v>
+        <v>266.1625141760096</v>
       </c>
       <c r="Q31" t="n">
-        <v>256.2082727013259</v>
+        <v>266.1625141760096</v>
       </c>
       <c r="R31" t="n">
-        <v>266.1625141760092</v>
+        <v>266.1625141760096</v>
       </c>
       <c r="S31" t="n">
-        <v>243.9874698909793</v>
+        <v>243.9874698909797</v>
       </c>
       <c r="T31" t="n">
-        <v>233.6068558239874</v>
+        <v>233.6068558239877</v>
       </c>
       <c r="U31" t="n">
-        <v>157.675738203215</v>
+        <v>157.6757382032153</v>
       </c>
       <c r="V31" t="n">
-        <v>125.7320365259939</v>
+        <v>125.7320365259941</v>
       </c>
       <c r="W31" t="n">
-        <v>48.13006019737335</v>
+        <v>48.13006019737347</v>
       </c>
       <c r="X31" t="n">
-        <v>39.61015627389705</v>
+        <v>39.61015627389711</v>
       </c>
       <c r="Y31" t="n">
-        <v>35.91669941514207</v>
+        <v>35.91669941514208</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1014.789988510278</v>
+        <v>1014.789988510279</v>
       </c>
       <c r="C32" t="n">
-        <v>877.5242945806683</v>
+        <v>877.5242945806689</v>
       </c>
       <c r="D32" t="n">
-        <v>752.8175276601006</v>
+        <v>752.8175276601012</v>
       </c>
       <c r="E32" t="n">
-        <v>594.0635360734633</v>
+        <v>594.0635360734639</v>
       </c>
       <c r="F32" t="n">
-        <v>403.268799458162</v>
+        <v>403.2687994581626</v>
       </c>
       <c r="G32" t="n">
-        <v>196.6771705977749</v>
+        <v>196.6771705977754</v>
       </c>
       <c r="H32" t="n">
-        <v>62.62773805465899</v>
+        <v>62.62773805465893</v>
       </c>
       <c r="I32" t="n">
         <v>35.660759443941</v>
@@ -6701,22 +6701,22 @@
         <v>171.8162924559495</v>
       </c>
       <c r="K32" t="n">
-        <v>377.3257080180681</v>
+        <v>377.3257080180682</v>
       </c>
       <c r="L32" t="n">
-        <v>636.2158862857848</v>
+        <v>636.215886285785</v>
       </c>
       <c r="M32" t="n">
-        <v>929.2471211596887</v>
+        <v>929.247121159689</v>
       </c>
       <c r="N32" t="n">
         <v>1216.744350082338</v>
       </c>
       <c r="O32" t="n">
-        <v>1463.134320561962</v>
+        <v>1463.134320561963</v>
       </c>
       <c r="P32" t="n">
-        <v>1660.362603721341</v>
+        <v>1640.446650218727</v>
       </c>
       <c r="Q32" t="n">
         <v>1763.801366338636</v>
@@ -6734,16 +6734,16 @@
         <v>1725.264198178543</v>
       </c>
       <c r="V32" t="n">
-        <v>1617.62043735199</v>
+        <v>1617.620437351991</v>
       </c>
       <c r="W32" t="n">
-        <v>1492.788110650069</v>
+        <v>1492.78811065007</v>
       </c>
       <c r="X32" t="n">
-        <v>1345.848460242149</v>
+        <v>1345.84846024215</v>
       </c>
       <c r="Y32" t="n">
-        <v>1176.178655163781</v>
+        <v>1176.178655163782</v>
       </c>
     </row>
     <row r="33">
@@ -6753,10 +6753,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>385.8531499499455</v>
+        <v>35.660759443941</v>
       </c>
       <c r="C33" t="n">
-        <v>196.4408756829093</v>
+        <v>35.660759443941</v>
       </c>
       <c r="D33" t="n">
         <v>35.660759443941</v>
@@ -6780,49 +6780,49 @@
         <v>35.660759443941</v>
       </c>
       <c r="K33" t="n">
-        <v>73.62408545982139</v>
+        <v>73.6240854598214</v>
       </c>
       <c r="L33" t="n">
-        <v>190.9570045881955</v>
+        <v>190.9570045881956</v>
       </c>
       <c r="M33" t="n">
-        <v>372.6336511922009</v>
+        <v>372.633651192201</v>
       </c>
       <c r="N33" t="n">
-        <v>577.5386276029601</v>
+        <v>577.5386276029602</v>
       </c>
       <c r="O33" t="n">
-        <v>709.2395672219945</v>
+        <v>709.2395672219947</v>
       </c>
       <c r="P33" t="n">
-        <v>792.8646804800944</v>
+        <v>792.8646804800946</v>
       </c>
       <c r="Q33" t="n">
-        <v>792.8646804800944</v>
+        <v>785.9258361627603</v>
       </c>
       <c r="R33" t="n">
-        <v>792.8646804800944</v>
+        <v>785.9258361627603</v>
       </c>
       <c r="S33" t="n">
-        <v>792.8646804800944</v>
+        <v>592.3997843243721</v>
       </c>
       <c r="T33" t="n">
-        <v>792.1995661218873</v>
+        <v>583.4803487269742</v>
       </c>
       <c r="U33" t="n">
-        <v>769.0524862168131</v>
+        <v>560.3332688219001</v>
       </c>
       <c r="V33" t="n">
-        <v>742.4500008384929</v>
+        <v>317.2535507255342</v>
       </c>
       <c r="W33" t="n">
-        <v>614.5246046798759</v>
+        <v>264.3322141738713</v>
       </c>
       <c r="X33" t="n">
-        <v>395.0166102965722</v>
+        <v>44.8242197905676</v>
       </c>
       <c r="Y33" t="n">
-        <v>385.8531499499455</v>
+        <v>35.660759443941</v>
       </c>
     </row>
     <row r="34">
@@ -6838,67 +6838,67 @@
         <v>35.660759443941</v>
       </c>
       <c r="D34" t="n">
-        <v>104.099271482694</v>
+        <v>35.660759443941</v>
       </c>
       <c r="E34" t="n">
-        <v>104.099271482694</v>
+        <v>35.660759443941</v>
       </c>
       <c r="F34" t="n">
-        <v>178.7309938733884</v>
+        <v>35.660759443941</v>
       </c>
       <c r="G34" t="n">
-        <v>178.7309938733884</v>
+        <v>35.660759443941</v>
       </c>
       <c r="H34" t="n">
-        <v>178.7309938733884</v>
+        <v>72.84944115462463</v>
       </c>
       <c r="I34" t="n">
-        <v>178.7309938733884</v>
+        <v>72.84944115462463</v>
       </c>
       <c r="J34" t="n">
-        <v>178.7309938733884</v>
+        <v>72.84944115462463</v>
       </c>
       <c r="K34" t="n">
-        <v>178.7309938733884</v>
+        <v>72.84944115462463</v>
       </c>
       <c r="L34" t="n">
-        <v>178.7309938733884</v>
+        <v>72.84944115462463</v>
       </c>
       <c r="M34" t="n">
-        <v>178.7309938733884</v>
+        <v>260.0540801966768</v>
       </c>
       <c r="N34" t="n">
-        <v>178.7309938733884</v>
+        <v>260.0540801966768</v>
       </c>
       <c r="O34" t="n">
-        <v>260.0540801966771</v>
+        <v>260.0540801966768</v>
       </c>
       <c r="P34" t="n">
-        <v>260.0540801966771</v>
+        <v>260.0540801966768</v>
       </c>
       <c r="Q34" t="n">
-        <v>260.0540801966771</v>
+        <v>260.0540801966768</v>
       </c>
       <c r="R34" t="n">
-        <v>260.0540801966771</v>
+        <v>260.0540801966768</v>
       </c>
       <c r="S34" t="n">
-        <v>238.7151064842374</v>
+        <v>238.7151064842371</v>
       </c>
       <c r="T34" t="n">
-        <v>229.1705629898356</v>
+        <v>229.1705629898353</v>
       </c>
       <c r="U34" t="n">
-        <v>154.0755159416534</v>
+        <v>154.0755159416532</v>
       </c>
       <c r="V34" t="n">
-        <v>122.9678848370224</v>
+        <v>122.9678848370222</v>
       </c>
       <c r="W34" t="n">
-        <v>46.201979080992</v>
+        <v>46.20197908099188</v>
       </c>
       <c r="X34" t="n">
-        <v>38.51814573010584</v>
+        <v>38.51814573010578</v>
       </c>
       <c r="Y34" t="n">
         <v>35.660759443941</v>
@@ -6911,58 +6911,58 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>623.0190675361092</v>
+        <v>623.0190675361094</v>
       </c>
       <c r="C35" t="n">
-        <v>544.0833815513515</v>
+        <v>544.0833815513517</v>
       </c>
       <c r="D35" t="n">
-        <v>477.7066225756359</v>
+        <v>477.7066225756362</v>
       </c>
       <c r="E35" t="n">
-        <v>377.2826389338506</v>
+        <v>377.2826389338509</v>
       </c>
       <c r="F35" t="n">
-        <v>244.8179102634017</v>
+        <v>244.8179102634022</v>
       </c>
       <c r="G35" t="n">
-        <v>96.55628934786677</v>
+        <v>96.55628934786678</v>
       </c>
       <c r="H35" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="I35" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="J35" t="n">
-        <v>178.5009941413874</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="K35" t="n">
-        <v>178.5009941413874</v>
+        <v>278.6930660259307</v>
       </c>
       <c r="L35" t="n">
-        <v>225.2218366221476</v>
+        <v>325.4139085066909</v>
       </c>
       <c r="M35" t="n">
-        <v>306.0837357090949</v>
+        <v>583.2701097830193</v>
       </c>
       <c r="N35" t="n">
-        <v>381.4116288447873</v>
+        <v>805.4091053848059</v>
       </c>
       <c r="O35" t="n">
-        <v>415.6322635374551</v>
+        <v>839.6297400774737</v>
       </c>
       <c r="P35" t="n">
-        <v>670.0297874835833</v>
+        <v>839.6297400774737</v>
       </c>
       <c r="Q35" t="n">
-        <v>850.5537443902416</v>
+        <v>1020.153696984132</v>
       </c>
       <c r="R35" t="n">
-        <v>926.9595910354045</v>
+        <v>1020.153696984132</v>
       </c>
       <c r="S35" t="n">
-        <v>971.0563429962468</v>
+        <v>1020.153696984132</v>
       </c>
       <c r="T35" t="n">
         <v>1020.153696984132</v>
@@ -6971,16 +6971,16 @@
         <v>1041.843237480115</v>
       </c>
       <c r="V35" t="n">
-        <v>992.5294845984138</v>
+        <v>992.529484598414</v>
       </c>
       <c r="W35" t="n">
-        <v>926.0271658413449</v>
+        <v>926.0271658413451</v>
       </c>
       <c r="X35" t="n">
-        <v>837.4175233782768</v>
+        <v>837.417523378277</v>
       </c>
       <c r="Y35" t="n">
-        <v>726.0777262447604</v>
+        <v>726.0777262447606</v>
       </c>
     </row>
     <row r="36">
@@ -6990,34 +6990,34 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>234.2698036423608</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="C36" t="n">
-        <v>234.2698036423608</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="D36" t="n">
-        <v>234.2698036423608</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="E36" t="n">
-        <v>234.2698036423608</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="F36" t="n">
-        <v>73.8420873596049</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="G36" t="n">
-        <v>73.8420873596049</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="H36" t="n">
-        <v>73.8420873596049</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="I36" t="n">
-        <v>73.8420873596049</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="J36" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="K36" t="n">
-        <v>58.80019076548268</v>
+        <v>58.8001907654827</v>
       </c>
       <c r="L36" t="n">
         <v>176.1331098938568</v>
@@ -7041,25 +7041,25 @@
         <v>778.0407857857558</v>
       </c>
       <c r="S36" t="n">
-        <v>778.0407857857558</v>
+        <v>584.5147339473676</v>
       </c>
       <c r="T36" t="n">
-        <v>778.0407857857558</v>
+        <v>584.5147339473676</v>
       </c>
       <c r="U36" t="n">
-        <v>778.0407857857558</v>
+        <v>344.8904213242478</v>
       </c>
       <c r="V36" t="n">
-        <v>778.0407857857558</v>
+        <v>101.8107032278818</v>
       </c>
       <c r="W36" t="n">
-        <v>632.3136509525996</v>
+        <v>101.8107032278818</v>
       </c>
       <c r="X36" t="n">
-        <v>412.8056565692959</v>
+        <v>101.8107032278818</v>
       </c>
       <c r="Y36" t="n">
-        <v>412.8056565692959</v>
+        <v>101.8107032278818</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>37.60190385293248</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="C37" t="n">
-        <v>37.60190385293248</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="D37" t="n">
-        <v>37.60190385293248</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="E37" t="n">
-        <v>37.60190385293248</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="F37" t="n">
-        <v>37.60190385293248</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="G37" t="n">
-        <v>37.60190385293248</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="H37" t="n">
-        <v>37.60190385293248</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="I37" t="n">
-        <v>37.60190385293248</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="J37" t="n">
-        <v>37.60190385293248</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="K37" t="n">
-        <v>37.60190385293248</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="L37" t="n">
-        <v>37.60190385293248</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="M37" t="n">
-        <v>37.60190385293248</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="N37" t="n">
-        <v>37.60190385293248</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="O37" t="n">
-        <v>37.60190385293248</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="P37" t="n">
-        <v>37.60190385293248</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="Q37" t="n">
-        <v>37.60190385293248</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="R37" t="n">
-        <v>37.60190385293248</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="S37" t="n">
-        <v>37.60190385293248</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="T37" t="n">
-        <v>37.60190385293248</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="U37" t="n">
-        <v>20.83686474960229</v>
+        <v>39.27276256078068</v>
       </c>
       <c r="V37" t="n">
-        <v>47.51751629070292</v>
+        <v>39.27276256078068</v>
       </c>
       <c r="W37" t="n">
-        <v>29.08161847952453</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="X37" t="n">
-        <v>37.60190385293248</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="Y37" t="n">
-        <v>37.60190385293248</v>
+        <v>20.8368647496023</v>
       </c>
     </row>
     <row r="38">
@@ -7160,43 +7160,43 @@
         <v>377.2826389338513</v>
       </c>
       <c r="F38" t="n">
-        <v>244.8179102634017</v>
+        <v>244.817910263402</v>
       </c>
       <c r="G38" t="n">
-        <v>96.55628934786677</v>
+        <v>96.55628934786678</v>
       </c>
       <c r="H38" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="I38" t="n">
-        <v>51.57576979998704</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="J38" t="n">
-        <v>143.3159826033398</v>
+        <v>214.1616385483603</v>
       </c>
       <c r="K38" t="n">
-        <v>143.3159826033398</v>
+        <v>214.1616385483603</v>
       </c>
       <c r="L38" t="n">
-        <v>401.1721838796682</v>
+        <v>401.1721838796683</v>
       </c>
       <c r="M38" t="n">
-        <v>482.0340829666155</v>
+        <v>482.0340829666156</v>
       </c>
       <c r="N38" t="n">
-        <v>739.8902842429438</v>
+        <v>739.8902842429441</v>
       </c>
       <c r="O38" t="n">
-        <v>997.7464855192723</v>
+        <v>997.7464855192725</v>
       </c>
       <c r="P38" t="n">
-        <v>997.7464855192723</v>
+        <v>997.7464855192725</v>
       </c>
       <c r="Q38" t="n">
-        <v>997.7464855192723</v>
+        <v>997.7464855192725</v>
       </c>
       <c r="R38" t="n">
-        <v>997.7464855192723</v>
+        <v>997.7464855192725</v>
       </c>
       <c r="S38" t="n">
         <v>1041.843237480115</v>
@@ -7214,7 +7214,7 @@
         <v>926.0271658413455</v>
       </c>
       <c r="X38" t="n">
-        <v>837.4175233782776</v>
+        <v>837.4175233782775</v>
       </c>
       <c r="Y38" t="n">
         <v>726.0777262447612</v>
@@ -7227,34 +7227,34 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>659.4879474916312</v>
+        <v>134.2399271710285</v>
       </c>
       <c r="C39" t="n">
-        <v>470.0756732245949</v>
+        <v>134.2399271710285</v>
       </c>
       <c r="D39" t="n">
-        <v>309.2955569856266</v>
+        <v>134.2399271710285</v>
       </c>
       <c r="E39" t="n">
-        <v>309.2955569856266</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="F39" t="n">
-        <v>309.2955569856266</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="G39" t="n">
-        <v>309.2955569856266</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="H39" t="n">
-        <v>182.2899765959557</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="I39" t="n">
-        <v>73.8420873596049</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="J39" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="K39" t="n">
-        <v>58.80019076548268</v>
+        <v>58.8001907654827</v>
       </c>
       <c r="L39" t="n">
         <v>176.1331098938568</v>
@@ -7284,19 +7284,19 @@
         <v>778.0407857857558</v>
       </c>
       <c r="U39" t="n">
-        <v>778.0407857857558</v>
+        <v>538.416473162636</v>
       </c>
       <c r="V39" t="n">
-        <v>778.0407857857558</v>
+        <v>538.416473162636</v>
       </c>
       <c r="W39" t="n">
-        <v>659.4879474916312</v>
+        <v>538.416473162636</v>
       </c>
       <c r="X39" t="n">
-        <v>659.4879474916312</v>
+        <v>538.416473162636</v>
       </c>
       <c r="Y39" t="n">
-        <v>659.4879474916312</v>
+        <v>312.7757800979636</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>37.60190385293248</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="C40" t="n">
-        <v>37.60190385293248</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="D40" t="n">
-        <v>37.60190385293248</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="E40" t="n">
-        <v>37.60190385293248</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="F40" t="n">
-        <v>37.60190385293248</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="G40" t="n">
-        <v>37.60190385293248</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="H40" t="n">
-        <v>37.60190385293248</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="I40" t="n">
-        <v>37.60190385293248</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="J40" t="n">
-        <v>37.60190385293248</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="K40" t="n">
-        <v>37.60190385293248</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="L40" t="n">
-        <v>37.60190385293248</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="M40" t="n">
-        <v>37.60190385293248</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="N40" t="n">
-        <v>37.60190385293248</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="O40" t="n">
-        <v>37.60190385293248</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="P40" t="n">
-        <v>37.60190385293248</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="Q40" t="n">
-        <v>37.60190385293248</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="R40" t="n">
-        <v>37.60190385293248</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="S40" t="n">
-        <v>37.60190385293248</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="T40" t="n">
         <v>37.60190385293248</v>
       </c>
       <c r="U40" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="V40" t="n">
-        <v>47.51751629070292</v>
+        <v>39.27276256078068</v>
       </c>
       <c r="W40" t="n">
-        <v>29.08161847952453</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="X40" t="n">
-        <v>37.60190385293248</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="Y40" t="n">
-        <v>37.60190385293248</v>
+        <v>20.8368647496023</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>818.426354275317</v>
+        <v>818.4263542753165</v>
       </c>
       <c r="C41" t="n">
-        <v>708.1276389564252</v>
+        <v>708.1276389564247</v>
       </c>
       <c r="D41" t="n">
-        <v>610.3878506465754</v>
+        <v>610.3878506465751</v>
       </c>
       <c r="E41" t="n">
-        <v>478.6008376706561</v>
+        <v>478.6008376706557</v>
       </c>
       <c r="F41" t="n">
-        <v>314.7730796660728</v>
+        <v>314.7730796660726</v>
       </c>
       <c r="G41" t="n">
         <v>135.1484294164039</v>
@@ -7409,34 +7409,34 @@
         <v>28.06597548400537</v>
       </c>
       <c r="J41" t="n">
-        <v>190.6518442323786</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="K41" t="n">
-        <v>422.5915955308619</v>
+        <v>241.5586498727276</v>
       </c>
       <c r="L41" t="n">
-        <v>707.9121095349434</v>
+        <v>526.879163876809</v>
       </c>
       <c r="M41" t="n">
-        <v>842.9233381771552</v>
+        <v>607.7410629637563</v>
       </c>
       <c r="N41" t="n">
-        <v>918.2512313128476</v>
+        <v>921.66862762277</v>
       </c>
       <c r="O41" t="n">
-        <v>952.4718660055154</v>
+        <v>1194.488933838759</v>
       </c>
       <c r="P41" t="n">
-        <v>1176.130484901259</v>
+        <v>1194.488933838759</v>
       </c>
       <c r="Q41" t="n">
-        <v>1325.915536757532</v>
+        <v>1344.273985695033</v>
       </c>
       <c r="R41" t="n">
-        <v>1371.582478352311</v>
+        <v>1389.940927289811</v>
       </c>
       <c r="S41" t="n">
-        <v>1384.940325262768</v>
+        <v>1403.298774200268</v>
       </c>
       <c r="T41" t="n">
         <v>1403.298774200268</v>
@@ -7448,13 +7448,13 @@
         <v>1313.388888674157</v>
       </c>
       <c r="W41" t="n">
-        <v>1215.523540582955</v>
+        <v>1215.523540582954</v>
       </c>
       <c r="X41" t="n">
-        <v>1095.550868785753</v>
+        <v>1095.550868785752</v>
       </c>
       <c r="Y41" t="n">
-        <v>952.8480423181021</v>
+        <v>952.8480423181016</v>
       </c>
     </row>
     <row r="42">
@@ -7464,19 +7464,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>178.3130507109012</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="C42" t="n">
-        <v>178.3130507109012</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="D42" t="n">
-        <v>178.3130507109012</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="E42" t="n">
-        <v>178.3130507109012</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="F42" t="n">
-        <v>178.3130507109012</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="G42" t="n">
         <v>28.06597548400537</v>
@@ -7491,7 +7491,7 @@
         <v>28.06597548400537</v>
       </c>
       <c r="K42" t="n">
-        <v>66.02930149988578</v>
+        <v>66.02930149988576</v>
       </c>
       <c r="L42" t="n">
         <v>183.3622206282599</v>
@@ -7518,22 +7518,22 @@
         <v>649.1892896625047</v>
       </c>
       <c r="T42" t="n">
-        <v>443.891721274966</v>
+        <v>432.0469425862519</v>
       </c>
       <c r="U42" t="n">
-        <v>204.2674086518462</v>
+        <v>432.0469425862519</v>
       </c>
       <c r="V42" t="n">
-        <v>204.2674086518462</v>
+        <v>432.0469425862519</v>
       </c>
       <c r="W42" t="n">
-        <v>178.3130507109012</v>
+        <v>253.7066685486777</v>
       </c>
       <c r="X42" t="n">
-        <v>178.3130507109012</v>
+        <v>253.7066685486777</v>
       </c>
       <c r="Y42" t="n">
-        <v>178.3130507109012</v>
+        <v>28.06597548400537</v>
       </c>
     </row>
     <row r="43">
@@ -7549,25 +7549,25 @@
         <v>28.06597548400537</v>
       </c>
       <c r="D43" t="n">
-        <v>58.54771921525476</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="E43" t="n">
-        <v>58.54771921525476</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="F43" t="n">
-        <v>58.54771921525476</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="G43" t="n">
-        <v>130.1336235606951</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="H43" t="n">
-        <v>130.1336235606951</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="I43" t="n">
-        <v>130.1336235606951</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="J43" t="n">
-        <v>130.1336235606951</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="K43" t="n">
         <v>130.1336235606951</v>
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>818.4263542753173</v>
+        <v>818.4263542753171</v>
       </c>
       <c r="C44" t="n">
-        <v>708.1276389564256</v>
+        <v>708.1276389564255</v>
       </c>
       <c r="D44" t="n">
-        <v>610.3878506465758</v>
+        <v>610.3878506465755</v>
       </c>
       <c r="E44" t="n">
-        <v>478.6008376706565</v>
+        <v>478.6008376706559</v>
       </c>
       <c r="F44" t="n">
-        <v>314.7730796660732</v>
+        <v>314.7730796660726</v>
       </c>
       <c r="G44" t="n">
         <v>135.1484294164039</v>
@@ -7646,28 +7646,28 @@
         <v>28.06597548400537</v>
       </c>
       <c r="J44" t="n">
-        <v>190.6518442323786</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="K44" t="n">
-        <v>422.5915955308619</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="L44" t="n">
-        <v>707.9121095349434</v>
+        <v>196.0474763765179</v>
       </c>
       <c r="M44" t="n">
-        <v>1027.373680145212</v>
+        <v>515.5090469867864</v>
       </c>
       <c r="N44" t="n">
-        <v>1102.701573280904</v>
+        <v>829.4366116458001</v>
       </c>
       <c r="O44" t="n">
-        <v>1136.922207973572</v>
+        <v>1102.256917861789</v>
       </c>
       <c r="P44" t="n">
-        <v>1360.580826869315</v>
+        <v>1325.915536757532</v>
       </c>
       <c r="Q44" t="n">
-        <v>1371.582478352311</v>
+        <v>1325.915536757532</v>
       </c>
       <c r="R44" t="n">
         <v>1371.582478352311</v>
@@ -7682,7 +7682,7 @@
         <v>1394.065670889992</v>
       </c>
       <c r="V44" t="n">
-        <v>1313.388888674157</v>
+        <v>1313.388888674158</v>
       </c>
       <c r="W44" t="n">
         <v>1215.523540582955</v>
@@ -7691,7 +7691,7 @@
         <v>1095.550868785753</v>
       </c>
       <c r="Y44" t="n">
-        <v>952.8480423181026</v>
+        <v>952.8480423181022</v>
       </c>
     </row>
     <row r="45">
@@ -7701,34 +7701,34 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>123.0064465999005</v>
+        <v>69.96934149783453</v>
       </c>
       <c r="C45" t="n">
-        <v>123.0064465999005</v>
+        <v>69.96934149783453</v>
       </c>
       <c r="D45" t="n">
-        <v>28.06597548400537</v>
+        <v>69.96934149783453</v>
       </c>
       <c r="E45" t="n">
-        <v>28.06597548400537</v>
+        <v>69.96934149783453</v>
       </c>
       <c r="F45" t="n">
-        <v>28.06597548400537</v>
+        <v>69.96934149783453</v>
       </c>
       <c r="G45" t="n">
-        <v>28.06597548400537</v>
+        <v>69.96934149783453</v>
       </c>
       <c r="H45" t="n">
-        <v>28.06597548400537</v>
+        <v>69.96934149783453</v>
       </c>
       <c r="I45" t="n">
-        <v>28.06597548400537</v>
+        <v>69.96934149783453</v>
       </c>
       <c r="J45" t="n">
         <v>28.06597548400537</v>
       </c>
       <c r="K45" t="n">
-        <v>66.02930149988578</v>
+        <v>66.02930149988576</v>
       </c>
       <c r="L45" t="n">
         <v>183.3622206282599</v>
@@ -7746,31 +7746,31 @@
         <v>785.2698965201589</v>
       </c>
       <c r="Q45" t="n">
-        <v>785.2698965201589</v>
+        <v>778.3310522028246</v>
       </c>
       <c r="R45" t="n">
-        <v>785.2698965201589</v>
+        <v>778.3310522028246</v>
       </c>
       <c r="S45" t="n">
-        <v>591.7438446817707</v>
+        <v>778.3310522028246</v>
       </c>
       <c r="T45" t="n">
-        <v>374.6014976055179</v>
+        <v>561.1887051265718</v>
       </c>
       <c r="U45" t="n">
-        <v>374.6014976055179</v>
+        <v>321.5643925034519</v>
       </c>
       <c r="V45" t="n">
-        <v>374.6014976055179</v>
+        <v>321.5643925034519</v>
       </c>
       <c r="W45" t="n">
-        <v>348.6471396645729</v>
+        <v>295.6100345625069</v>
       </c>
       <c r="X45" t="n">
-        <v>348.6471396645729</v>
+        <v>295.6100345625069</v>
       </c>
       <c r="Y45" t="n">
-        <v>123.0064465999005</v>
+        <v>69.96934149783453</v>
       </c>
     </row>
     <row r="46">
@@ -7789,46 +7789,46 @@
         <v>28.06597548400537</v>
       </c>
       <c r="E46" t="n">
-        <v>28.06597548400537</v>
+        <v>124.6176159598926</v>
       </c>
       <c r="F46" t="n">
-        <v>28.06597548400537</v>
+        <v>124.6176159598926</v>
       </c>
       <c r="G46" t="n">
-        <v>28.06597548400537</v>
+        <v>124.6176159598926</v>
       </c>
       <c r="H46" t="n">
-        <v>28.06597548400537</v>
+        <v>124.6176159598926</v>
       </c>
       <c r="I46" t="n">
-        <v>28.06597548400537</v>
+        <v>124.6176159598926</v>
       </c>
       <c r="J46" t="n">
-        <v>28.06597548400537</v>
+        <v>124.6176159598926</v>
       </c>
       <c r="K46" t="n">
-        <v>130.1336235606951</v>
+        <v>124.6176159598926</v>
       </c>
       <c r="L46" t="n">
-        <v>130.1336235606951</v>
+        <v>124.6176159598926</v>
       </c>
       <c r="M46" t="n">
-        <v>130.1336235606951</v>
+        <v>124.6176159598926</v>
       </c>
       <c r="N46" t="n">
-        <v>130.1336235606951</v>
+        <v>124.6176159598926</v>
       </c>
       <c r="O46" t="n">
-        <v>130.1336235606951</v>
+        <v>124.6176159598926</v>
       </c>
       <c r="P46" t="n">
-        <v>130.1336235606951</v>
+        <v>124.6176159598926</v>
       </c>
       <c r="Q46" t="n">
-        <v>130.1336235606951</v>
+        <v>124.6176159598926</v>
       </c>
       <c r="R46" t="n">
-        <v>130.1336235606951</v>
+        <v>124.6176159598926</v>
       </c>
       <c r="S46" t="n">
         <v>130.1336235606951</v>
@@ -8532,16 +8532,16 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K9" t="n">
-        <v>171.3658051887314</v>
+        <v>168.166555548718</v>
       </c>
       <c r="L9" t="n">
-        <v>169.0363433314465</v>
+        <v>172.1063303597423</v>
       </c>
       <c r="M9" t="n">
-        <v>173.4035213848624</v>
+        <v>176.6027710248758</v>
       </c>
       <c r="N9" t="n">
-        <v>163.3068757699624</v>
+        <v>160.2368887416667</v>
       </c>
       <c r="O9" t="n">
         <v>177.1666678622357</v>
@@ -8778,7 +8778,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N12" t="n">
-        <v>292.1370682466383</v>
+        <v>292.1370682466384</v>
       </c>
       <c r="O12" t="n">
         <v>255.2227828913207</v>
@@ -9006,7 +9006,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K15" t="n">
-        <v>171.3734735841511</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L15" t="n">
         <v>240.3045437566416</v>
@@ -9243,7 +9243,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K18" t="n">
-        <v>171.3734735841511</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L18" t="n">
         <v>240.3045437566416</v>
@@ -9726,7 +9726,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N24" t="n">
-        <v>292.1370682466383</v>
+        <v>292.1370682466384</v>
       </c>
       <c r="O24" t="n">
         <v>255.2227828913207</v>
@@ -23255,13 +23255,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>195.9389762247655</v>
+        <v>146.9406900512583</v>
       </c>
       <c r="C11" t="n">
         <v>172.057233228111</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>159.6238954891595</v>
       </c>
       <c r="E11" t="n">
         <v>193.3306479085684</v>
@@ -23270,13 +23270,13 @@
         <v>225.0509854869457</v>
       </c>
       <c r="G11" t="n">
-        <v>60.27386386399569</v>
+        <v>240.6899088095808</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>62.86150506240826</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,28 +23303,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>16.73328122929903</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>49.36873040538038</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>44.31761724675145</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>72.00227733958195</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>142.7315194560842</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>159.7481996726991</v>
       </c>
       <c r="X11" t="n">
-        <v>181.6344501416383</v>
+        <v>181.6344501416384</v>
       </c>
       <c r="Y11" t="n">
-        <v>204.1373032653821</v>
+        <v>15.63936994613488</v>
       </c>
     </row>
     <row r="12">
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>195.9389762247656</v>
+        <v>7.441042905518259</v>
       </c>
       <c r="C14" t="n">
         <v>172.057233228111</v>
@@ -23501,19 +23501,19 @@
         <v>159.6238954891595</v>
       </c>
       <c r="E14" t="n">
-        <v>193.3306479085684</v>
+        <v>193.3306479085683</v>
       </c>
       <c r="F14" t="n">
-        <v>104.5360011175616</v>
+        <v>225.0509854869456</v>
       </c>
       <c r="G14" t="n">
-        <v>52.19197549033353</v>
+        <v>240.6899088095807</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>168.8731344554828</v>
       </c>
       <c r="I14" t="n">
-        <v>62.86150506240827</v>
+        <v>33.48801775266469</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,28 +23540,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>16.73328122929906</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>49.3687304053804</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>44.31761724675147</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>142.7315194560842</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>159.7481996726991</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>181.6344501416383</v>
       </c>
       <c r="Y14" t="n">
-        <v>204.1373032653821</v>
+        <v>15.63936994613482</v>
       </c>
     </row>
     <row r="15">
@@ -23735,7 +23735,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-1.524230250115252e-13</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>683497.2962617562</v>
+      </c>
+      <c r="C2" t="n">
         <v>683497.2962617561</v>
       </c>
-      <c r="C2" t="n">
-        <v>683497.296261756</v>
-      </c>
       <c r="D2" t="n">
-        <v>683892.0196823411</v>
+        <v>683892.019682341</v>
       </c>
       <c r="E2" t="n">
-        <v>588794.9572805791</v>
+        <v>588794.9572805789</v>
       </c>
       <c r="F2" t="n">
-        <v>588794.9572805789</v>
+        <v>588794.9572805787</v>
       </c>
       <c r="G2" t="n">
-        <v>684881.8753653649</v>
+        <v>684881.8753653652</v>
       </c>
       <c r="H2" t="n">
-        <v>684881.8753653653</v>
+        <v>684881.8753653651</v>
       </c>
       <c r="I2" t="n">
-        <v>684881.8753653653</v>
+        <v>684881.8753653651</v>
       </c>
       <c r="J2" t="n">
         <v>684881.8753653648</v>
       </c>
       <c r="K2" t="n">
-        <v>684881.8753653651</v>
+        <v>684881.8753653648</v>
       </c>
       <c r="L2" t="n">
-        <v>684881.8753653648</v>
+        <v>684881.8753653646</v>
       </c>
       <c r="M2" t="n">
+        <v>684881.8753653653</v>
+      </c>
+      <c r="N2" t="n">
         <v>684881.8753653652</v>
-      </c>
-      <c r="N2" t="n">
-        <v>684881.8753653654</v>
       </c>
       <c r="O2" t="n">
         <v>684881.8753653652</v>
       </c>
       <c r="P2" t="n">
-        <v>684881.8753653655</v>
+        <v>684881.8753653654</v>
       </c>
     </row>
     <row r="3">
@@ -26375,10 +26375,10 @@
         <v>279126.1151787142</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>95439.52541913331</v>
+        <v>95439.52541913326</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,16 +26393,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>96101.6933126247</v>
+        <v>96101.69331262475</v>
       </c>
       <c r="M3" t="n">
-        <v>46197.3662923228</v>
+        <v>46197.36629232275</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>72254.91485924374</v>
+        <v>72254.91485924373</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26427,22 +26427,22 @@
         <v>290416.1225000671</v>
       </c>
       <c r="F4" t="n">
-        <v>290416.1225000671</v>
+        <v>290416.1225000672</v>
       </c>
       <c r="G4" t="n">
         <v>361023.990543289</v>
       </c>
       <c r="H4" t="n">
-        <v>361023.990543289</v>
+        <v>361023.9905432889</v>
       </c>
       <c r="I4" t="n">
-        <v>361023.990543289</v>
+        <v>361023.9905432889</v>
       </c>
       <c r="J4" t="n">
         <v>361792.602703913</v>
       </c>
       <c r="K4" t="n">
-        <v>361792.6027039131</v>
+        <v>361792.6027039129</v>
       </c>
       <c r="L4" t="n">
         <v>361777.8127365344</v>
@@ -26454,7 +26454,7 @@
         <v>360967.8753632159</v>
       </c>
       <c r="O4" t="n">
-        <v>361354.9380269335</v>
+        <v>361354.9380269336</v>
       </c>
       <c r="P4" t="n">
         <v>361354.9380269336</v>
@@ -26491,13 +26491,13 @@
         <v>38672.33876582418</v>
       </c>
       <c r="J5" t="n">
-        <v>47449.6772201635</v>
+        <v>47449.67722016352</v>
       </c>
       <c r="K5" t="n">
         <v>47449.67722016352</v>
       </c>
       <c r="L5" t="n">
-        <v>47324.7475828481</v>
+        <v>47324.74758284811</v>
       </c>
       <c r="M5" t="n">
         <v>40913.2955986873</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>246078.0763221609</v>
+        <v>246073.6099379558</v>
       </c>
       <c r="C6" t="n">
-        <v>246078.0763221607</v>
+        <v>246073.6099379556</v>
       </c>
       <c r="D6" t="n">
-        <v>245472.8367645845</v>
+        <v>245469.6436817359</v>
       </c>
       <c r="E6" t="n">
-        <v>-9390.237335949976</v>
+        <v>-9700.195136223714</v>
       </c>
       <c r="F6" t="n">
-        <v>269735.8778427641</v>
+        <v>269425.9200424902</v>
       </c>
       <c r="G6" t="n">
-        <v>189746.0206371184</v>
+        <v>189746.0206371188</v>
       </c>
       <c r="H6" t="n">
-        <v>285185.5460562521</v>
+        <v>285185.546056252</v>
       </c>
       <c r="I6" t="n">
-        <v>285185.5460562521</v>
+        <v>285185.546056252</v>
       </c>
       <c r="J6" t="n">
         <v>132143.312434409</v>
       </c>
       <c r="K6" t="n">
-        <v>275639.5954412885</v>
+        <v>275639.5954412884</v>
       </c>
       <c r="L6" t="n">
-        <v>179677.6217333576</v>
+        <v>179677.6217333574</v>
       </c>
       <c r="M6" t="n">
-        <v>236803.3381111392</v>
+        <v>236803.3381111393</v>
       </c>
       <c r="N6" t="n">
-        <v>283000.7044034622</v>
+        <v>283000.7044034619</v>
       </c>
       <c r="O6" t="n">
         <v>207474.8946503146</v>
       </c>
       <c r="P6" t="n">
-        <v>279729.8095095587</v>
+        <v>279729.8095095586</v>
       </c>
     </row>
   </sheetData>
@@ -26710,10 +26710,10 @@
         <v>213.484750524001</v>
       </c>
       <c r="K2" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="L2" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="M2" t="n">
         <v>272.0591682562687</v>
@@ -26774,10 +26774,10 @@
         <v>101.1713840758395</v>
       </c>
       <c r="O3" t="n">
-        <v>101.1713840758396</v>
+        <v>101.1713840758395</v>
       </c>
       <c r="P3" t="n">
-        <v>101.1713840758396</v>
+        <v>101.1713840758395</v>
       </c>
     </row>
     <row r="4">
@@ -26811,19 +26811,19 @@
         <v>188.4979333192472</v>
       </c>
       <c r="J4" t="n">
-        <v>448.9587426892758</v>
+        <v>448.9587426892759</v>
       </c>
       <c r="K4" t="n">
         <v>448.9587426892759</v>
       </c>
       <c r="L4" t="n">
-        <v>445.7594930492624</v>
+        <v>445.7594930492625</v>
       </c>
       <c r="M4" t="n">
-        <v>260.4608093700286</v>
+        <v>260.4608093700287</v>
       </c>
       <c r="N4" t="n">
-        <v>260.4608093700286</v>
+        <v>260.4608093700287</v>
       </c>
       <c r="O4" t="n">
         <v>350.8246935500671</v>
@@ -26917,7 +26917,7 @@
         <v>178.1482641530678</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="G2" t="n">
         <v>119.2994067739166</v>
@@ -26938,7 +26938,7 @@
         <v>120.1271166407809</v>
       </c>
       <c r="M2" t="n">
-        <v>57.74670786540349</v>
+        <v>57.74670786540344</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>260.4608093700286</v>
+        <v>260.4608093700287</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27048,7 +27048,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>90.36388418003844</v>
+        <v>90.36388418003838</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27154,7 +27154,7 @@
         <v>178.1482641530678</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="L2" t="n">
         <v>119.2994067739166</v>
@@ -27871,7 +27871,7 @@
         <v>351.1867109187684</v>
       </c>
       <c r="I8" t="n">
-        <v>256.6898085504863</v>
+        <v>256.8197240036773</v>
       </c>
       <c r="J8" t="n">
         <v>111.3013968910535</v>
@@ -27907,7 +27907,7 @@
         <v>224.246294399988</v>
       </c>
       <c r="U8" t="n">
-        <v>250.3129944763978</v>
+        <v>250.1830790232068</v>
       </c>
       <c r="V8" t="n">
         <v>320.879783609152</v>
@@ -27932,7 +27932,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C9" t="n">
-        <v>187.5181515243659</v>
+        <v>184.3189018843524</v>
       </c>
       <c r="D9" t="n">
         <v>159.1723150765785</v>
@@ -27944,16 +27944,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G9" t="n">
-        <v>146.144319312168</v>
+        <v>148.9622183950918</v>
       </c>
       <c r="H9" t="n">
-        <v>124.6379672828833</v>
+        <v>127.8372169228968</v>
       </c>
       <c r="I9" t="n">
-        <v>111.6565698077035</v>
+        <v>114.855819447717</v>
       </c>
       <c r="J9" t="n">
-        <v>69.83566399273495</v>
+        <v>70.21701454982455</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27974,7 +27974,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>34.64768193211606</v>
+        <v>31.44843229210258</v>
       </c>
       <c r="R9" t="n">
         <v>148.2309527983001</v>
@@ -27989,7 +27989,7 @@
         <v>237.2423862021824</v>
       </c>
       <c r="V9" t="n">
-        <v>240.6489209154022</v>
+        <v>237.4496712753888</v>
       </c>
       <c r="W9" t="n">
         <v>266.7045835770116</v>
@@ -28111,13 +28111,13 @@
         <v>178.1482641530678</v>
       </c>
       <c r="J11" t="n">
-        <v>178.1482641530678</v>
+        <v>76.78161896459403</v>
       </c>
       <c r="K11" t="n">
         <v>178.1482641530678</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>141.3051631366612</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -28126,13 +28126,13 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>153.9316356498858</v>
       </c>
       <c r="P11" t="n">
-        <v>160.7168484597795</v>
+        <v>15.09197235108871</v>
       </c>
       <c r="Q11" t="n">
-        <v>178.1482641530678</v>
+        <v>129.9029866636853</v>
       </c>
       <c r="R11" t="n">
         <v>178.1482641530678</v>
@@ -28169,7 +28169,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C12" t="n">
-        <v>142.5614550702116</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="D12" t="n">
         <v>159.1723150765785</v>
@@ -28187,10 +28187,10 @@
         <v>125.7355245857741</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>107.3634103439873</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>52.47517038390258</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -28214,10 +28214,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>134.7198007890777</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>3.09285800075707</v>
+        <v>3.092858000757076</v>
       </c>
       <c r="T12" t="n">
         <v>178.1482641530678</v>
@@ -28235,7 +28235,7 @@
         <v>178.1482641530678</v>
       </c>
       <c r="Y12" t="n">
-        <v>178.1482641530678</v>
+        <v>117.4426751313995</v>
       </c>
     </row>
     <row r="13">
@@ -28251,10 +28251,10 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D13" t="n">
-        <v>145.1826502507107</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="E13" t="n">
-        <v>141.676141212225</v>
+        <v>169.1300838580427</v>
       </c>
       <c r="F13" t="n">
         <v>138.9268822184467</v>
@@ -28269,28 +28269,28 @@
         <v>164.852968067965</v>
       </c>
       <c r="J13" t="n">
-        <v>120.2396075829089</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="K13" t="n">
-        <v>67.02998013918997</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="L13" t="n">
-        <v>32.15181624817887</v>
+        <v>32.15181624817886</v>
       </c>
       <c r="M13" t="n">
-        <v>63.06270418643501</v>
+        <v>25.21686539889343</v>
       </c>
       <c r="N13" t="n">
         <v>178.1482641530678</v>
       </c>
       <c r="O13" t="n">
-        <v>178.1482641530678</v>
+        <v>37.47888399777678</v>
       </c>
       <c r="P13" t="n">
         <v>178.1482641530678</v>
       </c>
       <c r="Q13" t="n">
-        <v>178.1482641530678</v>
+        <v>127.2169859636892</v>
       </c>
       <c r="R13" t="n">
         <v>178.1482641530678</v>
@@ -28348,28 +28348,28 @@
         <v>178.1482641530678</v>
       </c>
       <c r="J14" t="n">
-        <v>178.1482641530678</v>
+        <v>76.78161896459403</v>
       </c>
       <c r="K14" t="n">
         <v>178.1482641530678</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>134.5823689230611</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>112.4091523741034</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
+        <v>15.09197235108871</v>
+      </c>
+      <c r="Q14" t="n">
         <v>178.1482641530678</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>160.7168484597798</v>
       </c>
       <c r="R14" t="n">
         <v>178.1482641530678</v>
@@ -28403,7 +28403,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>108.0197657466595</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C15" t="n">
         <v>178.1482641530678</v>
@@ -28427,7 +28427,7 @@
         <v>107.3634103439873</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>52.47517038390258</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -28451,25 +28451,25 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>134.7198007890777</v>
+        <v>134.7198007890776</v>
       </c>
       <c r="S15" t="n">
         <v>178.1482641530678</v>
       </c>
       <c r="T15" t="n">
+        <v>63.08287272234989</v>
+      </c>
+      <c r="U15" t="n">
+        <v>48.73013617764137</v>
+      </c>
+      <c r="V15" t="n">
+        <v>52.15098759615501</v>
+      </c>
+      <c r="W15" t="n">
         <v>178.1482641530678</v>
       </c>
-      <c r="U15" t="n">
+      <c r="X15" t="n">
         <v>178.1482641530678</v>
-      </c>
-      <c r="V15" t="n">
-        <v>178.1482641530678</v>
-      </c>
-      <c r="W15" t="n">
-        <v>78.20665025776435</v>
-      </c>
-      <c r="X15" t="n">
-        <v>28.81498112022336</v>
       </c>
       <c r="Y15" t="n">
         <v>178.1482641530678</v>
@@ -28482,52 +28482,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>177.6169206649681</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="C16" t="n">
         <v>166.4571809719723</v>
       </c>
       <c r="D16" t="n">
-        <v>145.1826502507107</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="E16" t="n">
         <v>141.676141212225</v>
       </c>
       <c r="F16" t="n">
-        <v>138.9268822184467</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="G16" t="n">
         <v>168.7007749271525</v>
       </c>
       <c r="H16" t="n">
-        <v>165.8243976546666</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="I16" t="n">
-        <v>164.852968067965</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="J16" t="n">
         <v>120.2396075829089</v>
       </c>
       <c r="K16" t="n">
-        <v>178.1482641530678</v>
+        <v>67.02998013918996</v>
       </c>
       <c r="L16" t="n">
-        <v>178.1482641530678</v>
+        <v>100.026526409569</v>
       </c>
       <c r="M16" t="n">
         <v>178.1482641530678</v>
       </c>
       <c r="N16" t="n">
-        <v>117.2182958651571</v>
+        <v>16.52015736928132</v>
       </c>
       <c r="O16" t="n">
-        <v>37.47888399777678</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="P16" t="n">
-        <v>58.47859890024886</v>
+        <v>58.47859890024885</v>
       </c>
       <c r="Q16" t="n">
-        <v>127.2169859636892</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="R16" t="n">
         <v>178.1482641530678</v>
@@ -28585,13 +28585,13 @@
         <v>297.4476709269844</v>
       </c>
       <c r="J17" t="n">
-        <v>263.6087555745018</v>
+        <v>265.2795522838413</v>
       </c>
       <c r="K17" t="n">
-        <v>6.727192146300943</v>
+        <v>6.727192146300929</v>
       </c>
       <c r="L17" t="n">
-        <v>141.3051631366612</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -28603,19 +28603,19 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>15.09197235108874</v>
+        <v>159.7774519370394</v>
       </c>
       <c r="Q17" t="n">
-        <v>89.71173703742195</v>
+        <v>89.71173703742193</v>
       </c>
       <c r="R17" t="n">
         <v>194.8815453823668</v>
       </c>
       <c r="S17" t="n">
-        <v>227.5169945584482</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="T17" t="n">
-        <v>297.4476709269844</v>
+        <v>222.4658813998192</v>
       </c>
       <c r="U17" t="n">
         <v>297.4476709269844</v>
@@ -28655,7 +28655,7 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
-        <v>148.7446044746268</v>
+        <v>117.4354255961115</v>
       </c>
       <c r="H18" t="n">
         <v>125.7355245857741</v>
@@ -28664,7 +28664,7 @@
         <v>107.3634103439873</v>
       </c>
       <c r="J18" t="n">
-        <v>52.47517038390259</v>
+        <v>52.47517038390258</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -28685,28 +28685,28 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>6.869455874161016</v>
       </c>
       <c r="R18" t="n">
-        <v>134.7198007890777</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>3.092858000757076</v>
+        <v>191.5907913200043</v>
       </c>
       <c r="T18" t="n">
-        <v>214.9709236054903</v>
+        <v>26.47299028624304</v>
       </c>
       <c r="U18" t="n">
-        <v>78.06854570345666</v>
+        <v>237.2280694968886</v>
       </c>
       <c r="V18" t="n">
         <v>52.15098759615501</v>
       </c>
       <c r="W18" t="n">
-        <v>78.20665025776435</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X18" t="n">
-        <v>217.3129144394706</v>
+        <v>28.81498112022336</v>
       </c>
       <c r="Y18" t="n">
         <v>223.3842861340256</v>
@@ -28746,22 +28746,22 @@
         <v>120.2396075829089</v>
       </c>
       <c r="K19" t="n">
-        <v>67.02998013918997</v>
+        <v>67.02998013918996</v>
       </c>
       <c r="L19" t="n">
-        <v>32.15181624817887</v>
+        <v>32.15181624817886</v>
       </c>
       <c r="M19" t="n">
         <v>25.21686539889343</v>
       </c>
       <c r="N19" t="n">
-        <v>16.52015736928133</v>
+        <v>16.52015736928132</v>
       </c>
       <c r="O19" t="n">
         <v>37.47888399777678</v>
       </c>
       <c r="P19" t="n">
-        <v>58.47859890024886</v>
+        <v>58.47859890024885</v>
       </c>
       <c r="Q19" t="n">
         <v>127.2169859636892</v>
@@ -28822,40 +28822,40 @@
         <v>241.009769215476</v>
       </c>
       <c r="J20" t="n">
-        <v>76.78161896459403</v>
+        <v>265.2795522838413</v>
       </c>
       <c r="K20" t="n">
-        <v>6.727192146300943</v>
+        <v>6.727192146300929</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>106.8192473728358</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>112.4091523741034</v>
       </c>
       <c r="O20" t="n">
-        <v>153.9316356498858</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>15.09197235108874</v>
+        <v>15.09197235108871</v>
       </c>
       <c r="Q20" t="n">
-        <v>217.784177300996</v>
+        <v>89.71173703742193</v>
       </c>
       <c r="R20" t="n">
-        <v>297.4476709269844</v>
+        <v>294.0043327357577</v>
       </c>
       <c r="S20" t="n">
         <v>227.5169945584482</v>
       </c>
       <c r="T20" t="n">
-        <v>297.4476709269844</v>
+        <v>222.4658813998192</v>
       </c>
       <c r="U20" t="n">
-        <v>297.4476709269844</v>
+        <v>250.1505414926498</v>
       </c>
       <c r="V20" t="n">
         <v>297.4476709269844</v>
@@ -28892,7 +28892,7 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
-        <v>148.7446044746268</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>125.7355245857741</v>
@@ -28901,7 +28901,7 @@
         <v>107.3634103439873</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>52.47517038390258</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -28925,7 +28925,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>134.7198007890777</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>191.5907913200043</v>
@@ -28937,13 +28937,13 @@
         <v>48.73013617764138</v>
       </c>
       <c r="V21" t="n">
-        <v>52.15098759615501</v>
+        <v>176.4558690664275</v>
       </c>
       <c r="W21" t="n">
         <v>78.20665025776435</v>
       </c>
       <c r="X21" t="n">
-        <v>110.6285610299413</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y21" t="n">
         <v>223.3842861340256</v>
@@ -28983,22 +28983,22 @@
         <v>120.2396075829089</v>
       </c>
       <c r="K22" t="n">
-        <v>67.02998013918997</v>
+        <v>67.02998013918996</v>
       </c>
       <c r="L22" t="n">
-        <v>32.15181624817887</v>
+        <v>32.15181624817886</v>
       </c>
       <c r="M22" t="n">
         <v>25.21686539889343</v>
       </c>
       <c r="N22" t="n">
-        <v>16.52015736928133</v>
+        <v>16.52015736928132</v>
       </c>
       <c r="O22" t="n">
         <v>37.47888399777678</v>
       </c>
       <c r="P22" t="n">
-        <v>58.47859890024886</v>
+        <v>58.47859890024885</v>
       </c>
       <c r="Q22" t="n">
         <v>127.2169859636892</v>
@@ -29056,43 +29056,43 @@
         <v>297.4476709269844</v>
       </c>
       <c r="I23" t="n">
-        <v>241.009769215476</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="J23" t="n">
-        <v>265.2795522838412</v>
+        <v>76.78161896459403</v>
       </c>
       <c r="K23" t="n">
-        <v>6.727192146300943</v>
+        <v>23.89072591849433</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>106.8192473728358</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>153.9316356498858</v>
       </c>
       <c r="P23" t="n">
-        <v>15.09197235108874</v>
+        <v>15.09197235108871</v>
       </c>
       <c r="Q23" t="n">
-        <v>183.2178796316344</v>
+        <v>89.71173703742193</v>
       </c>
       <c r="R23" t="n">
         <v>297.4476709269844</v>
       </c>
       <c r="S23" t="n">
-        <v>227.5169945584482</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="T23" t="n">
-        <v>297.4476709269844</v>
+        <v>222.4658813998192</v>
       </c>
       <c r="U23" t="n">
-        <v>297.4476709269844</v>
+        <v>250.1505414926498</v>
       </c>
       <c r="V23" t="n">
         <v>297.4476709269844</v>
@@ -29114,10 +29114,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>176.7504943976657</v>
+        <v>151.3309895984301</v>
       </c>
       <c r="C24" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>159.1723150765785</v>
@@ -29138,7 +29138,7 @@
         <v>107.3634103439873</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>52.47517038390258</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -29159,31 +29159,31 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.869455874161023</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>134.7198007890777</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>3.092858000757104</v>
+        <v>191.5907913200043</v>
       </c>
       <c r="T24" t="n">
         <v>214.9709236054903</v>
       </c>
       <c r="U24" t="n">
-        <v>48.73013617764141</v>
+        <v>237.2280694968886</v>
       </c>
       <c r="V24" t="n">
-        <v>240.6489209154022</v>
+        <v>52.15098759615501</v>
       </c>
       <c r="W24" t="n">
-        <v>153.1507742933213</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X24" t="n">
-        <v>28.81498112022339</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y24" t="n">
-        <v>223.3842861340256</v>
+        <v>34.88635281477838</v>
       </c>
     </row>
     <row r="25">
@@ -29220,22 +29220,22 @@
         <v>120.2396075829089</v>
       </c>
       <c r="K25" t="n">
-        <v>67.02998013918997</v>
+        <v>67.02998013918996</v>
       </c>
       <c r="L25" t="n">
-        <v>32.15181624817887</v>
+        <v>32.15181624817886</v>
       </c>
       <c r="M25" t="n">
         <v>25.21686539889343</v>
       </c>
       <c r="N25" t="n">
-        <v>16.52015736928133</v>
+        <v>16.52015736928132</v>
       </c>
       <c r="O25" t="n">
         <v>37.47888399777678</v>
       </c>
       <c r="P25" t="n">
-        <v>58.47859890024886</v>
+        <v>58.47859890024885</v>
       </c>
       <c r="Q25" t="n">
         <v>127.2169859636892</v>
@@ -29360,7 +29360,7 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F27" t="n">
         <v>158.8234391199283</v>
@@ -29375,7 +29375,7 @@
         <v>107.3634103439873</v>
       </c>
       <c r="J27" t="n">
-        <v>52.47517038390259</v>
+        <v>52.47517038390258</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -29396,13 +29396,13 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.869455874161023</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>134.7198007890776</v>
       </c>
       <c r="S27" t="n">
-        <v>191.5907913200043</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>213.484750524001</v>
@@ -29411,13 +29411,13 @@
         <v>213.484750524001</v>
       </c>
       <c r="V27" t="n">
-        <v>213.484750524001</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>103.2261868753705</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>208.6238119646592</v>
       </c>
       <c r="Y27" t="n">
         <v>213.484750524001</v>
@@ -29457,25 +29457,25 @@
         <v>120.2396075829089</v>
       </c>
       <c r="K28" t="n">
-        <v>67.02998013918997</v>
+        <v>67.02998013918996</v>
       </c>
       <c r="L28" t="n">
-        <v>32.15181624817887</v>
+        <v>32.15181624817886</v>
       </c>
       <c r="M28" t="n">
-        <v>60.82380230565594</v>
+        <v>25.21686539889343</v>
       </c>
       <c r="N28" t="n">
+        <v>16.52015736928132</v>
+      </c>
+      <c r="O28" t="n">
+        <v>183.782649498947</v>
+      </c>
+      <c r="P28" t="n">
+        <v>58.47859890024885</v>
+      </c>
+      <c r="Q28" t="n">
         <v>213.484750524001</v>
-      </c>
-      <c r="O28" t="n">
-        <v>37.47888399777678</v>
-      </c>
-      <c r="P28" t="n">
-        <v>58.47859890024886</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>127.2169859636892</v>
       </c>
       <c r="R28" t="n">
         <v>203.4299611556341</v>
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="C29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="D29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="E29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="F29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="G29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="H29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="I29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="J29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="K29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="L29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="M29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="N29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="O29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="P29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="Q29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="R29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="S29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="T29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="U29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="V29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="W29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="X29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="Y29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
     </row>
     <row r="30">
@@ -29588,19 +29588,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D30" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
         <v>148.7446044746268</v>
@@ -29609,10 +29609,10 @@
         <v>125.7355245857741</v>
       </c>
       <c r="I30" t="n">
-        <v>40.97170450641207</v>
+        <v>107.3634103439873</v>
       </c>
       <c r="J30" t="n">
-        <v>52.47517038390259</v>
+        <v>52.47517038390258</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -29633,31 +29633,31 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.869455874161023</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>134.7198007890777</v>
+        <v>134.7198007890776</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>191.5907913200043</v>
       </c>
       <c r="T30" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="U30" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="V30" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="W30" t="n">
-        <v>213.484750524001</v>
+        <v>97.8139009106973</v>
       </c>
       <c r="X30" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>213.4847505240009</v>
       </c>
     </row>
     <row r="31">
@@ -29673,10 +29673,10 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D31" t="n">
-        <v>213.484750524001</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E31" t="n">
-        <v>141.676141212225</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="F31" t="n">
         <v>138.9268822184467</v>
@@ -29691,52 +29691,52 @@
         <v>164.852968067965</v>
       </c>
       <c r="J31" t="n">
-        <v>213.484750524001</v>
+        <v>120.2396075829089</v>
       </c>
       <c r="K31" t="n">
-        <v>67.02998013918997</v>
+        <v>67.02998013918996</v>
       </c>
       <c r="L31" t="n">
-        <v>32.15181624817887</v>
+        <v>32.15181624817886</v>
       </c>
       <c r="M31" t="n">
         <v>25.21686539889343</v>
       </c>
       <c r="N31" t="n">
-        <v>16.52015736928133</v>
+        <v>22.27692649523565</v>
       </c>
       <c r="O31" t="n">
         <v>37.47888399777678</v>
       </c>
       <c r="P31" t="n">
-        <v>119.4480963789815</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="Q31" t="n">
         <v>127.2169859636892</v>
       </c>
       <c r="R31" t="n">
-        <v>213.484750524001</v>
+        <v>203.4299611556341</v>
       </c>
       <c r="S31" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="T31" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="U31" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="V31" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="W31" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="X31" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="Y31" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
     </row>
     <row r="32">
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="C32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="D32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="E32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="F32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="G32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="H32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="I32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="J32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="K32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="L32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="M32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="N32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="O32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="P32" t="n">
-        <v>214.3124603908652</v>
+        <v>194.1953356407502</v>
       </c>
       <c r="Q32" t="n">
-        <v>194.1953356407504</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="R32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="S32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="T32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="U32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="V32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="W32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="X32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="Y32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
     </row>
     <row r="33">
@@ -29828,10 +29828,10 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E33" t="n">
         <v>171.8275718397997</v>
@@ -29849,7 +29849,7 @@
         <v>107.3634103439873</v>
       </c>
       <c r="J33" t="n">
-        <v>52.47517038390259</v>
+        <v>52.47517038390258</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -29870,31 +29870,31 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.869455874161023</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>134.7198007890777</v>
+        <v>134.7198007890776</v>
       </c>
       <c r="S33" t="n">
-        <v>191.5907913200043</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>214.3124603908652</v>
+        <v>206.1406823640663</v>
       </c>
       <c r="U33" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="V33" t="n">
-        <v>214.3124603908652</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>140.0584413799808</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
     </row>
     <row r="34">
@@ -29910,19 +29910,19 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D34" t="n">
-        <v>214.3124603908652</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E34" t="n">
         <v>141.676141212225</v>
       </c>
       <c r="F34" t="n">
-        <v>214.3124603908652</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G34" t="n">
         <v>168.7007749271525</v>
       </c>
       <c r="H34" t="n">
-        <v>165.8243976546666</v>
+        <v>203.3887226149531</v>
       </c>
       <c r="I34" t="n">
         <v>164.852968067965</v>
@@ -29931,22 +29931,22 @@
         <v>120.2396075829089</v>
       </c>
       <c r="K34" t="n">
-        <v>67.02998013918997</v>
+        <v>67.02998013918996</v>
       </c>
       <c r="L34" t="n">
-        <v>32.15181624817887</v>
+        <v>32.15181624817886</v>
       </c>
       <c r="M34" t="n">
-        <v>25.21686539889343</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="N34" t="n">
-        <v>16.52015736928133</v>
+        <v>16.52015736928132</v>
       </c>
       <c r="O34" t="n">
-        <v>119.6234156374624</v>
+        <v>37.47888399777678</v>
       </c>
       <c r="P34" t="n">
-        <v>58.47859890024886</v>
+        <v>58.47859890024885</v>
       </c>
       <c r="Q34" t="n">
         <v>127.2169859636892</v>
@@ -29955,25 +29955,25 @@
         <v>203.4299611556341</v>
       </c>
       <c r="S34" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="T34" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="U34" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="V34" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="W34" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="X34" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="Y34" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
     </row>
     <row r="35">
@@ -30007,37 +30007,37 @@
         <v>241.009769215476</v>
       </c>
       <c r="J35" t="n">
-        <v>236.0383153199326</v>
+        <v>76.78161896459403</v>
       </c>
       <c r="K35" t="n">
-        <v>6.727192146300943</v>
+        <v>267.1880015163296</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>178.7821234236173</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>148.2940428950446</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>272.0591682562687</v>
+        <v>15.09197235108871</v>
       </c>
       <c r="Q35" t="n">
         <v>272.0591682562687</v>
       </c>
       <c r="R35" t="n">
-        <v>272.0591682562687</v>
+        <v>194.8815453823668</v>
       </c>
       <c r="S35" t="n">
-        <v>272.0591682562687</v>
+        <v>227.5169945584482</v>
       </c>
       <c r="T35" t="n">
-        <v>272.0591682562687</v>
+        <v>222.4658813998192</v>
       </c>
       <c r="U35" t="n">
         <v>272.0591682562687</v>
@@ -30062,7 +30062,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>96.58639430416899</v>
       </c>
       <c r="C36" t="n">
         <v>187.5181515243659</v>
@@ -30074,7 +30074,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
         <v>148.7446044746268</v>
@@ -30086,7 +30086,7 @@
         <v>107.3634103439873</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>52.47517038390258</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -30107,28 +30107,28 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>6.869455874161023</v>
+        <v>6.869455874161016</v>
       </c>
       <c r="R36" t="n">
-        <v>134.7198007890777</v>
+        <v>134.7198007890776</v>
       </c>
       <c r="S36" t="n">
-        <v>191.5907913200043</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>214.9709236054903</v>
       </c>
       <c r="U36" t="n">
-        <v>237.2280694968886</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>122.4347200921869</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y36" t="n">
         <v>223.3842861340256</v>
@@ -30168,22 +30168,22 @@
         <v>120.2396075829089</v>
       </c>
       <c r="K37" t="n">
-        <v>67.02998013918997</v>
+        <v>67.02998013918996</v>
       </c>
       <c r="L37" t="n">
-        <v>32.15181624817887</v>
+        <v>32.15181624817886</v>
       </c>
       <c r="M37" t="n">
         <v>25.21686539889343</v>
       </c>
       <c r="N37" t="n">
-        <v>16.52015736928133</v>
+        <v>16.52015736928132</v>
       </c>
       <c r="O37" t="n">
-        <v>37.47888399777678</v>
+        <v>73.03538593162382</v>
       </c>
       <c r="P37" t="n">
-        <v>58.47859890024886</v>
+        <v>58.47859890024885</v>
       </c>
       <c r="Q37" t="n">
         <v>127.2169859636892</v>
@@ -30201,13 +30201,13 @@
         <v>272.0591682562687</v>
       </c>
       <c r="V37" t="n">
-        <v>272.0591682562687</v>
+        <v>245.1090151844499</v>
       </c>
       <c r="W37" t="n">
         <v>272.0591682562687</v>
       </c>
       <c r="X37" t="n">
-        <v>230.5258042702708</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y37" t="n">
         <v>217.1412728141684</v>
@@ -30241,16 +30241,16 @@
         <v>272.0591682562687</v>
       </c>
       <c r="I38" t="n">
+        <v>241.009769215476</v>
+      </c>
+      <c r="J38" t="n">
         <v>272.0591682562687</v>
       </c>
-      <c r="J38" t="n">
-        <v>169.4485005841423</v>
-      </c>
       <c r="K38" t="n">
-        <v>6.727192146300943</v>
+        <v>6.727192146300929</v>
       </c>
       <c r="L38" t="n">
-        <v>213.2680391874426</v>
+        <v>141.7067705561089</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -30262,10 +30262,10 @@
         <v>225.8945117006673</v>
       </c>
       <c r="P38" t="n">
-        <v>15.09197235108874</v>
+        <v>15.09197235108871</v>
       </c>
       <c r="Q38" t="n">
-        <v>89.71173703742195</v>
+        <v>89.71173703742193</v>
       </c>
       <c r="R38" t="n">
         <v>194.8815453823668</v>
@@ -30299,16 +30299,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E39" t="n">
-        <v>171.8275718397997</v>
+        <v>59.55854004258774</v>
       </c>
       <c r="F39" t="n">
         <v>158.8234391199283</v>
@@ -30317,13 +30317,13 @@
         <v>148.7446044746268</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>125.7355245857741</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>107.3634103439873</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>52.47517038390258</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -30344,10 +30344,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>6.869455874161023</v>
+        <v>6.869455874161016</v>
       </c>
       <c r="R39" t="n">
-        <v>134.7198007890777</v>
+        <v>134.7198007890776</v>
       </c>
       <c r="S39" t="n">
         <v>191.5907913200043</v>
@@ -30356,19 +30356,19 @@
         <v>214.9709236054903</v>
       </c>
       <c r="U39" t="n">
-        <v>237.2280694968886</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W39" t="n">
-        <v>149.3372736658282</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X39" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -30405,22 +30405,22 @@
         <v>120.2396075829089</v>
       </c>
       <c r="K40" t="n">
-        <v>67.02998013918997</v>
+        <v>67.02998013918996</v>
       </c>
       <c r="L40" t="n">
-        <v>32.15181624817887</v>
+        <v>32.15181624817886</v>
       </c>
       <c r="M40" t="n">
         <v>25.21686539889343</v>
       </c>
       <c r="N40" t="n">
-        <v>16.52015736928133</v>
+        <v>16.52015736928132</v>
       </c>
       <c r="O40" t="n">
         <v>37.47888399777678</v>
       </c>
       <c r="P40" t="n">
-        <v>58.47859890024886</v>
+        <v>58.47859890024885</v>
       </c>
       <c r="Q40" t="n">
         <v>127.2169859636892</v>
@@ -30432,19 +30432,19 @@
         <v>235.4380443661805</v>
       </c>
       <c r="T40" t="n">
-        <v>223.761558450323</v>
+        <v>240.6959413829798</v>
       </c>
       <c r="U40" t="n">
         <v>272.0591682562687</v>
       </c>
       <c r="V40" t="n">
-        <v>272.0591682562687</v>
+        <v>263.7311341856402</v>
       </c>
       <c r="W40" t="n">
         <v>272.0591682562687</v>
       </c>
       <c r="X40" t="n">
-        <v>230.5258042702708</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y40" t="n">
         <v>217.1412728141684</v>
@@ -30481,25 +30481,25 @@
         <v>241.009769215476</v>
       </c>
       <c r="J41" t="n">
-        <v>241.009769215476</v>
+        <v>76.78161896459403</v>
       </c>
       <c r="K41" t="n">
-        <v>241.009769215476</v>
+        <v>222.3763581955153</v>
       </c>
       <c r="L41" t="n">
         <v>241.009769215476</v>
       </c>
       <c r="M41" t="n">
-        <v>54.69629248006511</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>241.009769215476</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>241.009769215476</v>
       </c>
       <c r="P41" t="n">
-        <v>241.009769215476</v>
+        <v>15.09197235108871</v>
       </c>
       <c r="Q41" t="n">
         <v>241.009769215476</v>
@@ -30511,7 +30511,7 @@
         <v>241.009769215476</v>
       </c>
       <c r="T41" t="n">
-        <v>241.009769215476</v>
+        <v>222.4658813998192</v>
       </c>
       <c r="U41" t="n">
         <v>241.009769215476</v>
@@ -30551,7 +30551,7 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>148.7446044746268</v>
       </c>
       <c r="H42" t="n">
         <v>125.7355245857741</v>
@@ -30581,7 +30581,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>6.869455874161012</v>
+        <v>6.869455874161016</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -30590,22 +30590,22 @@
         <v>191.5907913200043</v>
       </c>
       <c r="T42" t="n">
-        <v>11.72633090182694</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>237.2280694968886</v>
       </c>
       <c r="V42" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W42" t="n">
-        <v>241.009769215476</v>
+        <v>90.14771227981313</v>
       </c>
       <c r="X42" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -30621,7 +30621,7 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D43" t="n">
-        <v>175.9722903832858</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E43" t="n">
         <v>141.676141212225</v>
@@ -30630,7 +30630,7 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G43" t="n">
-        <v>241.009769215476</v>
+        <v>168.7007749271525</v>
       </c>
       <c r="H43" t="n">
         <v>165.8243976546666</v>
@@ -30642,19 +30642,19 @@
         <v>120.2396075829089</v>
       </c>
       <c r="K43" t="n">
-        <v>67.02998013918996</v>
+        <v>170.1286145600886</v>
       </c>
       <c r="L43" t="n">
         <v>32.15181624817886</v>
       </c>
       <c r="M43" t="n">
-        <v>25.21686539889342</v>
+        <v>25.21686539889343</v>
       </c>
       <c r="N43" t="n">
         <v>16.52015736928132</v>
       </c>
       <c r="O43" t="n">
-        <v>37.47888399777677</v>
+        <v>37.47888399777678</v>
       </c>
       <c r="P43" t="n">
         <v>58.47859890024885</v>
@@ -30718,31 +30718,31 @@
         <v>241.009769215476</v>
       </c>
       <c r="J44" t="n">
-        <v>241.009769215476</v>
+        <v>76.78161896459403</v>
       </c>
       <c r="K44" t="n">
-        <v>241.009769215476</v>
+        <v>6.727192146300929</v>
       </c>
       <c r="L44" t="n">
-        <v>241.009769215476</v>
+        <v>122.4855135472246</v>
       </c>
       <c r="M44" t="n">
         <v>241.009769215476</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>241.009769215476</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>241.009769215476</v>
       </c>
       <c r="P44" t="n">
         <v>241.009769215476</v>
       </c>
       <c r="Q44" t="n">
-        <v>100.8245163131746</v>
+        <v>89.71173703742193</v>
       </c>
       <c r="R44" t="n">
-        <v>194.8815453823668</v>
+        <v>241.009769215476</v>
       </c>
       <c r="S44" t="n">
         <v>241.009769215476</v>
@@ -30779,7 +30779,7 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D45" t="n">
-        <v>65.18124867184234</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E45" t="n">
         <v>171.8275718397997</v>
@@ -30797,7 +30797,7 @@
         <v>107.3634103439873</v>
       </c>
       <c r="J45" t="n">
-        <v>52.47517038390258</v>
+        <v>10.99083803021171</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -30818,19 +30818,19 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>6.869455874161012</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>134.7198007890776</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>191.5907913200043</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>237.2280694968886</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>240.6489209154022</v>
@@ -30861,7 +30861,7 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E46" t="n">
-        <v>141.676141212225</v>
+        <v>239.2030507838282</v>
       </c>
       <c r="F46" t="n">
         <v>138.9268822184467</v>
@@ -30879,19 +30879,19 @@
         <v>120.2396075829089</v>
       </c>
       <c r="K46" t="n">
-        <v>170.1286145600886</v>
+        <v>67.02998013918996</v>
       </c>
       <c r="L46" t="n">
         <v>32.15181624817886</v>
       </c>
       <c r="M46" t="n">
-        <v>25.21686539889342</v>
+        <v>25.21686539889343</v>
       </c>
       <c r="N46" t="n">
         <v>16.52015736928132</v>
       </c>
       <c r="O46" t="n">
-        <v>37.47888399777677</v>
+        <v>37.47888399777678</v>
       </c>
       <c r="P46" t="n">
         <v>58.47859890024885</v>
@@ -30903,7 +30903,7 @@
         <v>203.4299611556341</v>
       </c>
       <c r="S46" t="n">
-        <v>235.4380443661805</v>
+        <v>241.009769215476</v>
       </c>
       <c r="T46" t="n">
         <v>223.761558450323</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4067191319631736</v>
+        <v>0.4067191319631737</v>
       </c>
       <c r="H11" t="n">
-        <v>4.165312310217852</v>
+        <v>4.165312310217854</v>
       </c>
       <c r="I11" t="n">
         <v>15.68003933501027</v>
       </c>
       <c r="J11" t="n">
-        <v>34.51977792645944</v>
+        <v>34.51977792645945</v>
       </c>
       <c r="K11" t="n">
-        <v>51.73619878246058</v>
+        <v>51.7361987824606</v>
       </c>
       <c r="L11" t="n">
-        <v>64.18332941727857</v>
+        <v>64.18332941727859</v>
       </c>
       <c r="M11" t="n">
-        <v>71.41632078032866</v>
+        <v>71.41632078032868</v>
       </c>
       <c r="N11" t="n">
-        <v>72.57191151401904</v>
+        <v>72.57191151401905</v>
       </c>
       <c r="O11" t="n">
-        <v>68.52759814556022</v>
+        <v>68.52759814556023</v>
       </c>
       <c r="P11" t="n">
-        <v>58.48671957521936</v>
+        <v>58.48671957521938</v>
       </c>
       <c r="Q11" t="n">
-        <v>43.92109066178819</v>
+        <v>43.92109066178821</v>
       </c>
       <c r="R11" t="n">
         <v>25.54857067318173</v>
       </c>
       <c r="S11" t="n">
-        <v>9.268112219610828</v>
+        <v>9.268112219610831</v>
       </c>
       <c r="T11" t="n">
-        <v>1.780413000168793</v>
+        <v>1.780413000168794</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03253753055705388</v>
+        <v>0.03253753055705389</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,40 +31835,40 @@
         <v>2.101692337122629</v>
       </c>
       <c r="I12" t="n">
-        <v>7.492409103729625</v>
+        <v>7.492409103729628</v>
       </c>
       <c r="J12" t="n">
-        <v>20.55974324884584</v>
+        <v>20.55974324884585</v>
       </c>
       <c r="K12" t="n">
         <v>35.13987592000174</v>
       </c>
       <c r="L12" t="n">
-        <v>47.24989970447581</v>
+        <v>47.24989970447582</v>
       </c>
       <c r="M12" t="n">
-        <v>55.13840432133253</v>
+        <v>55.13840432133254</v>
       </c>
       <c r="N12" t="n">
-        <v>56.59775381427554</v>
+        <v>56.59775381427556</v>
       </c>
       <c r="O12" t="n">
-        <v>51.77588747134025</v>
+        <v>51.77588747134026</v>
       </c>
       <c r="P12" t="n">
-        <v>41.55471433862171</v>
+        <v>41.55471433862172</v>
       </c>
       <c r="Q12" t="n">
-        <v>27.77822605795503</v>
+        <v>27.77822605795504</v>
       </c>
       <c r="R12" t="n">
         <v>13.5111520092225</v>
       </c>
       <c r="S12" t="n">
-        <v>4.042083127935661</v>
+        <v>4.042083127935662</v>
       </c>
       <c r="T12" t="n">
-        <v>0.8771368109971366</v>
+        <v>0.8771368109971368</v>
       </c>
       <c r="U12" t="n">
         <v>0.01431670529375088</v>
@@ -31914,7 +31914,7 @@
         <v>1.622059239773297</v>
       </c>
       <c r="I13" t="n">
-        <v>5.48647440201438</v>
+        <v>5.486474402014381</v>
       </c>
       <c r="J13" t="n">
         <v>12.89852219602957</v>
@@ -31923,34 +31923,34 @@
         <v>21.19623423752834</v>
       </c>
       <c r="L13" t="n">
-        <v>27.12388221600458</v>
+        <v>27.12388221600459</v>
       </c>
       <c r="M13" t="n">
-        <v>28.59833074786394</v>
+        <v>28.59833074786395</v>
       </c>
       <c r="N13" t="n">
-        <v>27.91832636309192</v>
+        <v>27.91832636309194</v>
       </c>
       <c r="O13" t="n">
-        <v>25.78709310837956</v>
+        <v>25.78709310837957</v>
       </c>
       <c r="P13" t="n">
-        <v>22.06531301221259</v>
+        <v>22.0653130122126</v>
       </c>
       <c r="Q13" t="n">
         <v>15.27687899545177</v>
       </c>
       <c r="R13" t="n">
-        <v>8.203174846542657</v>
+        <v>8.203174846542659</v>
       </c>
       <c r="S13" t="n">
-        <v>3.17943513562925</v>
+        <v>3.179435135629251</v>
       </c>
       <c r="T13" t="n">
-        <v>0.7795172215679435</v>
+        <v>0.7795172215679437</v>
       </c>
       <c r="U13" t="n">
-        <v>0.009951283679590783</v>
+        <v>0.009951283679590785</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4067191319631736</v>
+        <v>0.4067191319631737</v>
       </c>
       <c r="H14" t="n">
-        <v>4.165312310217852</v>
+        <v>4.165312310217854</v>
       </c>
       <c r="I14" t="n">
         <v>15.68003933501027</v>
       </c>
       <c r="J14" t="n">
-        <v>34.51977792645944</v>
+        <v>34.51977792645945</v>
       </c>
       <c r="K14" t="n">
-        <v>51.73619878246058</v>
+        <v>51.7361987824606</v>
       </c>
       <c r="L14" t="n">
-        <v>64.18332941727857</v>
+        <v>64.18332941727859</v>
       </c>
       <c r="M14" t="n">
-        <v>71.41632078032866</v>
+        <v>71.41632078032868</v>
       </c>
       <c r="N14" t="n">
-        <v>72.57191151401904</v>
+        <v>72.57191151401905</v>
       </c>
       <c r="O14" t="n">
-        <v>68.52759814556022</v>
+        <v>68.52759814556023</v>
       </c>
       <c r="P14" t="n">
-        <v>58.48671957521936</v>
+        <v>58.48671957521938</v>
       </c>
       <c r="Q14" t="n">
-        <v>43.92109066178819</v>
+        <v>43.92109066178821</v>
       </c>
       <c r="R14" t="n">
         <v>25.54857067318173</v>
       </c>
       <c r="S14" t="n">
-        <v>9.268112219610828</v>
+        <v>9.268112219610831</v>
       </c>
       <c r="T14" t="n">
-        <v>1.780413000168793</v>
+        <v>1.780413000168794</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03253753055705388</v>
+        <v>0.03253753055705389</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,40 +32072,40 @@
         <v>2.101692337122629</v>
       </c>
       <c r="I15" t="n">
-        <v>7.492409103729625</v>
+        <v>7.492409103729628</v>
       </c>
       <c r="J15" t="n">
-        <v>20.55974324884584</v>
+        <v>20.55974324884585</v>
       </c>
       <c r="K15" t="n">
         <v>35.13987592000174</v>
       </c>
       <c r="L15" t="n">
-        <v>47.24989970447581</v>
+        <v>47.24989970447582</v>
       </c>
       <c r="M15" t="n">
-        <v>55.13840432133253</v>
+        <v>55.13840432133254</v>
       </c>
       <c r="N15" t="n">
-        <v>56.59775381427554</v>
+        <v>56.59775381427556</v>
       </c>
       <c r="O15" t="n">
-        <v>51.77588747134025</v>
+        <v>51.77588747134026</v>
       </c>
       <c r="P15" t="n">
-        <v>41.55471433862171</v>
+        <v>41.55471433862172</v>
       </c>
       <c r="Q15" t="n">
-        <v>27.77822605795503</v>
+        <v>27.77822605795504</v>
       </c>
       <c r="R15" t="n">
         <v>13.5111520092225</v>
       </c>
       <c r="S15" t="n">
-        <v>4.042083127935661</v>
+        <v>4.042083127935662</v>
       </c>
       <c r="T15" t="n">
-        <v>0.8771368109971366</v>
+        <v>0.8771368109971368</v>
       </c>
       <c r="U15" t="n">
         <v>0.01431670529375088</v>
@@ -32151,7 +32151,7 @@
         <v>1.622059239773297</v>
       </c>
       <c r="I16" t="n">
-        <v>5.48647440201438</v>
+        <v>5.486474402014381</v>
       </c>
       <c r="J16" t="n">
         <v>12.89852219602957</v>
@@ -32160,34 +32160,34 @@
         <v>21.19623423752834</v>
       </c>
       <c r="L16" t="n">
-        <v>27.12388221600458</v>
+        <v>27.12388221600459</v>
       </c>
       <c r="M16" t="n">
-        <v>28.59833074786394</v>
+        <v>28.59833074786395</v>
       </c>
       <c r="N16" t="n">
-        <v>27.91832636309192</v>
+        <v>27.91832636309194</v>
       </c>
       <c r="O16" t="n">
-        <v>25.78709310837956</v>
+        <v>25.78709310837957</v>
       </c>
       <c r="P16" t="n">
-        <v>22.06531301221259</v>
+        <v>22.0653130122126</v>
       </c>
       <c r="Q16" t="n">
         <v>15.27687899545177</v>
       </c>
       <c r="R16" t="n">
-        <v>8.203174846542657</v>
+        <v>8.203174846542659</v>
       </c>
       <c r="S16" t="n">
-        <v>3.17943513562925</v>
+        <v>3.179435135629251</v>
       </c>
       <c r="T16" t="n">
-        <v>0.7795172215679435</v>
+        <v>0.7795172215679437</v>
       </c>
       <c r="U16" t="n">
-        <v>0.009951283679590783</v>
+        <v>0.009951283679590785</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4067191319631736</v>
+        <v>0.4067191319631737</v>
       </c>
       <c r="H17" t="n">
-        <v>4.165312310217852</v>
+        <v>4.165312310217854</v>
       </c>
       <c r="I17" t="n">
         <v>15.68003933501027</v>
       </c>
       <c r="J17" t="n">
-        <v>34.51977792645944</v>
+        <v>34.51977792645945</v>
       </c>
       <c r="K17" t="n">
-        <v>51.73619878246058</v>
+        <v>51.7361987824606</v>
       </c>
       <c r="L17" t="n">
-        <v>64.18332941727857</v>
+        <v>64.18332941727859</v>
       </c>
       <c r="M17" t="n">
-        <v>71.41632078032866</v>
+        <v>71.41632078032868</v>
       </c>
       <c r="N17" t="n">
-        <v>72.57191151401904</v>
+        <v>72.57191151401905</v>
       </c>
       <c r="O17" t="n">
-        <v>68.52759814556022</v>
+        <v>68.52759814556023</v>
       </c>
       <c r="P17" t="n">
-        <v>58.48671957521936</v>
+        <v>58.48671957521938</v>
       </c>
       <c r="Q17" t="n">
-        <v>43.92109066178819</v>
+        <v>43.92109066178821</v>
       </c>
       <c r="R17" t="n">
         <v>25.54857067318173</v>
       </c>
       <c r="S17" t="n">
-        <v>9.268112219610828</v>
+        <v>9.268112219610831</v>
       </c>
       <c r="T17" t="n">
-        <v>1.780413000168793</v>
+        <v>1.780413000168794</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03253753055705388</v>
+        <v>0.03253753055705389</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,40 +32309,40 @@
         <v>2.101692337122629</v>
       </c>
       <c r="I18" t="n">
-        <v>7.492409103729625</v>
+        <v>7.492409103729628</v>
       </c>
       <c r="J18" t="n">
-        <v>20.55974324884584</v>
+        <v>20.55974324884585</v>
       </c>
       <c r="K18" t="n">
         <v>35.13987592000174</v>
       </c>
       <c r="L18" t="n">
-        <v>47.24989970447581</v>
+        <v>47.24989970447582</v>
       </c>
       <c r="M18" t="n">
-        <v>55.13840432133253</v>
+        <v>55.13840432133254</v>
       </c>
       <c r="N18" t="n">
-        <v>56.59775381427554</v>
+        <v>56.59775381427556</v>
       </c>
       <c r="O18" t="n">
-        <v>51.77588747134025</v>
+        <v>51.77588747134026</v>
       </c>
       <c r="P18" t="n">
-        <v>41.55471433862171</v>
+        <v>41.55471433862172</v>
       </c>
       <c r="Q18" t="n">
-        <v>27.77822605795503</v>
+        <v>27.77822605795504</v>
       </c>
       <c r="R18" t="n">
         <v>13.5111520092225</v>
       </c>
       <c r="S18" t="n">
-        <v>4.042083127935661</v>
+        <v>4.042083127935662</v>
       </c>
       <c r="T18" t="n">
-        <v>0.8771368109971366</v>
+        <v>0.8771368109971368</v>
       </c>
       <c r="U18" t="n">
         <v>0.01431670529375088</v>
@@ -32388,7 +32388,7 @@
         <v>1.622059239773297</v>
       </c>
       <c r="I19" t="n">
-        <v>5.48647440201438</v>
+        <v>5.486474402014381</v>
       </c>
       <c r="J19" t="n">
         <v>12.89852219602957</v>
@@ -32397,34 +32397,34 @@
         <v>21.19623423752834</v>
       </c>
       <c r="L19" t="n">
-        <v>27.12388221600458</v>
+        <v>27.12388221600459</v>
       </c>
       <c r="M19" t="n">
-        <v>28.59833074786394</v>
+        <v>28.59833074786395</v>
       </c>
       <c r="N19" t="n">
-        <v>27.91832636309192</v>
+        <v>27.91832636309194</v>
       </c>
       <c r="O19" t="n">
-        <v>25.78709310837956</v>
+        <v>25.78709310837957</v>
       </c>
       <c r="P19" t="n">
-        <v>22.06531301221259</v>
+        <v>22.0653130122126</v>
       </c>
       <c r="Q19" t="n">
         <v>15.27687899545177</v>
       </c>
       <c r="R19" t="n">
-        <v>8.203174846542657</v>
+        <v>8.203174846542659</v>
       </c>
       <c r="S19" t="n">
-        <v>3.17943513562925</v>
+        <v>3.179435135629251</v>
       </c>
       <c r="T19" t="n">
-        <v>0.7795172215679435</v>
+        <v>0.7795172215679437</v>
       </c>
       <c r="U19" t="n">
-        <v>0.009951283679590783</v>
+        <v>0.009951283679590785</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4067191319631736</v>
+        <v>0.4067191319631737</v>
       </c>
       <c r="H20" t="n">
-        <v>4.165312310217852</v>
+        <v>4.165312310217854</v>
       </c>
       <c r="I20" t="n">
         <v>15.68003933501027</v>
       </c>
       <c r="J20" t="n">
-        <v>34.51977792645944</v>
+        <v>34.51977792645945</v>
       </c>
       <c r="K20" t="n">
-        <v>51.73619878246058</v>
+        <v>51.7361987824606</v>
       </c>
       <c r="L20" t="n">
-        <v>64.18332941727857</v>
+        <v>64.18332941727859</v>
       </c>
       <c r="M20" t="n">
-        <v>71.41632078032866</v>
+        <v>71.41632078032868</v>
       </c>
       <c r="N20" t="n">
-        <v>72.57191151401904</v>
+        <v>72.57191151401905</v>
       </c>
       <c r="O20" t="n">
-        <v>68.52759814556022</v>
+        <v>68.52759814556023</v>
       </c>
       <c r="P20" t="n">
-        <v>58.48671957521936</v>
+        <v>58.48671957521938</v>
       </c>
       <c r="Q20" t="n">
-        <v>43.92109066178819</v>
+        <v>43.92109066178821</v>
       </c>
       <c r="R20" t="n">
         <v>25.54857067318173</v>
       </c>
       <c r="S20" t="n">
-        <v>9.268112219610828</v>
+        <v>9.268112219610831</v>
       </c>
       <c r="T20" t="n">
-        <v>1.780413000168793</v>
+        <v>1.780413000168794</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03253753055705388</v>
+        <v>0.03253753055705389</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32546,40 +32546,40 @@
         <v>2.101692337122629</v>
       </c>
       <c r="I21" t="n">
-        <v>7.492409103729625</v>
+        <v>7.492409103729628</v>
       </c>
       <c r="J21" t="n">
-        <v>20.55974324884584</v>
+        <v>20.55974324884585</v>
       </c>
       <c r="K21" t="n">
         <v>35.13987592000174</v>
       </c>
       <c r="L21" t="n">
-        <v>47.24989970447581</v>
+        <v>47.24989970447582</v>
       </c>
       <c r="M21" t="n">
-        <v>55.13840432133253</v>
+        <v>55.13840432133254</v>
       </c>
       <c r="N21" t="n">
-        <v>56.59775381427554</v>
+        <v>56.59775381427556</v>
       </c>
       <c r="O21" t="n">
-        <v>51.77588747134025</v>
+        <v>51.77588747134026</v>
       </c>
       <c r="P21" t="n">
-        <v>41.55471433862171</v>
+        <v>41.55471433862172</v>
       </c>
       <c r="Q21" t="n">
-        <v>27.77822605795503</v>
+        <v>27.77822605795504</v>
       </c>
       <c r="R21" t="n">
         <v>13.5111520092225</v>
       </c>
       <c r="S21" t="n">
-        <v>4.042083127935661</v>
+        <v>4.042083127935662</v>
       </c>
       <c r="T21" t="n">
-        <v>0.8771368109971366</v>
+        <v>0.8771368109971368</v>
       </c>
       <c r="U21" t="n">
         <v>0.01431670529375088</v>
@@ -32625,7 +32625,7 @@
         <v>1.622059239773297</v>
       </c>
       <c r="I22" t="n">
-        <v>5.48647440201438</v>
+        <v>5.486474402014381</v>
       </c>
       <c r="J22" t="n">
         <v>12.89852219602957</v>
@@ -32634,34 +32634,34 @@
         <v>21.19623423752834</v>
       </c>
       <c r="L22" t="n">
-        <v>27.12388221600458</v>
+        <v>27.12388221600459</v>
       </c>
       <c r="M22" t="n">
-        <v>28.59833074786394</v>
+        <v>28.59833074786395</v>
       </c>
       <c r="N22" t="n">
-        <v>27.91832636309192</v>
+        <v>27.91832636309194</v>
       </c>
       <c r="O22" t="n">
-        <v>25.78709310837956</v>
+        <v>25.78709310837957</v>
       </c>
       <c r="P22" t="n">
-        <v>22.06531301221259</v>
+        <v>22.0653130122126</v>
       </c>
       <c r="Q22" t="n">
         <v>15.27687899545177</v>
       </c>
       <c r="R22" t="n">
-        <v>8.203174846542657</v>
+        <v>8.203174846542659</v>
       </c>
       <c r="S22" t="n">
-        <v>3.17943513562925</v>
+        <v>3.179435135629251</v>
       </c>
       <c r="T22" t="n">
-        <v>0.7795172215679435</v>
+        <v>0.7795172215679437</v>
       </c>
       <c r="U22" t="n">
-        <v>0.009951283679590783</v>
+        <v>0.009951283679590785</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4067191319631736</v>
+        <v>0.4067191319631737</v>
       </c>
       <c r="H23" t="n">
-        <v>4.165312310217852</v>
+        <v>4.165312310217854</v>
       </c>
       <c r="I23" t="n">
         <v>15.68003933501027</v>
       </c>
       <c r="J23" t="n">
-        <v>34.51977792645944</v>
+        <v>34.51977792645945</v>
       </c>
       <c r="K23" t="n">
-        <v>51.73619878246058</v>
+        <v>51.7361987824606</v>
       </c>
       <c r="L23" t="n">
-        <v>64.18332941727857</v>
+        <v>64.18332941727859</v>
       </c>
       <c r="M23" t="n">
-        <v>71.41632078032866</v>
+        <v>71.41632078032868</v>
       </c>
       <c r="N23" t="n">
-        <v>72.57191151401904</v>
+        <v>72.57191151401905</v>
       </c>
       <c r="O23" t="n">
-        <v>68.52759814556022</v>
+        <v>68.52759814556023</v>
       </c>
       <c r="P23" t="n">
-        <v>58.48671957521936</v>
+        <v>58.48671957521938</v>
       </c>
       <c r="Q23" t="n">
-        <v>43.92109066178819</v>
+        <v>43.92109066178821</v>
       </c>
       <c r="R23" t="n">
         <v>25.54857067318173</v>
       </c>
       <c r="S23" t="n">
-        <v>9.268112219610828</v>
+        <v>9.268112219610831</v>
       </c>
       <c r="T23" t="n">
-        <v>1.780413000168793</v>
+        <v>1.780413000168794</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03253753055705388</v>
+        <v>0.03253753055705389</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32783,40 +32783,40 @@
         <v>2.101692337122629</v>
       </c>
       <c r="I24" t="n">
-        <v>7.492409103729625</v>
+        <v>7.492409103729628</v>
       </c>
       <c r="J24" t="n">
-        <v>20.55974324884584</v>
+        <v>20.55974324884585</v>
       </c>
       <c r="K24" t="n">
         <v>35.13987592000174</v>
       </c>
       <c r="L24" t="n">
-        <v>47.24989970447581</v>
+        <v>47.24989970447582</v>
       </c>
       <c r="M24" t="n">
-        <v>55.13840432133253</v>
+        <v>55.13840432133254</v>
       </c>
       <c r="N24" t="n">
-        <v>56.59775381427554</v>
+        <v>56.59775381427556</v>
       </c>
       <c r="O24" t="n">
-        <v>51.77588747134025</v>
+        <v>51.77588747134026</v>
       </c>
       <c r="P24" t="n">
-        <v>41.55471433862171</v>
+        <v>41.55471433862172</v>
       </c>
       <c r="Q24" t="n">
-        <v>27.77822605795503</v>
+        <v>27.77822605795504</v>
       </c>
       <c r="R24" t="n">
         <v>13.5111520092225</v>
       </c>
       <c r="S24" t="n">
-        <v>4.042083127935661</v>
+        <v>4.042083127935662</v>
       </c>
       <c r="T24" t="n">
-        <v>0.8771368109971366</v>
+        <v>0.8771368109971368</v>
       </c>
       <c r="U24" t="n">
         <v>0.01431670529375088</v>
@@ -32862,7 +32862,7 @@
         <v>1.622059239773297</v>
       </c>
       <c r="I25" t="n">
-        <v>5.48647440201438</v>
+        <v>5.486474402014381</v>
       </c>
       <c r="J25" t="n">
         <v>12.89852219602957</v>
@@ -32871,34 +32871,34 @@
         <v>21.19623423752834</v>
       </c>
       <c r="L25" t="n">
-        <v>27.12388221600458</v>
+        <v>27.12388221600459</v>
       </c>
       <c r="M25" t="n">
-        <v>28.59833074786394</v>
+        <v>28.59833074786395</v>
       </c>
       <c r="N25" t="n">
-        <v>27.91832636309192</v>
+        <v>27.91832636309194</v>
       </c>
       <c r="O25" t="n">
-        <v>25.78709310837956</v>
+        <v>25.78709310837957</v>
       </c>
       <c r="P25" t="n">
-        <v>22.06531301221259</v>
+        <v>22.0653130122126</v>
       </c>
       <c r="Q25" t="n">
         <v>15.27687899545177</v>
       </c>
       <c r="R25" t="n">
-        <v>8.203174846542657</v>
+        <v>8.203174846542659</v>
       </c>
       <c r="S25" t="n">
-        <v>3.17943513562925</v>
+        <v>3.179435135629251</v>
       </c>
       <c r="T25" t="n">
-        <v>0.7795172215679435</v>
+        <v>0.7795172215679437</v>
       </c>
       <c r="U25" t="n">
-        <v>0.009951283679590783</v>
+        <v>0.009951283679590785</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4067191319631736</v>
+        <v>0.4067191319631737</v>
       </c>
       <c r="H26" t="n">
-        <v>4.165312310217852</v>
+        <v>4.165312310217854</v>
       </c>
       <c r="I26" t="n">
         <v>15.68003933501027</v>
       </c>
       <c r="J26" t="n">
-        <v>34.51977792645944</v>
+        <v>34.51977792645945</v>
       </c>
       <c r="K26" t="n">
-        <v>51.73619878246058</v>
+        <v>51.7361987824606</v>
       </c>
       <c r="L26" t="n">
-        <v>64.18332941727857</v>
+        <v>64.18332941727859</v>
       </c>
       <c r="M26" t="n">
-        <v>71.41632078032866</v>
+        <v>71.41632078032868</v>
       </c>
       <c r="N26" t="n">
-        <v>72.57191151401904</v>
+        <v>72.57191151401905</v>
       </c>
       <c r="O26" t="n">
-        <v>68.52759814556022</v>
+        <v>68.52759814556023</v>
       </c>
       <c r="P26" t="n">
-        <v>58.48671957521936</v>
+        <v>58.48671957521938</v>
       </c>
       <c r="Q26" t="n">
-        <v>43.92109066178819</v>
+        <v>43.92109066178821</v>
       </c>
       <c r="R26" t="n">
         <v>25.54857067318173</v>
       </c>
       <c r="S26" t="n">
-        <v>9.268112219610828</v>
+        <v>9.268112219610831</v>
       </c>
       <c r="T26" t="n">
-        <v>1.780413000168793</v>
+        <v>1.780413000168794</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03253753055705388</v>
+        <v>0.03253753055705389</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33020,40 +33020,40 @@
         <v>2.101692337122629</v>
       </c>
       <c r="I27" t="n">
-        <v>7.492409103729625</v>
+        <v>7.492409103729628</v>
       </c>
       <c r="J27" t="n">
-        <v>20.55974324884584</v>
+        <v>20.55974324884585</v>
       </c>
       <c r="K27" t="n">
         <v>35.13987592000174</v>
       </c>
       <c r="L27" t="n">
-        <v>47.24989970447581</v>
+        <v>47.24989970447582</v>
       </c>
       <c r="M27" t="n">
-        <v>55.13840432133253</v>
+        <v>55.13840432133254</v>
       </c>
       <c r="N27" t="n">
-        <v>56.59775381427554</v>
+        <v>56.59775381427556</v>
       </c>
       <c r="O27" t="n">
-        <v>51.77588747134025</v>
+        <v>51.77588747134026</v>
       </c>
       <c r="P27" t="n">
-        <v>41.55471433862171</v>
+        <v>41.55471433862172</v>
       </c>
       <c r="Q27" t="n">
-        <v>27.77822605795503</v>
+        <v>27.77822605795504</v>
       </c>
       <c r="R27" t="n">
         <v>13.5111520092225</v>
       </c>
       <c r="S27" t="n">
-        <v>4.042083127935661</v>
+        <v>4.042083127935662</v>
       </c>
       <c r="T27" t="n">
-        <v>0.8771368109971366</v>
+        <v>0.8771368109971368</v>
       </c>
       <c r="U27" t="n">
         <v>0.01431670529375088</v>
@@ -33099,7 +33099,7 @@
         <v>1.622059239773297</v>
       </c>
       <c r="I28" t="n">
-        <v>5.48647440201438</v>
+        <v>5.486474402014381</v>
       </c>
       <c r="J28" t="n">
         <v>12.89852219602957</v>
@@ -33108,34 +33108,34 @@
         <v>21.19623423752834</v>
       </c>
       <c r="L28" t="n">
-        <v>27.12388221600458</v>
+        <v>27.12388221600459</v>
       </c>
       <c r="M28" t="n">
-        <v>28.59833074786394</v>
+        <v>28.59833074786395</v>
       </c>
       <c r="N28" t="n">
-        <v>27.91832636309192</v>
+        <v>27.91832636309194</v>
       </c>
       <c r="O28" t="n">
-        <v>25.78709310837956</v>
+        <v>25.78709310837957</v>
       </c>
       <c r="P28" t="n">
-        <v>22.06531301221259</v>
+        <v>22.0653130122126</v>
       </c>
       <c r="Q28" t="n">
         <v>15.27687899545177</v>
       </c>
       <c r="R28" t="n">
-        <v>8.203174846542657</v>
+        <v>8.203174846542659</v>
       </c>
       <c r="S28" t="n">
-        <v>3.17943513562925</v>
+        <v>3.179435135629251</v>
       </c>
       <c r="T28" t="n">
-        <v>0.7795172215679435</v>
+        <v>0.7795172215679437</v>
       </c>
       <c r="U28" t="n">
-        <v>0.009951283679590783</v>
+        <v>0.009951283679590785</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4067191319631736</v>
+        <v>0.4067191319631737</v>
       </c>
       <c r="H29" t="n">
-        <v>4.165312310217852</v>
+        <v>4.165312310217854</v>
       </c>
       <c r="I29" t="n">
         <v>15.68003933501027</v>
       </c>
       <c r="J29" t="n">
-        <v>34.51977792645944</v>
+        <v>34.51977792645945</v>
       </c>
       <c r="K29" t="n">
-        <v>51.73619878246058</v>
+        <v>51.7361987824606</v>
       </c>
       <c r="L29" t="n">
-        <v>64.18332941727857</v>
+        <v>64.18332941727859</v>
       </c>
       <c r="M29" t="n">
-        <v>71.41632078032866</v>
+        <v>71.41632078032868</v>
       </c>
       <c r="N29" t="n">
-        <v>72.57191151401904</v>
+        <v>72.57191151401905</v>
       </c>
       <c r="O29" t="n">
-        <v>68.52759814556022</v>
+        <v>68.52759814556023</v>
       </c>
       <c r="P29" t="n">
-        <v>58.48671957521936</v>
+        <v>58.48671957521938</v>
       </c>
       <c r="Q29" t="n">
-        <v>43.92109066178819</v>
+        <v>43.92109066178821</v>
       </c>
       <c r="R29" t="n">
         <v>25.54857067318173</v>
       </c>
       <c r="S29" t="n">
-        <v>9.268112219610828</v>
+        <v>9.268112219610831</v>
       </c>
       <c r="T29" t="n">
-        <v>1.780413000168793</v>
+        <v>1.780413000168794</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03253753055705388</v>
+        <v>0.03253753055705389</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33257,40 +33257,40 @@
         <v>2.101692337122629</v>
       </c>
       <c r="I30" t="n">
-        <v>7.492409103729625</v>
+        <v>7.492409103729628</v>
       </c>
       <c r="J30" t="n">
-        <v>20.55974324884584</v>
+        <v>20.55974324884585</v>
       </c>
       <c r="K30" t="n">
         <v>35.13987592000174</v>
       </c>
       <c r="L30" t="n">
-        <v>47.24989970447581</v>
+        <v>47.24989970447582</v>
       </c>
       <c r="M30" t="n">
-        <v>55.13840432133253</v>
+        <v>55.13840432133254</v>
       </c>
       <c r="N30" t="n">
-        <v>56.59775381427554</v>
+        <v>56.59775381427556</v>
       </c>
       <c r="O30" t="n">
-        <v>51.77588747134025</v>
+        <v>51.77588747134026</v>
       </c>
       <c r="P30" t="n">
-        <v>41.55471433862171</v>
+        <v>41.55471433862172</v>
       </c>
       <c r="Q30" t="n">
-        <v>27.77822605795503</v>
+        <v>27.77822605795504</v>
       </c>
       <c r="R30" t="n">
         <v>13.5111520092225</v>
       </c>
       <c r="S30" t="n">
-        <v>4.042083127935661</v>
+        <v>4.042083127935662</v>
       </c>
       <c r="T30" t="n">
-        <v>0.8771368109971366</v>
+        <v>0.8771368109971368</v>
       </c>
       <c r="U30" t="n">
         <v>0.01431670529375088</v>
@@ -33336,7 +33336,7 @@
         <v>1.622059239773297</v>
       </c>
       <c r="I31" t="n">
-        <v>5.48647440201438</v>
+        <v>5.486474402014381</v>
       </c>
       <c r="J31" t="n">
         <v>12.89852219602957</v>
@@ -33345,34 +33345,34 @@
         <v>21.19623423752834</v>
       </c>
       <c r="L31" t="n">
-        <v>27.12388221600458</v>
+        <v>27.12388221600459</v>
       </c>
       <c r="M31" t="n">
-        <v>28.59833074786394</v>
+        <v>28.59833074786395</v>
       </c>
       <c r="N31" t="n">
-        <v>27.91832636309192</v>
+        <v>27.91832636309194</v>
       </c>
       <c r="O31" t="n">
-        <v>25.78709310837956</v>
+        <v>25.78709310837957</v>
       </c>
       <c r="P31" t="n">
-        <v>22.06531301221259</v>
+        <v>22.0653130122126</v>
       </c>
       <c r="Q31" t="n">
         <v>15.27687899545177</v>
       </c>
       <c r="R31" t="n">
-        <v>8.203174846542657</v>
+        <v>8.203174846542659</v>
       </c>
       <c r="S31" t="n">
-        <v>3.17943513562925</v>
+        <v>3.179435135629251</v>
       </c>
       <c r="T31" t="n">
-        <v>0.7795172215679435</v>
+        <v>0.7795172215679437</v>
       </c>
       <c r="U31" t="n">
-        <v>0.009951283679590783</v>
+        <v>0.009951283679590785</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4067191319631736</v>
+        <v>0.4067191319631737</v>
       </c>
       <c r="H32" t="n">
-        <v>4.165312310217852</v>
+        <v>4.165312310217854</v>
       </c>
       <c r="I32" t="n">
         <v>15.68003933501027</v>
       </c>
       <c r="J32" t="n">
-        <v>34.51977792645944</v>
+        <v>34.51977792645945</v>
       </c>
       <c r="K32" t="n">
-        <v>51.73619878246058</v>
+        <v>51.7361987824606</v>
       </c>
       <c r="L32" t="n">
-        <v>64.18332941727857</v>
+        <v>64.18332941727859</v>
       </c>
       <c r="M32" t="n">
-        <v>71.41632078032866</v>
+        <v>71.41632078032868</v>
       </c>
       <c r="N32" t="n">
-        <v>72.57191151401904</v>
+        <v>72.57191151401905</v>
       </c>
       <c r="O32" t="n">
-        <v>68.52759814556022</v>
+        <v>68.52759814556023</v>
       </c>
       <c r="P32" t="n">
-        <v>58.48671957521936</v>
+        <v>58.48671957521938</v>
       </c>
       <c r="Q32" t="n">
-        <v>43.92109066178819</v>
+        <v>43.92109066178821</v>
       </c>
       <c r="R32" t="n">
         <v>25.54857067318173</v>
       </c>
       <c r="S32" t="n">
-        <v>9.268112219610828</v>
+        <v>9.268112219610831</v>
       </c>
       <c r="T32" t="n">
-        <v>1.780413000168793</v>
+        <v>1.780413000168794</v>
       </c>
       <c r="U32" t="n">
-        <v>0.03253753055705388</v>
+        <v>0.03253753055705389</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33494,40 +33494,40 @@
         <v>2.101692337122629</v>
       </c>
       <c r="I33" t="n">
-        <v>7.492409103729625</v>
+        <v>7.492409103729628</v>
       </c>
       <c r="J33" t="n">
-        <v>20.55974324884584</v>
+        <v>20.55974324884585</v>
       </c>
       <c r="K33" t="n">
         <v>35.13987592000174</v>
       </c>
       <c r="L33" t="n">
-        <v>47.24989970447581</v>
+        <v>47.24989970447582</v>
       </c>
       <c r="M33" t="n">
-        <v>55.13840432133253</v>
+        <v>55.13840432133254</v>
       </c>
       <c r="N33" t="n">
-        <v>56.59775381427554</v>
+        <v>56.59775381427556</v>
       </c>
       <c r="O33" t="n">
-        <v>51.77588747134025</v>
+        <v>51.77588747134026</v>
       </c>
       <c r="P33" t="n">
-        <v>41.55471433862171</v>
+        <v>41.55471433862172</v>
       </c>
       <c r="Q33" t="n">
-        <v>27.77822605795503</v>
+        <v>27.77822605795504</v>
       </c>
       <c r="R33" t="n">
         <v>13.5111520092225</v>
       </c>
       <c r="S33" t="n">
-        <v>4.042083127935661</v>
+        <v>4.042083127935662</v>
       </c>
       <c r="T33" t="n">
-        <v>0.8771368109971366</v>
+        <v>0.8771368109971368</v>
       </c>
       <c r="U33" t="n">
         <v>0.01431670529375088</v>
@@ -33573,7 +33573,7 @@
         <v>1.622059239773297</v>
       </c>
       <c r="I34" t="n">
-        <v>5.48647440201438</v>
+        <v>5.486474402014381</v>
       </c>
       <c r="J34" t="n">
         <v>12.89852219602957</v>
@@ -33582,34 +33582,34 @@
         <v>21.19623423752834</v>
       </c>
       <c r="L34" t="n">
-        <v>27.12388221600458</v>
+        <v>27.12388221600459</v>
       </c>
       <c r="M34" t="n">
-        <v>28.59833074786394</v>
+        <v>28.59833074786395</v>
       </c>
       <c r="N34" t="n">
-        <v>27.91832636309192</v>
+        <v>27.91832636309194</v>
       </c>
       <c r="O34" t="n">
-        <v>25.78709310837956</v>
+        <v>25.78709310837957</v>
       </c>
       <c r="P34" t="n">
-        <v>22.06531301221259</v>
+        <v>22.0653130122126</v>
       </c>
       <c r="Q34" t="n">
         <v>15.27687899545177</v>
       </c>
       <c r="R34" t="n">
-        <v>8.203174846542657</v>
+        <v>8.203174846542659</v>
       </c>
       <c r="S34" t="n">
-        <v>3.17943513562925</v>
+        <v>3.179435135629251</v>
       </c>
       <c r="T34" t="n">
-        <v>0.7795172215679435</v>
+        <v>0.7795172215679437</v>
       </c>
       <c r="U34" t="n">
-        <v>0.009951283679590783</v>
+        <v>0.009951283679590785</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4067191319631736</v>
+        <v>0.4067191319631737</v>
       </c>
       <c r="H35" t="n">
-        <v>4.165312310217852</v>
+        <v>4.165312310217854</v>
       </c>
       <c r="I35" t="n">
         <v>15.68003933501027</v>
       </c>
       <c r="J35" t="n">
-        <v>34.51977792645944</v>
+        <v>34.51977792645945</v>
       </c>
       <c r="K35" t="n">
-        <v>51.73619878246058</v>
+        <v>51.7361987824606</v>
       </c>
       <c r="L35" t="n">
-        <v>64.18332941727857</v>
+        <v>64.18332941727859</v>
       </c>
       <c r="M35" t="n">
-        <v>71.41632078032866</v>
+        <v>71.41632078032868</v>
       </c>
       <c r="N35" t="n">
-        <v>72.57191151401904</v>
+        <v>72.57191151401905</v>
       </c>
       <c r="O35" t="n">
-        <v>68.52759814556022</v>
+        <v>68.52759814556023</v>
       </c>
       <c r="P35" t="n">
-        <v>58.48671957521936</v>
+        <v>58.48671957521938</v>
       </c>
       <c r="Q35" t="n">
-        <v>43.92109066178819</v>
+        <v>43.92109066178821</v>
       </c>
       <c r="R35" t="n">
         <v>25.54857067318173</v>
       </c>
       <c r="S35" t="n">
-        <v>9.268112219610828</v>
+        <v>9.268112219610831</v>
       </c>
       <c r="T35" t="n">
-        <v>1.780413000168793</v>
+        <v>1.780413000168794</v>
       </c>
       <c r="U35" t="n">
-        <v>0.03253753055705388</v>
+        <v>0.03253753055705389</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33731,40 +33731,40 @@
         <v>2.101692337122629</v>
       </c>
       <c r="I36" t="n">
-        <v>7.492409103729625</v>
+        <v>7.492409103729628</v>
       </c>
       <c r="J36" t="n">
-        <v>20.55974324884584</v>
+        <v>20.55974324884585</v>
       </c>
       <c r="K36" t="n">
         <v>35.13987592000174</v>
       </c>
       <c r="L36" t="n">
-        <v>47.24989970447581</v>
+        <v>47.24989970447582</v>
       </c>
       <c r="M36" t="n">
-        <v>55.13840432133253</v>
+        <v>55.13840432133254</v>
       </c>
       <c r="N36" t="n">
-        <v>56.59775381427554</v>
+        <v>56.59775381427556</v>
       </c>
       <c r="O36" t="n">
-        <v>51.77588747134025</v>
+        <v>51.77588747134026</v>
       </c>
       <c r="P36" t="n">
-        <v>41.55471433862171</v>
+        <v>41.55471433862172</v>
       </c>
       <c r="Q36" t="n">
-        <v>27.77822605795503</v>
+        <v>27.77822605795504</v>
       </c>
       <c r="R36" t="n">
         <v>13.5111520092225</v>
       </c>
       <c r="S36" t="n">
-        <v>4.042083127935661</v>
+        <v>4.042083127935662</v>
       </c>
       <c r="T36" t="n">
-        <v>0.8771368109971366</v>
+        <v>0.8771368109971368</v>
       </c>
       <c r="U36" t="n">
         <v>0.01431670529375088</v>
@@ -33810,7 +33810,7 @@
         <v>1.622059239773297</v>
       </c>
       <c r="I37" t="n">
-        <v>5.48647440201438</v>
+        <v>5.486474402014381</v>
       </c>
       <c r="J37" t="n">
         <v>12.89852219602957</v>
@@ -33819,34 +33819,34 @@
         <v>21.19623423752834</v>
       </c>
       <c r="L37" t="n">
-        <v>27.12388221600458</v>
+        <v>27.12388221600459</v>
       </c>
       <c r="M37" t="n">
-        <v>28.59833074786394</v>
+        <v>28.59833074786395</v>
       </c>
       <c r="N37" t="n">
-        <v>27.91832636309192</v>
+        <v>27.91832636309194</v>
       </c>
       <c r="O37" t="n">
-        <v>25.78709310837956</v>
+        <v>25.78709310837957</v>
       </c>
       <c r="P37" t="n">
-        <v>22.06531301221259</v>
+        <v>22.0653130122126</v>
       </c>
       <c r="Q37" t="n">
         <v>15.27687899545177</v>
       </c>
       <c r="R37" t="n">
-        <v>8.203174846542657</v>
+        <v>8.203174846542659</v>
       </c>
       <c r="S37" t="n">
-        <v>3.17943513562925</v>
+        <v>3.179435135629251</v>
       </c>
       <c r="T37" t="n">
-        <v>0.7795172215679435</v>
+        <v>0.7795172215679437</v>
       </c>
       <c r="U37" t="n">
-        <v>0.009951283679590783</v>
+        <v>0.009951283679590785</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4067191319631736</v>
+        <v>0.4067191319631737</v>
       </c>
       <c r="H38" t="n">
-        <v>4.165312310217852</v>
+        <v>4.165312310217854</v>
       </c>
       <c r="I38" t="n">
         <v>15.68003933501027</v>
       </c>
       <c r="J38" t="n">
-        <v>34.51977792645944</v>
+        <v>34.51977792645945</v>
       </c>
       <c r="K38" t="n">
-        <v>51.73619878246058</v>
+        <v>51.7361987824606</v>
       </c>
       <c r="L38" t="n">
-        <v>64.18332941727857</v>
+        <v>64.18332941727859</v>
       </c>
       <c r="M38" t="n">
-        <v>71.41632078032866</v>
+        <v>71.41632078032868</v>
       </c>
       <c r="N38" t="n">
-        <v>72.57191151401904</v>
+        <v>72.57191151401905</v>
       </c>
       <c r="O38" t="n">
-        <v>68.52759814556022</v>
+        <v>68.52759814556023</v>
       </c>
       <c r="P38" t="n">
-        <v>58.48671957521936</v>
+        <v>58.48671957521938</v>
       </c>
       <c r="Q38" t="n">
-        <v>43.92109066178819</v>
+        <v>43.92109066178821</v>
       </c>
       <c r="R38" t="n">
         <v>25.54857067318173</v>
       </c>
       <c r="S38" t="n">
-        <v>9.268112219610828</v>
+        <v>9.268112219610831</v>
       </c>
       <c r="T38" t="n">
-        <v>1.780413000168793</v>
+        <v>1.780413000168794</v>
       </c>
       <c r="U38" t="n">
-        <v>0.03253753055705388</v>
+        <v>0.03253753055705389</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33968,40 +33968,40 @@
         <v>2.101692337122629</v>
       </c>
       <c r="I39" t="n">
-        <v>7.492409103729625</v>
+        <v>7.492409103729628</v>
       </c>
       <c r="J39" t="n">
-        <v>20.55974324884584</v>
+        <v>20.55974324884585</v>
       </c>
       <c r="K39" t="n">
         <v>35.13987592000174</v>
       </c>
       <c r="L39" t="n">
-        <v>47.24989970447581</v>
+        <v>47.24989970447582</v>
       </c>
       <c r="M39" t="n">
-        <v>55.13840432133253</v>
+        <v>55.13840432133254</v>
       </c>
       <c r="N39" t="n">
-        <v>56.59775381427554</v>
+        <v>56.59775381427556</v>
       </c>
       <c r="O39" t="n">
-        <v>51.77588747134025</v>
+        <v>51.77588747134026</v>
       </c>
       <c r="P39" t="n">
-        <v>41.55471433862171</v>
+        <v>41.55471433862172</v>
       </c>
       <c r="Q39" t="n">
-        <v>27.77822605795503</v>
+        <v>27.77822605795504</v>
       </c>
       <c r="R39" t="n">
         <v>13.5111520092225</v>
       </c>
       <c r="S39" t="n">
-        <v>4.042083127935661</v>
+        <v>4.042083127935662</v>
       </c>
       <c r="T39" t="n">
-        <v>0.8771368109971366</v>
+        <v>0.8771368109971368</v>
       </c>
       <c r="U39" t="n">
         <v>0.01431670529375088</v>
@@ -34047,7 +34047,7 @@
         <v>1.622059239773297</v>
       </c>
       <c r="I40" t="n">
-        <v>5.48647440201438</v>
+        <v>5.486474402014381</v>
       </c>
       <c r="J40" t="n">
         <v>12.89852219602957</v>
@@ -34056,34 +34056,34 @@
         <v>21.19623423752834</v>
       </c>
       <c r="L40" t="n">
-        <v>27.12388221600458</v>
+        <v>27.12388221600459</v>
       </c>
       <c r="M40" t="n">
-        <v>28.59833074786394</v>
+        <v>28.59833074786395</v>
       </c>
       <c r="N40" t="n">
-        <v>27.91832636309192</v>
+        <v>27.91832636309194</v>
       </c>
       <c r="O40" t="n">
-        <v>25.78709310837956</v>
+        <v>25.78709310837957</v>
       </c>
       <c r="P40" t="n">
-        <v>22.06531301221259</v>
+        <v>22.0653130122126</v>
       </c>
       <c r="Q40" t="n">
         <v>15.27687899545177</v>
       </c>
       <c r="R40" t="n">
-        <v>8.203174846542657</v>
+        <v>8.203174846542659</v>
       </c>
       <c r="S40" t="n">
-        <v>3.17943513562925</v>
+        <v>3.179435135629251</v>
       </c>
       <c r="T40" t="n">
-        <v>0.7795172215679435</v>
+        <v>0.7795172215679437</v>
       </c>
       <c r="U40" t="n">
-        <v>0.009951283679590783</v>
+        <v>0.009951283679590785</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4067191319631738</v>
+        <v>0.4067191319631737</v>
       </c>
       <c r="H41" t="n">
         <v>4.165312310217854</v>
@@ -34132,28 +34132,28 @@
         <v>34.51977792645945</v>
       </c>
       <c r="K41" t="n">
-        <v>51.73619878246061</v>
+        <v>51.7361987824606</v>
       </c>
       <c r="L41" t="n">
-        <v>64.1833294172786</v>
+        <v>64.18332941727859</v>
       </c>
       <c r="M41" t="n">
-        <v>71.41632078032869</v>
+        <v>71.41632078032868</v>
       </c>
       <c r="N41" t="n">
-        <v>72.57191151401906</v>
+        <v>72.57191151401905</v>
       </c>
       <c r="O41" t="n">
-        <v>68.52759814556025</v>
+        <v>68.52759814556023</v>
       </c>
       <c r="P41" t="n">
-        <v>58.48671957521939</v>
+        <v>58.48671957521938</v>
       </c>
       <c r="Q41" t="n">
         <v>43.92109066178821</v>
       </c>
       <c r="R41" t="n">
-        <v>25.54857067318174</v>
+        <v>25.54857067318173</v>
       </c>
       <c r="S41" t="n">
         <v>9.268112219610831</v>
@@ -34162,7 +34162,7 @@
         <v>1.780413000168794</v>
       </c>
       <c r="U41" t="n">
-        <v>0.0325375305570539</v>
+        <v>0.03253753055705389</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2176139204650134</v>
+        <v>0.2176139204650133</v>
       </c>
       <c r="H42" t="n">
-        <v>2.10169233712263</v>
+        <v>2.101692337122629</v>
       </c>
       <c r="I42" t="n">
-        <v>7.492409103729629</v>
+        <v>7.492409103729628</v>
       </c>
       <c r="J42" t="n">
         <v>20.55974324884585</v>
       </c>
       <c r="K42" t="n">
-        <v>35.13987592000175</v>
+        <v>35.13987592000174</v>
       </c>
       <c r="L42" t="n">
-        <v>47.24989970447583</v>
+        <v>47.24989970447582</v>
       </c>
       <c r="M42" t="n">
-        <v>55.13840432133255</v>
+        <v>55.13840432133254</v>
       </c>
       <c r="N42" t="n">
-        <v>56.59775381427557</v>
+        <v>56.59775381427556</v>
       </c>
       <c r="O42" t="n">
-        <v>51.77588747134027</v>
+        <v>51.77588747134026</v>
       </c>
       <c r="P42" t="n">
-        <v>41.55471433862173</v>
+        <v>41.55471433862172</v>
       </c>
       <c r="Q42" t="n">
-        <v>27.77822605795505</v>
+        <v>27.77822605795504</v>
       </c>
       <c r="R42" t="n">
         <v>13.5111520092225</v>
       </c>
       <c r="S42" t="n">
-        <v>4.042083127935663</v>
+        <v>4.042083127935662</v>
       </c>
       <c r="T42" t="n">
-        <v>0.8771368109971369</v>
+        <v>0.8771368109971368</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01431670529375089</v>
+        <v>0.01431670529375088</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,10 +34281,10 @@
         <v>0.1824402007924975</v>
       </c>
       <c r="H43" t="n">
-        <v>1.622059239773298</v>
+        <v>1.622059239773297</v>
       </c>
       <c r="I43" t="n">
-        <v>5.486474402014382</v>
+        <v>5.486474402014381</v>
       </c>
       <c r="J43" t="n">
         <v>12.89852219602957</v>
@@ -34311,16 +34311,16 @@
         <v>15.27687899545177</v>
       </c>
       <c r="R43" t="n">
-        <v>8.203174846542661</v>
+        <v>8.203174846542659</v>
       </c>
       <c r="S43" t="n">
-        <v>3.179435135629252</v>
+        <v>3.179435135629251</v>
       </c>
       <c r="T43" t="n">
-        <v>0.7795172215679438</v>
+        <v>0.7795172215679437</v>
       </c>
       <c r="U43" t="n">
-        <v>0.009951283679590786</v>
+        <v>0.009951283679590785</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4067191319631738</v>
+        <v>0.4067191319631737</v>
       </c>
       <c r="H44" t="n">
         <v>4.165312310217854</v>
@@ -34369,28 +34369,28 @@
         <v>34.51977792645945</v>
       </c>
       <c r="K44" t="n">
-        <v>51.73619878246061</v>
+        <v>51.7361987824606</v>
       </c>
       <c r="L44" t="n">
-        <v>64.1833294172786</v>
+        <v>64.18332941727859</v>
       </c>
       <c r="M44" t="n">
-        <v>71.41632078032869</v>
+        <v>71.41632078032868</v>
       </c>
       <c r="N44" t="n">
-        <v>72.57191151401906</v>
+        <v>72.57191151401905</v>
       </c>
       <c r="O44" t="n">
-        <v>68.52759814556025</v>
+        <v>68.52759814556023</v>
       </c>
       <c r="P44" t="n">
-        <v>58.48671957521939</v>
+        <v>58.48671957521938</v>
       </c>
       <c r="Q44" t="n">
         <v>43.92109066178821</v>
       </c>
       <c r="R44" t="n">
-        <v>25.54857067318174</v>
+        <v>25.54857067318173</v>
       </c>
       <c r="S44" t="n">
         <v>9.268112219610831</v>
@@ -34399,7 +34399,7 @@
         <v>1.780413000168794</v>
       </c>
       <c r="U44" t="n">
-        <v>0.0325375305570539</v>
+        <v>0.03253753055705389</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2176139204650134</v>
+        <v>0.2176139204650133</v>
       </c>
       <c r="H45" t="n">
-        <v>2.10169233712263</v>
+        <v>2.101692337122629</v>
       </c>
       <c r="I45" t="n">
-        <v>7.492409103729629</v>
+        <v>7.492409103729628</v>
       </c>
       <c r="J45" t="n">
         <v>20.55974324884585</v>
       </c>
       <c r="K45" t="n">
-        <v>35.13987592000175</v>
+        <v>35.13987592000174</v>
       </c>
       <c r="L45" t="n">
-        <v>47.24989970447583</v>
+        <v>47.24989970447582</v>
       </c>
       <c r="M45" t="n">
-        <v>55.13840432133255</v>
+        <v>55.13840432133254</v>
       </c>
       <c r="N45" t="n">
-        <v>56.59775381427557</v>
+        <v>56.59775381427556</v>
       </c>
       <c r="O45" t="n">
-        <v>51.77588747134027</v>
+        <v>51.77588747134026</v>
       </c>
       <c r="P45" t="n">
-        <v>41.55471433862173</v>
+        <v>41.55471433862172</v>
       </c>
       <c r="Q45" t="n">
-        <v>27.77822605795505</v>
+        <v>27.77822605795504</v>
       </c>
       <c r="R45" t="n">
         <v>13.5111520092225</v>
       </c>
       <c r="S45" t="n">
-        <v>4.042083127935663</v>
+        <v>4.042083127935662</v>
       </c>
       <c r="T45" t="n">
-        <v>0.8771368109971369</v>
+        <v>0.8771368109971368</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01431670529375089</v>
+        <v>0.01431670529375088</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,10 +34518,10 @@
         <v>0.1824402007924975</v>
       </c>
       <c r="H46" t="n">
-        <v>1.622059239773298</v>
+        <v>1.622059239773297</v>
       </c>
       <c r="I46" t="n">
-        <v>5.486474402014382</v>
+        <v>5.486474402014381</v>
       </c>
       <c r="J46" t="n">
         <v>12.89852219602957</v>
@@ -34548,16 +34548,16 @@
         <v>15.27687899545177</v>
       </c>
       <c r="R46" t="n">
-        <v>8.203174846542661</v>
+        <v>8.203174846542659</v>
       </c>
       <c r="S46" t="n">
-        <v>3.179435135629252</v>
+        <v>3.179435135629251</v>
       </c>
       <c r="T46" t="n">
-        <v>0.7795172215679438</v>
+        <v>0.7795172215679437</v>
       </c>
       <c r="U46" t="n">
-        <v>0.009951283679590786</v>
+        <v>0.009951283679590785</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35167,7 +35167,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.1299154531910392</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -35203,7 +35203,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0.129915453191039</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -35252,16 +35252,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>3.069987028295762</v>
+      </c>
+      <c r="M9" t="n">
         <v>3.199249640013477</v>
       </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
       <c r="N9" t="n">
-        <v>3.069987028295762</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>3.199249640013477</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>101.3666451884738</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>171.4210720067668</v>
       </c>
       <c r="L11" t="n">
-        <v>47.192770182586</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="M11" t="n">
-        <v>81.67868594641142</v>
+        <v>81.67868594641143</v>
       </c>
       <c r="N11" t="n">
-        <v>76.08878094514384</v>
+        <v>76.08878094514385</v>
       </c>
       <c r="O11" t="n">
-        <v>34.56629766936139</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="P11" t="n">
-        <v>145.6248761086908</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>88.43652711564584</v>
+        <v>40.19124962626335</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,10 +35489,10 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>38.34679395543474</v>
+        <v>38.34679395543475</v>
       </c>
       <c r="L12" t="n">
-        <v>118.5181001296708</v>
+        <v>118.5181001296709</v>
       </c>
       <c r="M12" t="n">
         <v>183.5117642464701</v>
@@ -35504,7 +35504,7 @@
         <v>133.0312521404388</v>
       </c>
       <c r="P12" t="n">
-        <v>84.4698113718181</v>
+        <v>84.46981137181817</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35547,10 +35547,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>32.96561390235706</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>27.45394264581766</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>57.90865657015883</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>111.1182840138778</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>37.84583878754157</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>161.6281067837864</v>
       </c>
       <c r="O13" t="n">
-        <v>140.669380155291</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>119.6696652528189</v>
       </c>
       <c r="Q13" t="n">
-        <v>50.93127818937859</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>101.3666451884737</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>171.4210720067668</v>
+        <v>171.4210720067669</v>
       </c>
       <c r="L14" t="n">
-        <v>47.192770182586</v>
+        <v>181.7751391056471</v>
       </c>
       <c r="M14" t="n">
-        <v>81.67868594641142</v>
+        <v>81.67868594641143</v>
       </c>
       <c r="N14" t="n">
-        <v>76.08878094514384</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="O14" t="n">
-        <v>34.56629766936139</v>
+        <v>34.5662976693614</v>
       </c>
       <c r="P14" t="n">
-        <v>163.056291801979</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>71.0051114223578</v>
+        <v>88.4365271156459</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,10 +35726,10 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>38.34679395543486</v>
+        <v>38.34679395543475</v>
       </c>
       <c r="L15" t="n">
-        <v>118.5181001296708</v>
+        <v>118.5181001296709</v>
       </c>
       <c r="M15" t="n">
         <v>183.5117642464701</v>
@@ -35741,7 +35741,7 @@
         <v>133.0312521404388</v>
       </c>
       <c r="P15" t="n">
-        <v>84.4698113718181</v>
+        <v>84.46981137181811</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35778,52 +35778,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>0.5313434880997363</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>32.96561390235712</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>39.22138193462118</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>12.32386649840125</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>13.29529608510279</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>111.1182840138778</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>145.9964479048889</v>
+        <v>67.87471016139015</v>
       </c>
       <c r="M16" t="n">
-        <v>152.9313987541743</v>
+        <v>152.9313987541744</v>
       </c>
       <c r="N16" t="n">
-        <v>100.6981384958758</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>140.6693801552911</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>50.93127818937862</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,28 +35878,28 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>56.43790171150837</v>
+        <v>56.43790171150838</v>
       </c>
       <c r="J17" t="n">
-        <v>186.8271366099078</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>188.4979333192472</v>
+        <v>47.19277018258602</v>
       </c>
       <c r="M17" t="n">
-        <v>81.67868594641142</v>
+        <v>81.67868594641143</v>
       </c>
       <c r="N17" t="n">
-        <v>76.08878094514384</v>
+        <v>76.08878094514385</v>
       </c>
       <c r="O17" t="n">
-        <v>34.56629766936139</v>
+        <v>34.5662976693614</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>144.6854795859507</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35908,13 +35908,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>69.93067636853624</v>
       </c>
       <c r="T17" t="n">
-        <v>74.98178952716516</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>47.29712943433466</v>
+        <v>47.29712943433467</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -35963,10 +35963,10 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>38.34679395543486</v>
+        <v>38.34679395543475</v>
       </c>
       <c r="L18" t="n">
-        <v>118.5181001296708</v>
+        <v>118.5181001296709</v>
       </c>
       <c r="M18" t="n">
         <v>183.5117642464701</v>
@@ -35978,7 +35978,7 @@
         <v>133.0312521404388</v>
       </c>
       <c r="P18" t="n">
-        <v>84.4698113718181</v>
+        <v>84.46981137181811</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36118,40 +36118,40 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>47.192770182586</v>
+        <v>47.19277018258602</v>
       </c>
       <c r="M20" t="n">
-        <v>81.67868594641142</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="N20" t="n">
-        <v>76.08878094514384</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="O20" t="n">
-        <v>188.4979333192472</v>
+        <v>34.5662976693614</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>128.072440263574</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>102.5661255446176</v>
+        <v>99.12278735339086</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>74.98178952716516</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>47.29712943433466</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -36200,10 +36200,10 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>38.34679395543474</v>
+        <v>38.34679395543475</v>
       </c>
       <c r="L21" t="n">
-        <v>118.5181001296708</v>
+        <v>118.5181001296709</v>
       </c>
       <c r="M21" t="n">
         <v>183.5117642464701</v>
@@ -36215,7 +36215,7 @@
         <v>133.0312521404388</v>
       </c>
       <c r="P21" t="n">
-        <v>84.4698113718181</v>
+        <v>84.46981137181811</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36352,43 +36352,43 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>56.43790171150838</v>
       </c>
       <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>17.1635337721934</v>
+      </c>
+      <c r="L23" t="n">
+        <v>47.19277018258602</v>
+      </c>
+      <c r="M23" t="n">
         <v>188.4979333192472</v>
       </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>47.192770182586</v>
-      </c>
-      <c r="M23" t="n">
-        <v>81.67868594641142</v>
-      </c>
       <c r="N23" t="n">
-        <v>76.08878094514384</v>
+        <v>76.08878094514385</v>
       </c>
       <c r="O23" t="n">
-        <v>34.56629766936139</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>93.50614259421251</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>102.5661255446176</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>69.93067636853624</v>
       </c>
       <c r="T23" t="n">
-        <v>74.98178952716516</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>47.29712943433466</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -36437,10 +36437,10 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>38.34679395543474</v>
+        <v>38.34679395543475</v>
       </c>
       <c r="L24" t="n">
-        <v>118.5181001296708</v>
+        <v>118.5181001296709</v>
       </c>
       <c r="M24" t="n">
         <v>183.5117642464701</v>
@@ -36452,7 +36452,7 @@
         <v>133.0312521404388</v>
       </c>
       <c r="P24" t="n">
-        <v>84.4698113718181</v>
+        <v>84.46981137181817</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36592,10 +36592,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>136.7031315594069</v>
+        <v>136.703131559407</v>
       </c>
       <c r="K26" t="n">
-        <v>206.7575583777</v>
+        <v>206.7575583777001</v>
       </c>
       <c r="L26" t="n">
         <v>260.677520706587</v>
@@ -36610,13 +36610,13 @@
         <v>248.0510481933624</v>
       </c>
       <c r="P26" t="n">
-        <v>198.3927781729122</v>
+        <v>198.3927781729123</v>
       </c>
       <c r="Q26" t="n">
-        <v>123.773013486579</v>
+        <v>123.7730134865791</v>
       </c>
       <c r="R26" t="n">
-        <v>18.60320514163413</v>
+        <v>18.60320514163417</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,22 +36674,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>38.34679395543474</v>
+        <v>38.34679395543475</v>
       </c>
       <c r="L27" t="n">
-        <v>118.5181001296708</v>
+        <v>118.5181001296709</v>
       </c>
       <c r="M27" t="n">
         <v>183.5117642464701</v>
       </c>
       <c r="N27" t="n">
-        <v>206.9747236472315</v>
+        <v>206.9747236472316</v>
       </c>
       <c r="O27" t="n">
         <v>133.0312521404388</v>
       </c>
       <c r="P27" t="n">
-        <v>84.4698113718181</v>
+        <v>84.46981137181811</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36759,19 +36759,19 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>35.60693690676251</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>196.9645931547196</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>146.3037655011702</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>86.26776456031178</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>136.703131559407</v>
+        <v>136.7031315594069</v>
       </c>
       <c r="K29" t="n">
         <v>206.7575583777</v>
@@ -36844,7 +36844,7 @@
         <v>289.5735314691448</v>
       </c>
       <c r="O29" t="n">
-        <v>248.0510481933624</v>
+        <v>248.0510481933623</v>
       </c>
       <c r="P29" t="n">
         <v>198.3927781729122</v>
@@ -36853,7 +36853,7 @@
         <v>123.773013486579</v>
       </c>
       <c r="R29" t="n">
-        <v>18.60320514163416</v>
+        <v>18.60320514163411</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,22 +36911,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>38.34679395543474</v>
+        <v>38.34679395543475</v>
       </c>
       <c r="L30" t="n">
-        <v>118.5181001296708</v>
+        <v>118.5181001296709</v>
       </c>
       <c r="M30" t="n">
         <v>183.5117642464701</v>
       </c>
       <c r="N30" t="n">
-        <v>206.9747236472315</v>
+        <v>206.9747236472316</v>
       </c>
       <c r="O30" t="n">
         <v>133.0312521404388</v>
       </c>
       <c r="P30" t="n">
-        <v>84.4698113718181</v>
+        <v>84.46981137181811</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36969,10 +36969,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>68.30210027329028</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>71.80860931177594</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>93.24514294109204</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -36999,19 +36999,19 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>5.756769125954329</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>60.96949747873268</v>
+        <v>155.0061516237521</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>10.05478936836687</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>137.5308414262712</v>
+        <v>137.5308414262713</v>
       </c>
       <c r="K32" t="n">
-        <v>207.5852682445643</v>
+        <v>207.5852682445644</v>
       </c>
       <c r="L32" t="n">
-        <v>261.5052305734512</v>
+        <v>261.5052305734513</v>
       </c>
       <c r="M32" t="n">
-        <v>295.9911463372766</v>
+        <v>295.9911463372767</v>
       </c>
       <c r="N32" t="n">
-        <v>290.4012413360091</v>
+        <v>290.4012413360092</v>
       </c>
       <c r="O32" t="n">
-        <v>248.8787580602266</v>
+        <v>248.8787580602267</v>
       </c>
       <c r="P32" t="n">
-        <v>199.2204880397765</v>
+        <v>179.1033632896615</v>
       </c>
       <c r="Q32" t="n">
-        <v>104.4835986033285</v>
+        <v>124.6007233534434</v>
       </c>
       <c r="R32" t="n">
-        <v>19.4309150084984</v>
+        <v>19.43091500849846</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,22 +37148,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>38.34679395543474</v>
+        <v>38.34679395543475</v>
       </c>
       <c r="L33" t="n">
-        <v>118.5181001296708</v>
+        <v>118.5181001296709</v>
       </c>
       <c r="M33" t="n">
         <v>183.5117642464701</v>
       </c>
       <c r="N33" t="n">
-        <v>206.9747236472315</v>
+        <v>206.9747236472316</v>
       </c>
       <c r="O33" t="n">
         <v>133.0312521404388</v>
       </c>
       <c r="P33" t="n">
-        <v>84.4698113718181</v>
+        <v>84.46981137181811</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37206,19 +37206,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>69.12981014015452</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>75.38557817241858</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>37.5643249602865</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -37233,13 +37233,13 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>189.0955949919718</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>82.14453163968564</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -37303,37 +37303,37 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>159.2566963553385</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>260.4608093700287</v>
       </c>
       <c r="L35" t="n">
-        <v>47.192770182586</v>
+        <v>47.19277018258602</v>
       </c>
       <c r="M35" t="n">
-        <v>81.67868594641142</v>
+        <v>260.4608093700287</v>
       </c>
       <c r="N35" t="n">
-        <v>76.08878094514384</v>
+        <v>224.3828238401885</v>
       </c>
       <c r="O35" t="n">
-        <v>34.56629766936139</v>
+        <v>34.5662976693614</v>
       </c>
       <c r="P35" t="n">
-        <v>256.96719590518</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>182.3474312188468</v>
       </c>
       <c r="R35" t="n">
-        <v>77.1776228739019</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>44.54217369782054</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>49.59328685644947</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>21.90862676361897</v>
@@ -37385,22 +37385,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>38.34679395543474</v>
+        <v>38.34679395543475</v>
       </c>
       <c r="L36" t="n">
-        <v>118.5181001296708</v>
+        <v>118.5181001296709</v>
       </c>
       <c r="M36" t="n">
         <v>183.5117642464701</v>
       </c>
       <c r="N36" t="n">
-        <v>206.9747236472315</v>
+        <v>206.9747236472316</v>
       </c>
       <c r="O36" t="n">
         <v>133.0312521404388</v>
       </c>
       <c r="P36" t="n">
-        <v>84.4698113718181</v>
+        <v>84.46981137181811</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37476,7 +37476,7 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>35.55650193384704</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -37497,13 +37497,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>26.95015307181882</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>8.606348862028231</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -37537,25 +37537,25 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>31.04939904079268</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>92.66688161954826</v>
+        <v>195.2775492916747</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>260.4608093700286</v>
+        <v>188.899540738695</v>
       </c>
       <c r="M38" t="n">
-        <v>81.67868594641142</v>
+        <v>81.67868594641143</v>
       </c>
       <c r="N38" t="n">
-        <v>260.4608093700286</v>
+        <v>260.4608093700287</v>
       </c>
       <c r="O38" t="n">
-        <v>260.4608093700286</v>
+        <v>260.4608093700287</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -37622,22 +37622,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>38.34679395543474</v>
+        <v>38.34679395543475</v>
       </c>
       <c r="L39" t="n">
-        <v>118.5181001296708</v>
+        <v>118.5181001296709</v>
       </c>
       <c r="M39" t="n">
         <v>183.5117642464701</v>
       </c>
       <c r="N39" t="n">
-        <v>206.9747236472315</v>
+        <v>206.9747236472316</v>
       </c>
       <c r="O39" t="n">
         <v>133.0312521404388</v>
       </c>
       <c r="P39" t="n">
-        <v>84.4698113718181</v>
+        <v>84.46981137181811</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37728,19 +37728,19 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>16.93438293265675</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>26.95015307181882</v>
+        <v>18.62211900119029</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>8.606348862028231</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -37777,37 +37777,37 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>164.228150250882</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>234.2825770691751</v>
+        <v>215.6491660492144</v>
       </c>
       <c r="L41" t="n">
-        <v>288.2025393980621</v>
+        <v>288.202539398062</v>
       </c>
       <c r="M41" t="n">
-        <v>136.3749784264766</v>
+        <v>81.67868594641143</v>
       </c>
       <c r="N41" t="n">
-        <v>76.08878094514387</v>
+        <v>317.0985501606199</v>
       </c>
       <c r="O41" t="n">
-        <v>34.56629766936142</v>
+        <v>275.5760668848374</v>
       </c>
       <c r="P41" t="n">
-        <v>225.9177968643873</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>151.2980321780541</v>
       </c>
       <c r="R41" t="n">
-        <v>46.1282238331092</v>
+        <v>46.12822383310919</v>
       </c>
       <c r="S41" t="n">
         <v>13.49277465702784</v>
       </c>
       <c r="T41" t="n">
-        <v>18.54388781565676</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37859,13 +37859,13 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>38.34679395543476</v>
+        <v>38.34679395543475</v>
       </c>
       <c r="L42" t="n">
         <v>118.5181001296709</v>
       </c>
       <c r="M42" t="n">
-        <v>183.5117642464702</v>
+        <v>183.5117642464701</v>
       </c>
       <c r="N42" t="n">
         <v>206.9747236472316</v>
@@ -37917,7 +37917,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>30.78964013257514</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -37926,7 +37926,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>72.30899428832355</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -37938,7 +37938,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>103.0986344208987</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>164.228150250882</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>234.2825770691751</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>288.2025393980621</v>
+        <v>169.6782837298106</v>
       </c>
       <c r="M44" t="n">
-        <v>322.6884551618875</v>
+        <v>322.6884551618874</v>
       </c>
       <c r="N44" t="n">
-        <v>76.08878094514387</v>
+        <v>317.0985501606199</v>
       </c>
       <c r="O44" t="n">
-        <v>34.56629766936142</v>
+        <v>275.5760668848374</v>
       </c>
       <c r="P44" t="n">
         <v>225.9177968643873</v>
       </c>
       <c r="Q44" t="n">
-        <v>11.11277927575268</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>46.12822383310919</v>
       </c>
       <c r="S44" t="n">
         <v>13.49277465702784</v>
@@ -38096,13 +38096,13 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>38.34679395543476</v>
+        <v>38.34679395543475</v>
       </c>
       <c r="L45" t="n">
         <v>118.5181001296709</v>
       </c>
       <c r="M45" t="n">
-        <v>183.5117642464702</v>
+        <v>183.5117642464701</v>
       </c>
       <c r="N45" t="n">
         <v>206.9747236472316</v>
@@ -38157,7 +38157,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>97.52690957160324</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -38175,7 +38175,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>103.0986344208987</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -38199,7 +38199,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>5.571724849295453</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
